--- a/bak/ml_fb.xlsx
+++ b/bak/ml_fb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H470"/>
+  <dimension ref="A1:H664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15230,254 +15230,6462 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t xml:space="preserve">Broadmeadow Magic FC </t>
+          <t xml:space="preserve">Hoang Anh Gia Lai </t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maitland FC</t>
+          <t xml:space="preserve"> Hong Linh Ha Tinh FC</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>1.31</v>
+        <v>2.15</v>
       </c>
       <c r="D463" t="n">
-        <v>6.8</v>
+        <v>3.3</v>
       </c>
       <c r="E463" t="n">
-        <v>5.49</v>
+        <v>1.15</v>
       </c>
       <c r="F463" t="n">
-        <v>1.613333333333333</v>
+        <v>1.34</v>
       </c>
       <c r="G463" t="n">
-        <v>3.08</v>
+        <v>0.66</v>
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t xml:space="preserve">Broadmeadow Magic FC </t>
+          <t xml:space="preserve">Tsirang FC </t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maitland FC</t>
+          <t xml:space="preserve"> Samtse FC</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>1.31</v>
+        <v>2.7</v>
       </c>
       <c r="D464" t="n">
-        <v>6.8</v>
+        <v>2.15</v>
       </c>
       <c r="E464" t="n">
-        <v>5.49</v>
+        <v>0.5500000000000003</v>
       </c>
       <c r="F464" t="n">
-        <v>1.613333333333333</v>
+        <v>2.433333333333334</v>
       </c>
       <c r="G464" t="n">
-        <v>3.08</v>
+        <v>1.046666666666667</v>
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoang Anh Gia Lai </t>
+          <t xml:space="preserve">Chungnam Asan FC </t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hong Linh Ha Tinh FC</t>
+          <t xml:space="preserve"> Suwon Bluewings</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="D465" t="n">
-        <v>3.3</v>
+        <v>1.94</v>
       </c>
       <c r="E465" t="n">
-        <v>1.15</v>
+        <v>1.66</v>
       </c>
       <c r="F465" t="n">
-        <v>1.34</v>
+        <v>0.79</v>
       </c>
       <c r="G465" t="n">
-        <v>0.66</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tsirang FC </t>
+          <t xml:space="preserve">Jeonnam Dragons </t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Samtse FC</t>
+          <t xml:space="preserve"> Cheongju FC</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="D466" t="n">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="E466" t="n">
-        <v>0.5500000000000003</v>
+        <v>1.4</v>
       </c>
       <c r="F466" t="n">
-        <v>2.433333333333334</v>
+        <v>1.1075</v>
       </c>
       <c r="G466" t="n">
-        <v>1.046666666666667</v>
+        <v>1.1025</v>
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chungnam Asan FC </t>
+          <t xml:space="preserve">Seoul E-Land FC </t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Suwon Bluewings</t>
+          <t xml:space="preserve"> Bucheon FC</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="D467" t="n">
-        <v>1.94</v>
+        <v>3.25</v>
       </c>
       <c r="E467" t="n">
-        <v>1.66</v>
+        <v>1.15</v>
       </c>
       <c r="F467" t="n">
-        <v>0.79</v>
+        <v>1.26</v>
       </c>
       <c r="G467" t="n">
-        <v>0.8300000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeonnam Dragons </t>
+          <t xml:space="preserve">Meizhou Hakka </t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cheongju FC</t>
+          <t xml:space="preserve"> Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>2.1</v>
+        <v>2.41</v>
       </c>
       <c r="D468" t="n">
-        <v>3.5</v>
+        <v>3.08</v>
       </c>
       <c r="E468" t="n">
-        <v>1.4</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="F468" t="n">
-        <v>1.1075</v>
+        <v>0.41</v>
       </c>
       <c r="G468" t="n">
-        <v>1.1025</v>
+        <v>1.17</v>
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seoul E-Land FC </t>
+          <t xml:space="preserve">Tottenham </t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bucheon FC</t>
+          <t xml:space="preserve"> Newcastle</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="D469" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="E469" t="n">
-        <v>1.15</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="F469" t="n">
-        <v>1.26</v>
+        <v>2.5125</v>
       </c>
       <c r="G469" t="n">
-        <v>1.06</v>
+        <v>0.9025000000000001</v>
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meizhou Hakka </t>
+          <t xml:space="preserve">AC Nagano Parceiro </t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sichuan Jiuniu</t>
+          <t xml:space="preserve"> Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>2.41</v>
+        <v>3.33</v>
       </c>
       <c r="D470" t="n">
-        <v>3.08</v>
+        <v>2.15</v>
       </c>
       <c r="E470" t="n">
-        <v>0.6699999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="F470" t="n">
-        <v>0.41</v>
+        <v>1.4825</v>
       </c>
       <c r="G470" t="n">
+        <v>1.6475</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blaublitz Akita </t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Niigata Albirex</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D471" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E471" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F471" t="n">
+        <v>1.435</v>
+      </c>
+      <c r="G471" t="n">
+        <v>1.2525</v>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Ryukyu </t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D472" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E472" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F472" t="n">
+        <v>1.5325</v>
+      </c>
+      <c r="G472" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kashiwa Reysol </t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D473" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E473" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F473" t="n">
+        <v>1.0325</v>
+      </c>
+      <c r="G473" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kataller Toyama </t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>6</v>
+      </c>
+      <c r="D474" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E474" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F474" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G474" t="n">
+        <v>1.3075</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Machida Zelvia </t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D475" t="n">
+        <v>3</v>
+      </c>
+      <c r="E475" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F475" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="G475" t="n">
+        <v>1.0075</v>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sagan Tosu </t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Tokyo</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D476" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E476" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F476" t="n">
+        <v>1.152</v>
+      </c>
+      <c r="G476" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tokyo Verdy </t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D477" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E477" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="F477" t="n">
+        <v>1.512857142857143</v>
+      </c>
+      <c r="G477" t="n">
+        <v>1.985714285714286</v>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">V-Varen Nagasaki </t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Urawa Red Diamonds</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D478" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E478" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F478" t="n">
+        <v>2.2525</v>
+      </c>
+      <c r="G478" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yokohama FC </t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="D479" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E479" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F479" t="n">
+        <v>1.636666666666667</v>
+      </c>
+      <c r="G479" t="n">
+        <v>1.146666666666667</v>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valentine FC </t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Newcastle Olympic FC</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D480" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E480" t="n">
+        <v>0</v>
+      </c>
+      <c r="F480" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="G480" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Busan I Park </t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cheonan City FC</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D481" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E481" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F481" t="n">
+        <v>1.196666666666667</v>
+      </c>
+      <c r="G481" t="n">
+        <v>2.006666666666666</v>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gimpo FC </t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Seongnam Ilhwa</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D482" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E482" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="F482" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G482" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gyeongnam FC </t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ansan Greeners</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D483" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E483" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F483" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G483" t="n">
+        <v>1.4925</v>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">K. Khanh Hoa </t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Viettel FC</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D484" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E484" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F484" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G484" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ludogorets </t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PFC Lokomotiv Plovdiv</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D485" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E485" t="n">
+        <v>7.130000000000001</v>
+      </c>
+      <c r="F485" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="G485" t="n">
+        <v>1.255</v>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TJ Start Brno </t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Hlucin</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D486" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E486" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F486" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G486" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Mladost Doboj Kakanj </t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NK Zvijezda Gradacac</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D487" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E487" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="F487" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G487" t="n">
+        <v>1.2575</v>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NK Bratstvo Gracanica </t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BFK Simm-Bau</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D488" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E488" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F488" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="G488" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NK Celik Zenica </t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NK Jedinstvo Bihac</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D489" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E489" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="F489" t="n">
+        <v>2.2675</v>
+      </c>
+      <c r="G489" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Denmark </t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Germany</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D490" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E490" t="n">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="F490" t="n">
+        <v>1.395</v>
+      </c>
+      <c r="G490" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Jazz </t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vasa IFK</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D491" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E491" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F491" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G491" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hajer FC Al-Hasa </t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AL Qadisiyah</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D492" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E492" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F492" t="n">
+        <v>1.7325</v>
+      </c>
+      <c r="G492" t="n">
+        <v>1.2175</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HNK Rijeka </t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GNK Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D493" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E493" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F493" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G493" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SK Hranice </t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Slovan Rosice</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D494" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E494" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F494" t="n">
+        <v>1.955</v>
+      </c>
+      <c r="G494" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Famalicao </t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sporting Braga</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D495" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E495" t="n">
+        <v>0.6999999999999997</v>
+      </c>
+      <c r="F495" t="n">
+        <v>0.8066666666666668</v>
+      </c>
+      <c r="G495" t="n">
+        <v>1.573333333333333</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADO Den Haag </t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Excelsior Rotterdam</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D496" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E496" t="n">
+        <v>0.5499999999999998</v>
+      </c>
+      <c r="F496" t="n">
+        <v>1.456666666666666</v>
+      </c>
+      <c r="G496" t="n">
+        <v>1.673333333333333</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bryne FK </t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aalesunds FK</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D497" t="n">
+        <v>5</v>
+      </c>
+      <c r="E497" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="F497" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G497" t="n">
+        <v>0.7949999999999999</v>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Egersunds IK </t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Levanger FK</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D498" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E498" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F498" t="n">
+        <v>2.3475</v>
+      </c>
+      <c r="G498" t="n">
+        <v>1.9275</v>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kongsvinger IL Fotball </t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mjondalen IF</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D499" t="n">
+        <v>5</v>
+      </c>
+      <c r="E499" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="F499" t="n">
+        <v>0.6966666666666667</v>
+      </c>
+      <c r="G499" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ranheim </t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stabaek IF</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D500" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E500" t="n">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="F500" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="G500" t="n">
+        <v>2.416666666666667</v>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sogndal IL </t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Raufoss IL</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D501" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E501" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="F501" t="n">
+        <v>1.428</v>
+      </c>
+      <c r="G501" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GIF Sundsvall </t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sandvikens IF</t>
+        </is>
+      </c>
+      <c r="C502" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D502" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E502" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F502" t="n">
+        <v>1.425</v>
+      </c>
+      <c r="G502" t="n">
+        <v>0.4075</v>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helsingborgs IF </t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Skovde AIK</t>
+        </is>
+      </c>
+      <c r="C503" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D503" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E503" t="n">
+        <v>5.460000000000001</v>
+      </c>
+      <c r="F503" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G503" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orgryte IS </t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Trelleborgs FF</t>
+        </is>
+      </c>
+      <c r="C504" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D504" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E504" t="n">
+        <v>0.3499999999999996</v>
+      </c>
+      <c r="F504" t="n">
+        <v>1</v>
+      </c>
+      <c r="G504" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osters IF </t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Landskrona BoIS</t>
+        </is>
+      </c>
+      <c r="C505" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D505" t="n">
+        <v>4</v>
+      </c>
+      <c r="E505" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F505" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G505" t="n">
+        <v>1.733333333333333</v>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ostersunds FK </t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gefle IF</t>
+        </is>
+      </c>
+      <c r="C506" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D506" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E506" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="F506" t="n">
+        <v>1.476666666666667</v>
+      </c>
+      <c r="G506" t="n">
+        <v>0.7200000000000001</v>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tampereen Ilves </t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Inter Turku</t>
+        </is>
+      </c>
+      <c r="C507" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D507" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E507" t="n">
+        <v>2.640000000000001</v>
+      </c>
+      <c r="F507" t="n">
+        <v>1.366666666666666</v>
+      </c>
+      <c r="G507" t="n">
+        <v>0.6933333333333334</v>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GFK Tikvesh 1930 </t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Voska Sport</t>
+        </is>
+      </c>
+      <c r="C508" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D508" t="n">
+        <v>3</v>
+      </c>
+      <c r="E508" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F508" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G508" t="n">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Karbach </t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SV Auersmacher</t>
+        </is>
+      </c>
+      <c r="C509" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D509" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E509" t="n">
         <v>1.17</v>
       </c>
-      <c r="H470" t="inlineStr">
+      <c r="F509" t="n">
+        <v>3.555</v>
+      </c>
+      <c r="G509" t="n">
+        <v>1.4175</v>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FV Dudenhofen </t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK 03 Pirmasens</t>
+        </is>
+      </c>
+      <c r="C510" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D510" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E510" t="n">
+        <v>3.430000000000001</v>
+      </c>
+      <c r="F510" t="n">
+        <v>2.705</v>
+      </c>
+      <c r="G510" t="n">
+        <v>1.7525</v>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schwarz-Weiss Essen </t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Buderich 02</t>
+        </is>
+      </c>
+      <c r="C511" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D511" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E511" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F511" t="n">
+        <v>2.946666666666667</v>
+      </c>
+      <c r="G511" t="n">
+        <v>1.613333333333333</v>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Paranaense PR </t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fluminense FC RJ</t>
+        </is>
+      </c>
+      <c r="C512" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D512" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E512" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F512" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G512" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceara SC CE </t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cruzeiro EC MG</t>
+        </is>
+      </c>
+      <c r="C513" t="n">
+        <v>3</v>
+      </c>
+      <c r="D513" t="n">
+        <v>2</v>
+      </c>
+      <c r="E513" t="n">
+        <v>1</v>
+      </c>
+      <c r="F513" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G513" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CR Flamengo RJ </t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> America FC MG</t>
+        </is>
+      </c>
+      <c r="C514" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D514" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E514" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F514" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G514" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RB Bragantino SP </t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sao Paulo FC SP</t>
+        </is>
+      </c>
+      <c r="C515" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D515" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E515" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F515" t="n">
+        <v>1.145</v>
+      </c>
+      <c r="G515" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marcílio Dias U20 </t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Joinville EC U20</t>
+        </is>
+      </c>
+      <c r="C516" t="n">
+        <v>2</v>
+      </c>
+      <c r="D516" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E516" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F516" t="n">
+        <v>2.2925</v>
+      </c>
+      <c r="G516" t="n">
+        <v>1.1525</v>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boca Juniors </t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Talleres de Cordoba Reserve</t>
+        </is>
+      </c>
+      <c r="C517" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D517" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E517" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F517" t="n">
+        <v>1.1425</v>
+      </c>
+      <c r="G517" t="n">
+        <v>0.8774999999999999</v>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Belgrano </t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA River Plate (Arg)</t>
+        </is>
+      </c>
+      <c r="C518" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D518" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E518" t="n">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="F518" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G518" t="n">
+        <v>1.0975</v>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LR Vicenza </t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Calcio Padova</t>
+        </is>
+      </c>
+      <c r="C519" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D519" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E519" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F519" t="n">
+        <v>1.1975</v>
+      </c>
+      <c r="G519" t="n">
+        <v>1.2425</v>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argentino de Quilmes </t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Comunicaciones</t>
+        </is>
+      </c>
+      <c r="C520" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D520" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E520" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F520" t="n">
+        <v>0.7524999999999999</v>
+      </c>
+      <c r="G520" t="n">
+        <v>1.0075</v>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Claypole </t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Atlas</t>
+        </is>
+      </c>
+      <c r="C521" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D521" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E521" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F521" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G521" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yupanqui </t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deportivo Espanol</t>
+        </is>
+      </c>
+      <c r="C522" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D522" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E522" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F522" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G522" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atalanta </t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Leverkusen</t>
+        </is>
+      </c>
+      <c r="C523" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D523" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E523" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="F523" t="n">
+        <v>1.505</v>
+      </c>
+      <c r="G523" t="n">
+        <v>1.3775</v>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t xml:space="preserve">St. Francis FC </t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wayside Celtic</t>
+        </is>
+      </c>
+      <c r="C524" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D524" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E524" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="F524" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G524" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Real Tomayapo </t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Universitario de Vinto</t>
+        </is>
+      </c>
+      <c r="C525" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D525" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E525" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F525" t="n">
+        <v>0.7675000000000001</v>
+      </c>
+      <c r="G525" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SC Corinthians SP </t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Goias EC GO</t>
+        </is>
+      </c>
+      <c r="C526" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D526" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E526" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F526" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G526" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A-League All Stars </t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Newcastle</t>
+        </is>
+      </c>
+      <c r="C527" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D527" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E527" t="n">
+        <v>3.470000000000001</v>
+      </c>
+      <c r="F527" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G527" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hubei Istar </t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shandong Taishan B</t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D528" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E528" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F528" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="G528" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Casuarina FC </t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Darwin Olympic SC</t>
+        </is>
+      </c>
+      <c r="C529" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D529" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E529" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F529" t="n">
+        <v>2.845</v>
+      </c>
+      <c r="G529" t="n">
+        <v>1.7825</v>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sydney FC </t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NWS Spirit</t>
+        </is>
+      </c>
+      <c r="C530" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D530" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E530" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F530" t="n">
+        <v>2.6275</v>
+      </c>
+      <c r="G530" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Broadmeadow Magic FC </t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lake Macquarie FC</t>
+        </is>
+      </c>
+      <c r="C531" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D531" t="n">
+        <v>18</v>
+      </c>
+      <c r="E531" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="F531" t="n">
+        <v>3.023333333333333</v>
+      </c>
+      <c r="G531" t="n">
+        <v>2.726666666666667</v>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Adelaide FC </t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide City FC</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D532" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E532" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F532" t="n">
+        <v>1.5275</v>
+      </c>
+      <c r="G532" t="n">
+        <v>1.4875</v>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ulsan Citizen FC </t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gimhae FC</t>
+        </is>
+      </c>
+      <c r="C533" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D533" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E533" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F533" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G533" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangladesh Police FC </t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fortis FC</t>
+        </is>
+      </c>
+      <c r="C534" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D534" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E534" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F534" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G534" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rahmatganj MFS </t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bashundhara Kings</t>
+        </is>
+      </c>
+      <c r="C535" t="n">
+        <v>26</v>
+      </c>
+      <c r="D535" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E535" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="F535" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="G535" t="n">
+        <v>0.7175</v>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Changnyeong WFC </t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sejong Sportstoto WFC</t>
+        </is>
+      </c>
+      <c r="C536" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D536" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E536" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F536" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G536" t="n">
+        <v>0.7025</v>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Riverside Olympic FC </t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Launceston City FC</t>
+        </is>
+      </c>
+      <c r="C537" t="n">
+        <v>7</v>
+      </c>
+      <c r="D537" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E537" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="F537" t="n">
+        <v>0.7699999999999999</v>
+      </c>
+      <c r="G537" t="n">
+        <v>2.335</v>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brisbane City FC </t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mitchelton FC</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D538" t="n">
+        <v>16</v>
+      </c>
+      <c r="E538" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="F538" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="G538" t="n">
+        <v>1.4475</v>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Redlands United FC </t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rochedale Rovers</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D539" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E539" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F539" t="n">
+        <v>1.973333333333333</v>
+      </c>
+      <c r="G539" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bentleigh Greens </t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Bulleen Lions</t>
+        </is>
+      </c>
+      <c r="C540" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D540" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E540" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F540" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="G540" t="n">
+        <v>1.0075</v>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Port Darwin FC </t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Darwin Hearts FC</t>
+        </is>
+      </c>
+      <c r="C541" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D541" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E541" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="F541" t="n">
+        <v>2.982</v>
+      </c>
+      <c r="G541" t="n">
+        <v>1.958</v>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Terengganu FC </t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kelantan United FC</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D542" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E542" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="F542" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G542" t="n">
+        <v>2.255</v>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LNZ Cherkasy </t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="C543" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D543" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E543" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F543" t="n">
+        <v>0.9575</v>
+      </c>
+      <c r="G543" t="n">
+        <v>1.4675</v>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hapoel Afula FC </t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hapoel Acre FC</t>
+        </is>
+      </c>
+      <c r="C544" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D544" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E544" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F544" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G544" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hapoel Nir Ramat Hasharon FC </t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hapoel Ironi Kiryat Shmona FC</t>
+        </is>
+      </c>
+      <c r="C545" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D545" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E545" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F545" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G545" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oman Club </t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sur SC</t>
+        </is>
+      </c>
+      <c r="C546" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D546" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E546" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F546" t="n">
+        <v>1.226</v>
+      </c>
+      <c r="G546" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Liepaja </t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Valmiera FC</t>
+        </is>
+      </c>
+      <c r="C547" t="n">
+        <v>6</v>
+      </c>
+      <c r="D547" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E547" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F547" t="n">
+        <v>1.185</v>
+      </c>
+      <c r="G547" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mkp Carina Gubin </t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Warta Gorzow Wielkopolski</t>
+        </is>
+      </c>
+      <c r="C548" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D548" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E548" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F548" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G548" t="n">
+        <v>1</v>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Be1 Nfa </t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Babrungas Plunge</t>
+        </is>
+      </c>
+      <c r="C549" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D549" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E549" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F549" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G549" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OPS Oulu </t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JS Hercules</t>
+        </is>
+      </c>
+      <c r="C550" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D550" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E550" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="F550" t="n">
+        <v>0.8240000000000001</v>
+      </c>
+      <c r="G550" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HNK Gorica </t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NK Istra 1961</t>
+        </is>
+      </c>
+      <c r="C551" t="n">
+        <v>3</v>
+      </c>
+      <c r="D551" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E551" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F551" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G551" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enppi Club </t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="C552" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D552" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E552" t="n">
+        <v>0.8499999999999996</v>
+      </c>
+      <c r="F552" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G552" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pharco FC </t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Smouha SC</t>
+        </is>
+      </c>
+      <c r="C553" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D553" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E553" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F553" t="n">
+        <v>0.7725</v>
+      </c>
+      <c r="G553" t="n">
+        <v>1.4875</v>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FA Povltavska </t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dukla Prague B</t>
+        </is>
+      </c>
+      <c r="C554" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D554" t="n">
+        <v>4</v>
+      </c>
+      <c r="E554" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F554" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G554" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Kraluv Dvur </t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bohemians Prague 1905 B</t>
+        </is>
+      </c>
+      <c r="C555" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D555" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E555" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F555" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G555" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GKS Wikielec </t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KS Pelikan Lowicz</t>
+        </is>
+      </c>
+      <c r="C556" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D556" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E556" t="n">
+        <v>0.5499999999999998</v>
+      </c>
+      <c r="F556" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G556" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Vitebsk </t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Naftan Novopolotsk</t>
+        </is>
+      </c>
+      <c r="C557" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D557" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E557" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F557" t="n">
+        <v>1.4875</v>
+      </c>
+      <c r="G557" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al-Sadd SC </t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Qatar SC</t>
+        </is>
+      </c>
+      <c r="C558" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D558" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E558" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F558" t="n">
+        <v>2.373333333333334</v>
+      </c>
+      <c r="G558" t="n">
+        <v>1.503333333333333</v>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Suduva Marijampole </t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Transinvest</t>
+        </is>
+      </c>
+      <c r="C559" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D559" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E559" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F559" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G559" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al Wehdat Jor </t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Al Aqaba</t>
+        </is>
+      </c>
+      <c r="C560" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D560" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E560" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="F560" t="n">
+        <v>1.404285714285714</v>
+      </c>
+      <c r="G560" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Kiffen </t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nurmijarven Jalkapalloseura</t>
+        </is>
+      </c>
+      <c r="C561" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D561" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E561" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F561" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G561" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al-Arabi (KW) </t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Al-Fahaheel</t>
+        </is>
+      </c>
+      <c r="C562" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D562" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E562" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="F562" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G562" t="n">
+        <v>1.315</v>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nykoebing FC </t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aarhus Fremad</t>
+        </is>
+      </c>
+      <c r="C563" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D563" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E563" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="F563" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G563" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atalanta BC </t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sassuolo Calcio</t>
+        </is>
+      </c>
+      <c r="C564" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D564" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E564" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="F564" t="n">
+        <v>1.245</v>
+      </c>
+      <c r="G564" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Javor Ivanjica </t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="C565" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D565" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E565" t="n">
+        <v>0</v>
+      </c>
+      <c r="F565" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G565" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Novi Pazar </t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="C566" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D566" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E566" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="F566" t="n">
+        <v>1.316666666666667</v>
+      </c>
+      <c r="G566" t="n">
+        <v>0.7066666666666667</v>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Kufstein </t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Pinzgau Saalfelden</t>
+        </is>
+      </c>
+      <c r="C567" t="n">
+        <v>3</v>
+      </c>
+      <c r="D567" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E567" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F567" t="n">
+        <v>1.6375</v>
+      </c>
+      <c r="G567" t="n">
+        <v>1.345</v>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alanyaspor </t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Antalyaspor</t>
+        </is>
+      </c>
+      <c r="C568" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D568" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E568" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F568" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G568" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IF Elfsborg </t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Halmstads BK</t>
+        </is>
+      </c>
+      <c r="C569" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D569" t="n">
+        <v>8</v>
+      </c>
+      <c r="E569" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F569" t="n">
+        <v>2.0275</v>
+      </c>
+      <c r="G569" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malmo </t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kalmar FF</t>
+        </is>
+      </c>
+      <c r="C570" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D570" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E570" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="F570" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G570" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bodoe/Glimt </t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KFUM Oslo</t>
+        </is>
+      </c>
+      <c r="C571" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D571" t="n">
+        <v>10</v>
+      </c>
+      <c r="E571" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="F571" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G571" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS Mioveni </t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Botosani</t>
+        </is>
+      </c>
+      <c r="C572" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D572" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E572" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F572" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G572" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hillerod Fodbold </t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AC Horsens</t>
+        </is>
+      </c>
+      <c r="C573" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D573" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E573" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F573" t="n">
+        <v>1</v>
+      </c>
+      <c r="G573" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hobro IK </t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SonderjyskE</t>
+        </is>
+      </c>
+      <c r="C574" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D574" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E574" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F574" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G574" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vendsyssel FF </t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Fredericia</t>
+        </is>
+      </c>
+      <c r="C575" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D575" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E575" t="n">
+        <v>1</v>
+      </c>
+      <c r="F575" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G575" t="n">
+        <v>0.8100000000000002</v>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AB Gladsaxe </t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Roskilde</t>
+        </is>
+      </c>
+      <c r="C576" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D576" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E576" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F576" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G576" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emirates Club </t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Al-Nasr Dubai CSC</t>
+        </is>
+      </c>
+      <c r="C577" t="n">
+        <v>4</v>
+      </c>
+      <c r="D577" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E577" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="F577" t="n">
+        <v>1.66625</v>
+      </c>
+      <c r="G577" t="n">
+        <v>1.4525</v>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orebro Syrianska IF </t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FBK Karlstad</t>
+        </is>
+      </c>
+      <c r="C578" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D578" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E578" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="F578" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G578" t="n">
+        <v>2.155</v>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Torns IF </t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ariana FC</t>
+        </is>
+      </c>
+      <c r="C579" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D579" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E579" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F579" t="n">
+        <v>3.076666666666667</v>
+      </c>
+      <c r="G579" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grebbestads IF </t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Herrestads AIF</t>
+        </is>
+      </c>
+      <c r="C580" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D580" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E580" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F580" t="n">
+        <v>1.5675</v>
+      </c>
+      <c r="G580" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nosaby IF </t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IFK Hassleholm</t>
+        </is>
+      </c>
+      <c r="C581" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D581" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E581" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F581" t="n">
+        <v>0.8049999999999999</v>
+      </c>
+      <c r="G581" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ASK Voitsberg </t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> USV Weindorf St. Anna am Aigen</t>
+        </is>
+      </c>
+      <c r="C582" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D582" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E582" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="F582" t="n">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="G582" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vorwarts Steyr </t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Union Gurten</t>
+        </is>
+      </c>
+      <c r="C583" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D583" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E583" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F583" t="n">
+        <v>1.008</v>
+      </c>
+      <c r="G583" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Marchfeld Donauauen </t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kremser SC</t>
+        </is>
+      </c>
+      <c r="C584" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D584" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E584" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F584" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="G584" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tvaakers IF </t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ljungskile SK</t>
+        </is>
+      </c>
+      <c r="C585" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D585" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E585" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F585" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G585" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deportes Union La Calera </t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Coquimbo Unido</t>
+        </is>
+      </c>
+      <c r="C586" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D586" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E586" t="n">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="F586" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G586" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charlottetowne Hops FC </t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Greenville United</t>
+        </is>
+      </c>
+      <c r="C587" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D587" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E587" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="F587" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G587" t="n">
+        <v>1.3175</v>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chicago Fire FC II </t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Columbus Crew 2</t>
+        </is>
+      </c>
+      <c r="C588" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="D588" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E588" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F588" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G588" t="n">
+        <v>2.176666666666666</v>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tobacco Road FC </t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> North Carolina FC</t>
+        </is>
+      </c>
+      <c r="C589" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D589" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E589" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F589" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="G589" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t xml:space="preserve">York United FC </t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HFX Wanderers FC</t>
+        </is>
+      </c>
+      <c r="C590" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D590" t="n">
+        <v>3</v>
+      </c>
+      <c r="E590" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F590" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G590" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serra FC ES </t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ipatinga MG</t>
+        </is>
+      </c>
+      <c r="C591" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D591" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E591" t="n">
+        <v>0</v>
+      </c>
+      <c r="F591" t="n">
+        <v>1.8775</v>
+      </c>
+      <c r="G591" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orlando Pride </t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Portland Thorns FC</t>
+        </is>
+      </c>
+      <c r="C592" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D592" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E592" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F592" t="n">
+        <v>1.5575</v>
+      </c>
+      <c r="G592" t="n">
+        <v>0.4325000000000001</v>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charleston Battery </t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> El Paso Locomotive FC</t>
+        </is>
+      </c>
+      <c r="C593" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D593" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E593" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="F593" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G593" t="n">
+        <v>2.3375</v>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tochigi City FC </t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tokyo Musashino City FC</t>
+        </is>
+      </c>
+      <c r="C594" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D594" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E594" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F594" t="n">
+        <v>2.7325</v>
+      </c>
+      <c r="G594" t="n">
+        <v>1.2425</v>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seisa Osa Reia Shonan FC </t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diavorosso Hiroshima</t>
+        </is>
+      </c>
+      <c r="C595" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D595" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E595" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="F595" t="n">
+        <v>1.103333333333333</v>
+      </c>
+      <c r="G595" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edgeworth FC </t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Newcastle Olympic FC</t>
+        </is>
+      </c>
+      <c r="C596" t="n">
+        <v>2</v>
+      </c>
+      <c r="D596" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E596" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F596" t="n">
+        <v>0.1633333333333333</v>
+      </c>
+      <c r="G596" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maitland FC </t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Weston Workers FC</t>
+        </is>
+      </c>
+      <c r="C597" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D597" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E597" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="F597" t="n">
+        <v>0.2300000000000001</v>
+      </c>
+      <c r="G597" t="n">
+        <v>2.013333333333333</v>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clarence Zebras FC </t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Devonport City SC</t>
+        </is>
+      </c>
+      <c r="C598" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D598" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E598" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="F598" t="n">
+        <v>1.7775</v>
+      </c>
+      <c r="G598" t="n">
+        <v>1.685</v>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ehime FC </t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tochigi SC</t>
+        </is>
+      </c>
+      <c r="C599" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D599" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E599" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F599" t="n">
+        <v>2.334</v>
+      </c>
+      <c r="G599" t="n">
+        <v>1.002</v>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hokkaido Consadole Sapporo </t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="C600" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="D600" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E600" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F600" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G600" t="n">
+        <v>1.0675</v>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jubilo Iwata </t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="C601" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="D601" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E601" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F601" t="n">
+        <v>1.5825</v>
+      </c>
+      <c r="G601" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeonbuk Hyundai Motors </t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gimcheon Sangmu FC</t>
+        </is>
+      </c>
+      <c r="C602" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D602" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E602" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F602" t="n">
+        <v>1.7325</v>
+      </c>
+      <c r="G602" t="n">
+        <v>1.2525</v>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fujieda MYFC </t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kagoshima United</t>
+        </is>
+      </c>
+      <c r="C603" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D603" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E603" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="F603" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G603" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t xml:space="preserve">V-Varen Nagasaki </t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JEF United Ichihara Chiba</t>
+        </is>
+      </c>
+      <c r="C604" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D604" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E604" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F604" t="n">
+        <v>1.9075</v>
+      </c>
+      <c r="G604" t="n">
+        <v>0.9275</v>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avondale FC </t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> St Albans Saints</t>
+        </is>
+      </c>
+      <c r="C605" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D605" t="n">
+        <v>14</v>
+      </c>
+      <c r="E605" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F605" t="n">
+        <v>2.0675</v>
+      </c>
+      <c r="G605" t="n">
+        <v>2.7125</v>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canberra Olympic </t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Monaro Panthers FC</t>
+        </is>
+      </c>
+      <c r="C606" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D606" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E606" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F606" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G606" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cooma Tigers </t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> O Connor Knights FC</t>
+        </is>
+      </c>
+      <c r="C607" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D607" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="E607" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F607" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="G607" t="n">
+        <v>2.135</v>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Croydon Kings FC </t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide Croatia Raiders SC</t>
+        </is>
+      </c>
+      <c r="C608" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D608" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E608" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F608" t="n">
+        <v>2.556666666666667</v>
+      </c>
+      <c r="G608" t="n">
+        <v>1.633333333333334</v>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brunswick City SC </t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> North Geelong Warriors FC</t>
+        </is>
+      </c>
+      <c r="C609" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D609" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E609" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F609" t="n">
+        <v>1.605</v>
+      </c>
+      <c r="G609" t="n">
+        <v>2.4775</v>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eastern Lions SC </t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Langwarrin SC</t>
+        </is>
+      </c>
+      <c r="C610" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D610" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E610" t="n">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="F610" t="n">
+        <v>2.955</v>
+      </c>
+      <c r="G610" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melbourne City FC </t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kingston City FC</t>
+        </is>
+      </c>
+      <c r="C611" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D611" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E611" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F611" t="n">
+        <v>2.766666666666667</v>
+      </c>
+      <c r="G611" t="n">
+        <v>0.8266666666666667</v>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AC Nagano Parceiro </t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kanagawa Sagamihara</t>
+        </is>
+      </c>
+      <c r="C612" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D612" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E612" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F612" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="G612" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JEF United Ichihara Chiba </t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chifure AS Elfen Saitama</t>
+        </is>
+      </c>
+      <c r="C613" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D613" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E613" t="n">
+        <v>0.4500000000000002</v>
+      </c>
+      <c r="F613" t="n">
+        <v>2.393333333333333</v>
+      </c>
+      <c r="G613" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Omiya Ardija Ventus </t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INAC Kobe Leonessa</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D614" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E614" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F614" t="n">
+        <v>1</v>
+      </c>
+      <c r="G614" t="n">
+        <v>1.014</v>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sanfrecce Hiroshima Regina </t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cerezo Osaka Sakai Ladies</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D615" t="n">
+        <v>3</v>
+      </c>
+      <c r="E615" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F615" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G615" t="n">
+        <v>1.676666666666667</v>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Urawa Red Diamonds </t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tokyo Verdy Beleza</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D616" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E616" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F616" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G616" t="n">
+        <v>1.268571428571429</v>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Essendon Royals SC </t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Preston Lions</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D617" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E617" t="n">
+        <v>0.5500000000000003</v>
+      </c>
+      <c r="F617" t="n">
+        <v>1.9325</v>
+      </c>
+      <c r="G617" t="n">
+        <v>2.495</v>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Campbelltown City SC </t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide United FC</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D618" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E618" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F618" t="n">
+        <v>2.671666666666667</v>
+      </c>
+      <c r="G618" t="n">
+        <v>2.436666666666667</v>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Para Hills Knights SC </t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Modbury Jets SC</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F619" t="n">
+        <v>1.982</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1.388</v>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Box Hill United </t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Calder United SC</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D620" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F620" t="n">
+        <v>2.1825</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1.9425</v>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heidelberg United FC </t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bentleigh Greens SC</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D621" t="n">
+        <v>11</v>
+      </c>
+      <c r="E621" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="F621" t="n">
+        <v>1.325714285714286</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1.511428571428571</v>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cooks Hill United </t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lambton Jaffas FC</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D622" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E622" t="n">
+        <v>7.989999999999999</v>
+      </c>
+      <c r="F622" t="n">
+        <v>0.5525</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1.4975</v>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sutherland Sharks </t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Western Sydney Wanderers Youth</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D623" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E623" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F623" t="n">
+        <v>2.1875</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1.605</v>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SWQ Thunder FC </t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brisbane Strikers FC</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D624" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F624" t="n">
+        <v>2.226666666666667</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1.956666666666666</v>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Queensland Lions FC </t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Peninsula Power FC</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D625" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F625" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1.652857142857143</v>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kawasaki Frontale </t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="D626" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E626" t="n">
+        <v>0.9100000000000001</v>
+      </c>
+      <c r="F626" t="n">
+        <v>2.402</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1.004</v>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Niigata Albirex </t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="D627" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E627" t="n">
+        <v>0.4100000000000001</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1.635</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ventforet Kofu </t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yokohama FC</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D628" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F628" t="n">
+        <v>1.796666666666667</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Port Melbourne Sharks </t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Melbourne Knights</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D629" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E629" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F629" t="n">
+        <v>2.6275</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Balcatta </t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Armadale SC</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F630" t="n">
+        <v>2.183333333333333</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1.623333333333333</v>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Floreat Athena </t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Olympic Kingsway SC</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F631" t="n">
+        <v>1.6625</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fremantle City </t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Perth SC</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D632" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E632" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F632" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1.951666666666667</v>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inglewood United </t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bayswater City</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D633" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E633" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="F633" t="n">
+        <v>1.096</v>
+      </c>
+      <c r="G633" t="n">
+        <v>2.868</v>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Perth Glory FC </t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stirling Macedonia FC</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D634" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E634" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F634" t="n">
+        <v>2.102222222222222</v>
+      </c>
+      <c r="G634" t="n">
+        <v>1.888888888888889</v>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Perth Redstar FC </t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Western Knights SC</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D635" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E635" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F635" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G635" t="n">
+        <v>1.675555555555555</v>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daegu FC II </t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pocheon Citizen FC</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D636" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E636" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F636" t="n">
+        <v>2.1175</v>
+      </c>
+      <c r="G636" t="n">
+        <v>1.995</v>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liaoning Shenyang Urban </t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wuxi Wugou</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D637" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E637" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="F637" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G637" t="n">
+        <v>0.6925</v>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yanbian Longding </t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jiangxi Beidamen</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D638" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E638" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F638" t="n">
+        <v>2.1375</v>
+      </c>
+      <c r="G638" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Taian Tiankuang </t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Xi An Ronghai</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D639" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E639" t="n">
+        <v>5.960000000000001</v>
+      </c>
+      <c r="F639" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G639" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Meralco Manila </t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Philippine Air Force FC</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D640" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E640" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F640" t="n">
+        <v>3.7925</v>
+      </c>
+      <c r="G640" t="n">
+        <v>0.8275</v>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boroondara Eagles </t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brunswick Juventus FC</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D641" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E641" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="F641" t="n">
+        <v>1.404</v>
+      </c>
+      <c r="G641" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ulsan Hyundai FC </t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Daejeon Citizen FC</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D642" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E642" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F642" t="n">
+        <v>2.113333333333333</v>
+      </c>
+      <c r="G642" t="n">
+        <v>1.173333333333333</v>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APIA Leichhardt </t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Blacktown City FC</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D643" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E643" t="n">
+        <v>0.5500000000000003</v>
+      </c>
+      <c r="F643" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="G643" t="n">
+        <v>3</v>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t xml:space="preserve">North Eastern Metrostars SC </t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> White City FK Beograd</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D644" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E644" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F644" t="n">
+        <v>1.938</v>
+      </c>
+      <c r="G644" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chuncheon FC </t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Changwon City FC</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D645" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E645" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F645" t="n">
+        <v>1.25375</v>
+      </c>
+      <c r="G645" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caboolture FC </t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Moreton City Excelsior FC 2</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D646" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E646" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F646" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G646" t="n">
+        <v>2.237142857142857</v>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southside Eagles </t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Logan Lightning</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>4</v>
+      </c>
+      <c r="D647" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E647" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F647" t="n">
+        <v>2.0125</v>
+      </c>
+      <c r="G647" t="n">
+        <v>2.6325</v>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Taichung Blue Whale </t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hualian</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D648" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E648" t="n">
+        <v>3.350000000000001</v>
+      </c>
+      <c r="F648" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G648" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Altona Magic SC </t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dandenong City SC</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D649" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E649" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F649" t="n">
+        <v>1.221111111111111</v>
+      </c>
+      <c r="G649" t="n">
+        <v>1.883333333333333</v>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wolves FC </t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gold Coast Knights</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>11</v>
+      </c>
+      <c r="D650" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E650" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="F650" t="n">
+        <v>1.098</v>
+      </c>
+      <c r="G650" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Jablonec B </t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tj Slovan Velvary</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D651" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E651" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F651" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G651" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelaide Olympic FC </t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide Comets FC</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>5</v>
+      </c>
+      <c r="D652" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E652" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F652" t="n">
+        <v>1.378</v>
+      </c>
+      <c r="G652" t="n">
+        <v>2.194</v>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Crotone </t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> US Alessandria Calcio 1912</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>2</v>
+      </c>
+      <c r="D653" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E653" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F653" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G653" t="n">
+        <v>1.465</v>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SK Dynamo Ceske Budejovice B </t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Viktoria Plzen B</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D654" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E654" t="n">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="F654" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="G654" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SK Sparta Kolin </t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Chlumec Nad Cidlinou</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D655" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E655" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F655" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G655" t="n">
+        <v>1.945</v>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dandenong Thunder </t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Manningham United Blues</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D656" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E656" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F656" t="n">
+        <v>1.676666666666667</v>
+      </c>
+      <c r="G656" t="n">
+        <v>2.783333333333333</v>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t xml:space="preserve">St George Saints FC </t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Manly United FC</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D657" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E657" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F657" t="n">
+        <v>1.352857142857143</v>
+      </c>
+      <c r="G657" t="n">
+        <v>2.128571428571429</v>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eastern Suburbs FC </t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Capalaba Bulldogs</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D658" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E658" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="F658" t="n">
+        <v>1.315</v>
+      </c>
+      <c r="G658" t="n">
+        <v>1.2475</v>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jagiellonia II Bialystok </t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Olimpia Zambrow</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D659" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E659" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F659" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G659" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DH Cebu FC </t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> United City FC</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D660" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E660" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F660" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="G660" t="n">
+        <v>2.331</v>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lions FC </t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Souths United</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D661" t="n">
+        <v>8</v>
+      </c>
+      <c r="E661" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="F661" t="n">
+        <v>2.352941176470588</v>
+      </c>
+      <c r="G661" t="n">
+        <v>2.005294117647059</v>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Broadbeach United </t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mitchelton FC</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D662" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E662" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="F662" t="n">
+        <v>2.202</v>
+      </c>
+      <c r="G662" t="n">
+        <v>1.962</v>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moreton City Excelsior FC </t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Olympic FC Brisbane</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>2</v>
+      </c>
+      <c r="D663" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E663" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F663" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G663" t="n">
+        <v>1.700909090909091</v>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kuala Lumpur City FC </t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Johor Darul Tazim FC</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D664" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E664" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="F664" t="n">
+        <v>1.838333333333333</v>
+      </c>
+      <c r="G664" t="n">
+        <v>1.665</v>
+      </c>
+      <c r="H664" t="inlineStr">
         <is>
           <t>pending</t>
         </is>

--- a/bak/ml_fb.xlsx
+++ b/bak/ml_fb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H664"/>
+  <dimension ref="A1:H766"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19166,2528 +19166,5792 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deportes Union La Calera </t>
+          <t xml:space="preserve">Edgeworth FC </t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Coquimbo Unido</t>
+          <t xml:space="preserve"> Newcastle Olympic FC</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="D586" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="E586" t="n">
-        <v>0.9000000000000004</v>
+        <v>1.1</v>
       </c>
       <c r="F586" t="n">
-        <v>1.34</v>
+        <v>0.1633333333333333</v>
       </c>
       <c r="G586" t="n">
-        <v>1.21</v>
+        <v>1.64</v>
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t xml:space="preserve">Charlottetowne Hops FC </t>
+          <t xml:space="preserve">Maitland FC </t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Greenville United</t>
+          <t xml:space="preserve"> Weston Workers FC</t>
         </is>
       </c>
       <c r="C587" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="D587" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E587" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.04999999999999982</v>
       </c>
       <c r="F587" t="n">
-        <v>1.49</v>
+        <v>0.2300000000000001</v>
       </c>
       <c r="G587" t="n">
-        <v>1.3175</v>
+        <v>2.013333333333333</v>
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chicago Fire FC II </t>
+          <t xml:space="preserve">Clarence Zebras FC </t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Columbus Crew 2</t>
+          <t xml:space="preserve"> Devonport City SC</t>
         </is>
       </c>
       <c r="C588" t="n">
-        <v>1.96</v>
+        <v>10.5</v>
       </c>
       <c r="D588" t="n">
-        <v>3.1</v>
+        <v>1.17</v>
       </c>
       <c r="E588" t="n">
-        <v>1.14</v>
+        <v>9.33</v>
       </c>
       <c r="F588" t="n">
-        <v>1.3</v>
+        <v>1.7775</v>
       </c>
       <c r="G588" t="n">
-        <v>2.176666666666666</v>
+        <v>1.685</v>
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tobacco Road FC </t>
+          <t xml:space="preserve">Ehime FC </t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t xml:space="preserve"> North Carolina FC</t>
+          <t xml:space="preserve"> Tochigi SC</t>
         </is>
       </c>
       <c r="C589" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="D589" t="n">
-        <v>1.74</v>
+        <v>3.1</v>
       </c>
       <c r="E589" t="n">
-        <v>1.86</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F589" t="n">
-        <v>1.455</v>
+        <v>2.334</v>
       </c>
       <c r="G589" t="n">
-        <v>1.41</v>
+        <v>1.002</v>
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t xml:space="preserve">York United FC </t>
+          <t xml:space="preserve">Hokkaido Consadole Sapporo </t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HFX Wanderers FC</t>
+          <t xml:space="preserve"> Kashima Antlers</t>
         </is>
       </c>
       <c r="C590" t="n">
-        <v>2.25</v>
+        <v>3.41</v>
       </c>
       <c r="D590" t="n">
-        <v>3</v>
+        <v>2.16</v>
       </c>
       <c r="E590" t="n">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="F590" t="n">
-        <v>1.12</v>
+        <v>1.57</v>
       </c>
       <c r="G590" t="n">
-        <v>0.755</v>
+        <v>1.0675</v>
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t xml:space="preserve">Serra FC ES </t>
+          <t xml:space="preserve">Jubilo Iwata </t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ipatinga MG</t>
+          <t xml:space="preserve"> Shonan Bellmare</t>
         </is>
       </c>
       <c r="C591" t="n">
-        <v>2.6</v>
+        <v>2.87</v>
       </c>
       <c r="D591" t="n">
         <v>2.6</v>
       </c>
       <c r="E591" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="F591" t="n">
-        <v>1.8775</v>
+        <v>1.5825</v>
       </c>
       <c r="G591" t="n">
-        <v>0.505</v>
+        <v>0.945</v>
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orlando Pride </t>
+          <t xml:space="preserve">Jeonbuk Hyundai Motors </t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Portland Thorns FC</t>
+          <t xml:space="preserve"> Gimcheon Sangmu FC</t>
         </is>
       </c>
       <c r="C592" t="n">
-        <v>1.81</v>
+        <v>2.15</v>
       </c>
       <c r="D592" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="E592" t="n">
-        <v>1.79</v>
+        <v>1.05</v>
       </c>
       <c r="F592" t="n">
-        <v>1.5575</v>
+        <v>1.7325</v>
       </c>
       <c r="G592" t="n">
-        <v>0.4325000000000001</v>
+        <v>1.2525</v>
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t xml:space="preserve">Charleston Battery </t>
+          <t xml:space="preserve">Fujieda MYFC </t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t xml:space="preserve"> El Paso Locomotive FC</t>
+          <t xml:space="preserve"> Kagoshima United</t>
         </is>
       </c>
       <c r="C593" t="n">
-        <v>1.35</v>
+        <v>2.55</v>
       </c>
       <c r="D593" t="n">
-        <v>7.6</v>
+        <v>2.75</v>
       </c>
       <c r="E593" t="n">
-        <v>6.25</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="F593" t="n">
-        <v>1.81</v>
+        <v>0.05</v>
       </c>
       <c r="G593" t="n">
-        <v>2.3375</v>
+        <v>0.705</v>
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tochigi City FC </t>
+          <t xml:space="preserve">V-Varen Nagasaki </t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tokyo Musashino City FC</t>
+          <t xml:space="preserve"> JEF United Ichihara Chiba</t>
         </is>
       </c>
       <c r="C594" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="D594" t="n">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="E594" t="n">
-        <v>1.3</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="F594" t="n">
-        <v>2.7325</v>
+        <v>1.9075</v>
       </c>
       <c r="G594" t="n">
-        <v>1.2425</v>
+        <v>0.9275</v>
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seisa Osa Reia Shonan FC </t>
+          <t xml:space="preserve">Avondale FC </t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diavorosso Hiroshima</t>
+          <t xml:space="preserve"> St Albans Saints</t>
         </is>
       </c>
       <c r="C595" t="n">
-        <v>1.42</v>
+        <v>1.1</v>
       </c>
       <c r="D595" t="n">
-        <v>6.6</v>
+        <v>14</v>
       </c>
       <c r="E595" t="n">
-        <v>5.18</v>
+        <v>12.9</v>
       </c>
       <c r="F595" t="n">
-        <v>1.103333333333333</v>
+        <v>2.0675</v>
       </c>
       <c r="G595" t="n">
-        <v>0.75</v>
+        <v>2.7125</v>
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t xml:space="preserve">Edgeworth FC </t>
+          <t xml:space="preserve">Canberra Olympic </t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Newcastle Olympic FC</t>
+          <t xml:space="preserve"> Monaro Panthers FC</t>
         </is>
       </c>
       <c r="C596" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="D596" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="E596" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="F596" t="n">
-        <v>0.1633333333333333</v>
+        <v>2.21</v>
       </c>
       <c r="G596" t="n">
-        <v>1.64</v>
+        <v>0.54</v>
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maitland FC </t>
+          <t xml:space="preserve">Cooma Tigers </t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Weston Workers FC</t>
+          <t xml:space="preserve"> O Connor Knights FC</t>
         </is>
       </c>
       <c r="C597" t="n">
-        <v>2.45</v>
+        <v>3.9</v>
       </c>
       <c r="D597" t="n">
-        <v>2.5</v>
+        <v>1.64</v>
       </c>
       <c r="E597" t="n">
-        <v>0.04999999999999982</v>
+        <v>2.26</v>
       </c>
       <c r="F597" t="n">
-        <v>0.2300000000000001</v>
+        <v>1.575</v>
       </c>
       <c r="G597" t="n">
-        <v>2.013333333333333</v>
+        <v>2.135</v>
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clarence Zebras FC </t>
+          <t xml:space="preserve">AC Nagano Parceiro </t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Devonport City SC</t>
+          <t xml:space="preserve"> Kanagawa Sagamihara</t>
         </is>
       </c>
       <c r="C598" t="n">
-        <v>10.5</v>
+        <v>1.97</v>
       </c>
       <c r="D598" t="n">
-        <v>1.17</v>
+        <v>3.4</v>
       </c>
       <c r="E598" t="n">
-        <v>9.33</v>
+        <v>1.43</v>
       </c>
       <c r="F598" t="n">
-        <v>1.7775</v>
+        <v>1.455</v>
       </c>
       <c r="G598" t="n">
-        <v>1.685</v>
+        <v>1.48</v>
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ehime FC </t>
+          <t xml:space="preserve">JEF United Ichihara Chiba </t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tochigi SC</t>
+          <t xml:space="preserve"> Chifure AS Elfen Saitama</t>
         </is>
       </c>
       <c r="C599" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D599" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="E599" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.4500000000000002</v>
       </c>
       <c r="F599" t="n">
-        <v>2.334</v>
+        <v>2.393333333333333</v>
       </c>
       <c r="G599" t="n">
-        <v>1.002</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hokkaido Consadole Sapporo </t>
+          <t xml:space="preserve">Omiya Ardija Ventus </t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kashima Antlers</t>
+          <t xml:space="preserve"> INAC Kobe Leonessa</t>
         </is>
       </c>
       <c r="C600" t="n">
-        <v>3.41</v>
+        <v>5.3</v>
       </c>
       <c r="D600" t="n">
-        <v>2.16</v>
+        <v>1.45</v>
       </c>
       <c r="E600" t="n">
-        <v>1.25</v>
+        <v>3.85</v>
       </c>
       <c r="F600" t="n">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="G600" t="n">
-        <v>1.0675</v>
+        <v>1.014</v>
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jubilo Iwata </t>
+          <t xml:space="preserve">Sanfrecce Hiroshima Regina </t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shonan Bellmare</t>
+          <t xml:space="preserve"> Cerezo Osaka Sakai Ladies</t>
         </is>
       </c>
       <c r="C601" t="n">
-        <v>2.87</v>
+        <v>2.15</v>
       </c>
       <c r="D601" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="E601" t="n">
-        <v>0.27</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F601" t="n">
-        <v>1.5825</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G601" t="n">
-        <v>0.945</v>
+        <v>1.676666666666667</v>
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeonbuk Hyundai Motors </t>
+          <t xml:space="preserve">Urawa Red Diamonds </t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gimcheon Sangmu FC</t>
+          <t xml:space="preserve"> Tokyo Verdy Beleza</t>
         </is>
       </c>
       <c r="C602" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="D602" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="E602" t="n">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F602" t="n">
-        <v>1.7325</v>
+        <v>1.57</v>
       </c>
       <c r="G602" t="n">
-        <v>1.2525</v>
+        <v>1.268571428571429</v>
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fujieda MYFC </t>
+          <t xml:space="preserve">Campbelltown City SC </t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kagoshima United</t>
+          <t xml:space="preserve"> Adelaide United FC</t>
         </is>
       </c>
       <c r="C603" t="n">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="D603" t="n">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="E603" t="n">
-        <v>0.2000000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="F603" t="n">
-        <v>0.05</v>
+        <v>2.671666666666667</v>
       </c>
       <c r="G603" t="n">
-        <v>0.705</v>
+        <v>2.436666666666667</v>
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t xml:space="preserve">V-Varen Nagasaki </t>
+          <t xml:space="preserve">Para Hills Knights SC </t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JEF United Ichihara Chiba</t>
+          <t xml:space="preserve"> Modbury Jets SC</t>
         </is>
       </c>
       <c r="C604" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="D604" t="n">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="E604" t="n">
-        <v>0.2999999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="F604" t="n">
-        <v>1.9075</v>
+        <v>1.982</v>
       </c>
       <c r="G604" t="n">
-        <v>0.9275</v>
+        <v>1.388</v>
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avondale FC </t>
+          <t xml:space="preserve">Box Hill United </t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t xml:space="preserve"> St Albans Saints</t>
+          <t xml:space="preserve"> Calder United SC</t>
         </is>
       </c>
       <c r="C605" t="n">
-        <v>1.1</v>
+        <v>1.86</v>
       </c>
       <c r="D605" t="n">
-        <v>14</v>
+        <v>3.33</v>
       </c>
       <c r="E605" t="n">
-        <v>12.9</v>
+        <v>1.47</v>
       </c>
       <c r="F605" t="n">
-        <v>2.0675</v>
+        <v>2.1825</v>
       </c>
       <c r="G605" t="n">
-        <v>2.7125</v>
+        <v>1.9425</v>
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t xml:space="preserve">Canberra Olympic </t>
+          <t xml:space="preserve">Cooks Hill United </t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Monaro Panthers FC</t>
+          <t xml:space="preserve"> Lambton Jaffas FC</t>
         </is>
       </c>
       <c r="C606" t="n">
-        <v>4.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D606" t="n">
-        <v>1.5</v>
+        <v>1.21</v>
       </c>
       <c r="E606" t="n">
-        <v>3.4</v>
+        <v>7.989999999999999</v>
       </c>
       <c r="F606" t="n">
-        <v>2.21</v>
+        <v>0.5525</v>
       </c>
       <c r="G606" t="n">
-        <v>0.54</v>
+        <v>1.4975</v>
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cooma Tigers </t>
+          <t xml:space="preserve">Queensland Lions FC </t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t xml:space="preserve"> O Connor Knights FC</t>
+          <t xml:space="preserve"> Peninsula Power FC</t>
         </is>
       </c>
       <c r="C607" t="n">
-        <v>3.9</v>
+        <v>1.78</v>
       </c>
       <c r="D607" t="n">
-        <v>1.64</v>
+        <v>3.7</v>
       </c>
       <c r="E607" t="n">
-        <v>2.26</v>
+        <v>1.92</v>
       </c>
       <c r="F607" t="n">
-        <v>1.575</v>
+        <v>1.87</v>
       </c>
       <c r="G607" t="n">
-        <v>2.135</v>
+        <v>1.652857142857143</v>
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t xml:space="preserve">Croydon Kings FC </t>
+          <t xml:space="preserve">Kawasaki Frontale </t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adelaide Croatia Raiders SC</t>
+          <t xml:space="preserve"> Kashiwa Reysol</t>
         </is>
       </c>
       <c r="C608" t="n">
-        <v>2.35</v>
+        <v>2.29</v>
       </c>
       <c r="D608" t="n">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="E608" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="F608" t="n">
-        <v>2.556666666666667</v>
+        <v>2.402</v>
       </c>
       <c r="G608" t="n">
-        <v>1.633333333333334</v>
+        <v>1.004</v>
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brunswick City SC </t>
+          <t xml:space="preserve">Niigata Albirex </t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t xml:space="preserve"> North Geelong Warriors FC</t>
+          <t xml:space="preserve"> Avispa Fukuoka</t>
         </is>
       </c>
       <c r="C609" t="n">
-        <v>1.55</v>
+        <v>2.63</v>
       </c>
       <c r="D609" t="n">
-        <v>4.75</v>
+        <v>3.04</v>
       </c>
       <c r="E609" t="n">
-        <v>3.2</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="F609" t="n">
-        <v>1.605</v>
+        <v>1.635</v>
       </c>
       <c r="G609" t="n">
-        <v>2.4775</v>
+        <v>1.01</v>
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eastern Lions SC </t>
+          <t xml:space="preserve">Ventforet Kofu </t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Langwarrin SC</t>
+          <t xml:space="preserve"> Yokohama FC</t>
         </is>
       </c>
       <c r="C610" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D610" t="n">
         <v>2.05</v>
       </c>
-      <c r="D610" t="n">
-        <v>2.95</v>
-      </c>
       <c r="E610" t="n">
-        <v>0.9000000000000004</v>
+        <v>1.35</v>
       </c>
       <c r="F610" t="n">
-        <v>2.955</v>
+        <v>1.796666666666667</v>
       </c>
       <c r="G610" t="n">
-        <v>1.715</v>
+        <v>1.65</v>
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t xml:space="preserve">Melbourne City FC </t>
+          <t xml:space="preserve">Port Melbourne Sharks </t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kingston City FC</t>
+          <t xml:space="preserve"> Melbourne Knights</t>
         </is>
       </c>
       <c r="C611" t="n">
-        <v>1.91</v>
+        <v>2.35</v>
       </c>
       <c r="D611" t="n">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="E611" t="n">
-        <v>1.34</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="F611" t="n">
-        <v>2.766666666666667</v>
+        <v>2.6275</v>
       </c>
       <c r="G611" t="n">
-        <v>0.8266666666666667</v>
+        <v>1.825</v>
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t xml:space="preserve">AC Nagano Parceiro </t>
+          <t xml:space="preserve">Balcatta </t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kanagawa Sagamihara</t>
+          <t xml:space="preserve"> Armadale SC</t>
         </is>
       </c>
       <c r="C612" t="n">
-        <v>1.97</v>
+        <v>3.2</v>
       </c>
       <c r="D612" t="n">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="E612" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="F612" t="n">
-        <v>1.455</v>
+        <v>2.183333333333333</v>
       </c>
       <c r="G612" t="n">
-        <v>1.48</v>
+        <v>1.623333333333333</v>
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t xml:space="preserve">JEF United Ichihara Chiba </t>
+          <t xml:space="preserve">Floreat Athena </t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chifure AS Elfen Saitama</t>
+          <t xml:space="preserve"> Olympic Kingsway SC</t>
         </is>
       </c>
       <c r="C613" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="D613" t="n">
-        <v>2.75</v>
+        <v>1.73</v>
       </c>
       <c r="E613" t="n">
-        <v>0.4500000000000002</v>
+        <v>1.87</v>
       </c>
       <c r="F613" t="n">
-        <v>2.393333333333333</v>
+        <v>1.6625</v>
       </c>
       <c r="G613" t="n">
-        <v>1.333333333333333</v>
+        <v>1.745</v>
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omiya Ardija Ventus </t>
+          <t xml:space="preserve">Fremantle City </t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INAC Kobe Leonessa</t>
+          <t xml:space="preserve"> Perth SC</t>
         </is>
       </c>
       <c r="C614" t="n">
-        <v>5.3</v>
+        <v>2.25</v>
       </c>
       <c r="D614" t="n">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="E614" t="n">
-        <v>3.85</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="F614" t="n">
-        <v>1</v>
+        <v>2.06</v>
       </c>
       <c r="G614" t="n">
-        <v>1.014</v>
+        <v>1.951666666666667</v>
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sanfrecce Hiroshima Regina </t>
+          <t xml:space="preserve">Inglewood United </t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cerezo Osaka Sakai Ladies</t>
+          <t xml:space="preserve"> Bayswater City</t>
         </is>
       </c>
       <c r="C615" t="n">
-        <v>2.15</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D615" t="n">
-        <v>3</v>
+        <v>1.23</v>
       </c>
       <c r="E615" t="n">
-        <v>0.8500000000000001</v>
+        <v>7.07</v>
       </c>
       <c r="F615" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.096</v>
       </c>
       <c r="G615" t="n">
-        <v>1.676666666666667</v>
+        <v>2.868</v>
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t xml:space="preserve">Urawa Red Diamonds </t>
+          <t xml:space="preserve">Perth Glory FC </t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tokyo Verdy Beleza</t>
+          <t xml:space="preserve"> Stirling Macedonia FC</t>
         </is>
       </c>
       <c r="C616" t="n">
-        <v>2.05</v>
+        <v>3.33</v>
       </c>
       <c r="D616" t="n">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="E616" t="n">
-        <v>0.8500000000000001</v>
+        <v>1.48</v>
       </c>
       <c r="F616" t="n">
-        <v>1.57</v>
+        <v>2.102222222222222</v>
       </c>
       <c r="G616" t="n">
-        <v>1.268571428571429</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t xml:space="preserve">Essendon Royals SC </t>
+          <t xml:space="preserve">Perth Redstar FC </t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Preston Lions</t>
+          <t xml:space="preserve"> Western Knights SC</t>
         </is>
       </c>
       <c r="C617" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="D617" t="n">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="E617" t="n">
-        <v>0.5500000000000003</v>
+        <v>1.6</v>
       </c>
       <c r="F617" t="n">
-        <v>1.9325</v>
+        <v>2.4</v>
       </c>
       <c r="G617" t="n">
-        <v>2.495</v>
+        <v>1.675555555555555</v>
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t xml:space="preserve">Campbelltown City SC </t>
+          <t xml:space="preserve">Daegu FC II </t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adelaide United FC</t>
+          <t xml:space="preserve"> Pocheon Citizen FC</t>
         </is>
       </c>
       <c r="C618" t="n">
-        <v>1.6</v>
+        <v>3.33</v>
       </c>
       <c r="D618" t="n">
-        <v>4.2</v>
+        <v>1.99</v>
       </c>
       <c r="E618" t="n">
-        <v>2.6</v>
+        <v>1.34</v>
       </c>
       <c r="F618" t="n">
-        <v>2.671666666666667</v>
+        <v>2.1175</v>
       </c>
       <c r="G618" t="n">
-        <v>2.436666666666667</v>
+        <v>1.995</v>
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para Hills Knights SC </t>
+          <t xml:space="preserve">Yanbian Longding </t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Modbury Jets SC</t>
+          <t xml:space="preserve"> Jiangxi Beidamen</t>
         </is>
       </c>
       <c r="C619" t="n">
-        <v>3.4</v>
+        <v>1.56</v>
       </c>
       <c r="D619" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="E619" t="n">
-        <v>1.6</v>
+        <v>3.84</v>
       </c>
       <c r="F619" t="n">
-        <v>1.982</v>
+        <v>2.1375</v>
       </c>
       <c r="G619" t="n">
-        <v>1.388</v>
+        <v>0.775</v>
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t xml:space="preserve">Box Hill United </t>
+          <t xml:space="preserve">Taian Tiankuang </t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Calder United SC</t>
+          <t xml:space="preserve"> Xi An Ronghai</t>
         </is>
       </c>
       <c r="C620" t="n">
-        <v>1.86</v>
+        <v>1.44</v>
       </c>
       <c r="D620" t="n">
-        <v>3.33</v>
+        <v>7.4</v>
       </c>
       <c r="E620" t="n">
-        <v>1.47</v>
+        <v>5.960000000000001</v>
       </c>
       <c r="F620" t="n">
-        <v>2.1825</v>
+        <v>1.1</v>
       </c>
       <c r="G620" t="n">
-        <v>1.9425</v>
+        <v>0.31</v>
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t xml:space="preserve">Heidelberg United FC </t>
+          <t xml:space="preserve">Meralco Manila </t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bentleigh Greens SC</t>
+          <t xml:space="preserve"> Philippine Air Force FC</t>
         </is>
       </c>
       <c r="C621" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="D621" t="n">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="E621" t="n">
-        <v>9.83</v>
+        <v>5.35</v>
       </c>
       <c r="F621" t="n">
-        <v>1.325714285714286</v>
+        <v>3.7925</v>
       </c>
       <c r="G621" t="n">
-        <v>1.511428571428571</v>
+        <v>0.8275</v>
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cooks Hill United </t>
+          <t xml:space="preserve">Boroondara Eagles </t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lambton Jaffas FC</t>
+          <t xml:space="preserve"> Brunswick Juventus FC</t>
         </is>
       </c>
       <c r="C622" t="n">
-        <v>9.199999999999999</v>
+        <v>1.59</v>
       </c>
       <c r="D622" t="n">
-        <v>1.21</v>
+        <v>4.1</v>
       </c>
       <c r="E622" t="n">
-        <v>7.989999999999999</v>
+        <v>2.51</v>
       </c>
       <c r="F622" t="n">
-        <v>0.5525</v>
+        <v>1.404</v>
       </c>
       <c r="G622" t="n">
-        <v>1.4975</v>
+        <v>0.79</v>
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sutherland Sharks </t>
+          <t xml:space="preserve">Ulsan Hyundai FC </t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Western Sydney Wanderers Youth</t>
+          <t xml:space="preserve"> Daejeon Citizen FC</t>
         </is>
       </c>
       <c r="C623" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="D623" t="n">
-        <v>1.58</v>
+        <v>5.3</v>
       </c>
       <c r="E623" t="n">
-        <v>2.52</v>
+        <v>3.7</v>
       </c>
       <c r="F623" t="n">
-        <v>2.1875</v>
+        <v>2.113333333333333</v>
       </c>
       <c r="G623" t="n">
-        <v>1.605</v>
+        <v>1.173333333333333</v>
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t xml:space="preserve">SWQ Thunder FC </t>
+          <t xml:space="preserve">APIA Leichhardt </t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brisbane Strikers FC</t>
+          <t xml:space="preserve"> Blacktown City FC</t>
         </is>
       </c>
       <c r="C624" t="n">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="D624" t="n">
-        <v>1.88</v>
+        <v>2.7</v>
       </c>
       <c r="E624" t="n">
-        <v>1.72</v>
+        <v>0.5500000000000003</v>
       </c>
       <c r="F624" t="n">
-        <v>2.226666666666667</v>
+        <v>1.235</v>
       </c>
       <c r="G624" t="n">
-        <v>1.956666666666666</v>
+        <v>3</v>
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t xml:space="preserve">Queensland Lions FC </t>
+          <t xml:space="preserve">North Eastern Metrostars SC </t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Peninsula Power FC</t>
+          <t xml:space="preserve"> White City FK Beograd</t>
         </is>
       </c>
       <c r="C625" t="n">
-        <v>1.78</v>
+        <v>1.27</v>
       </c>
       <c r="D625" t="n">
-        <v>3.7</v>
+        <v>7.2</v>
       </c>
       <c r="E625" t="n">
-        <v>1.92</v>
+        <v>5.93</v>
       </c>
       <c r="F625" t="n">
-        <v>1.87</v>
+        <v>1.938</v>
       </c>
       <c r="G625" t="n">
-        <v>1.652857142857143</v>
+        <v>1.43</v>
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kawasaki Frontale </t>
+          <t xml:space="preserve">Chuncheon FC </t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kashiwa Reysol</t>
+          <t xml:space="preserve"> Changwon City FC</t>
         </is>
       </c>
       <c r="C626" t="n">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
       <c r="D626" t="n">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="E626" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="F626" t="n">
-        <v>2.402</v>
+        <v>1.25375</v>
       </c>
       <c r="G626" t="n">
-        <v>1.004</v>
+        <v>1.835</v>
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t xml:space="preserve">Niigata Albirex </t>
+          <t xml:space="preserve">Caboolture FC </t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Avispa Fukuoka</t>
+          <t xml:space="preserve"> Moreton City Excelsior FC 2</t>
         </is>
       </c>
       <c r="C627" t="n">
-        <v>2.63</v>
+        <v>1.67</v>
       </c>
       <c r="D627" t="n">
-        <v>3.04</v>
+        <v>3.75</v>
       </c>
       <c r="E627" t="n">
-        <v>0.4100000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="F627" t="n">
-        <v>1.635</v>
+        <v>1.25</v>
       </c>
       <c r="G627" t="n">
-        <v>1.01</v>
+        <v>2.237142857142857</v>
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ventforet Kofu </t>
+          <t xml:space="preserve">Southside Eagles </t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yokohama FC</t>
+          <t xml:space="preserve"> Logan Lightning</t>
         </is>
       </c>
       <c r="C628" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D628" t="n">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="E628" t="n">
-        <v>1.35</v>
+        <v>2.4</v>
       </c>
       <c r="F628" t="n">
-        <v>1.796666666666667</v>
+        <v>2.0125</v>
       </c>
       <c r="G628" t="n">
-        <v>1.65</v>
+        <v>2.6325</v>
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t xml:space="preserve">Port Melbourne Sharks </t>
+          <t xml:space="preserve">Taichung Blue Whale </t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Melbourne Knights</t>
+          <t xml:space="preserve"> Hualian</t>
         </is>
       </c>
       <c r="C629" t="n">
-        <v>2.35</v>
+        <v>1.55</v>
       </c>
       <c r="D629" t="n">
-        <v>2.65</v>
+        <v>4.9</v>
       </c>
       <c r="E629" t="n">
-        <v>0.2999999999999998</v>
+        <v>3.350000000000001</v>
       </c>
       <c r="F629" t="n">
-        <v>2.6275</v>
+        <v>0.54</v>
       </c>
       <c r="G629" t="n">
-        <v>1.825</v>
+        <v>2.4</v>
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t xml:space="preserve">Balcatta </t>
+          <t xml:space="preserve">Altona Magic SC </t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Armadale SC</t>
+          <t xml:space="preserve"> Dandenong City SC</t>
         </is>
       </c>
       <c r="C630" t="n">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="D630" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="E630" t="n">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="F630" t="n">
-        <v>2.183333333333333</v>
+        <v>1.221111111111111</v>
       </c>
       <c r="G630" t="n">
-        <v>1.623333333333333</v>
+        <v>1.883333333333333</v>
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t xml:space="preserve">Floreat Athena </t>
+          <t xml:space="preserve">Wolves FC </t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Olympic Kingsway SC</t>
+          <t xml:space="preserve"> Gold Coast Knights</t>
         </is>
       </c>
       <c r="C631" t="n">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="D631" t="n">
-        <v>1.73</v>
+        <v>1.16</v>
       </c>
       <c r="E631" t="n">
-        <v>1.87</v>
+        <v>9.84</v>
       </c>
       <c r="F631" t="n">
-        <v>1.6625</v>
+        <v>1.098</v>
       </c>
       <c r="G631" t="n">
-        <v>1.745</v>
+        <v>2.26</v>
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fremantle City </t>
+          <t xml:space="preserve">FK Jablonec B </t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Perth SC</t>
+          <t xml:space="preserve"> Tj Slovan Velvary</t>
         </is>
       </c>
       <c r="C632" t="n">
-        <v>2.25</v>
+        <v>3.33</v>
       </c>
       <c r="D632" t="n">
-        <v>2.55</v>
+        <v>1.99</v>
       </c>
       <c r="E632" t="n">
-        <v>0.2999999999999998</v>
+        <v>1.34</v>
       </c>
       <c r="F632" t="n">
-        <v>2.06</v>
+        <v>1.05</v>
       </c>
       <c r="G632" t="n">
-        <v>1.951666666666667</v>
+        <v>0.955</v>
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inglewood United </t>
+          <t xml:space="preserve">Adelaide Olympic FC </t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bayswater City</t>
+          <t xml:space="preserve"> Adelaide Comets FC</t>
         </is>
       </c>
       <c r="C633" t="n">
-        <v>8.300000000000001</v>
+        <v>5</v>
       </c>
       <c r="D633" t="n">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="E633" t="n">
-        <v>7.07</v>
+        <v>3.5</v>
       </c>
       <c r="F633" t="n">
-        <v>1.096</v>
+        <v>1.378</v>
       </c>
       <c r="G633" t="n">
-        <v>2.868</v>
+        <v>2.194</v>
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t xml:space="preserve">Perth Glory FC </t>
+          <t xml:space="preserve">SK Dynamo Ceske Budejovice B </t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stirling Macedonia FC</t>
+          <t xml:space="preserve"> FC Viktoria Plzen B</t>
         </is>
       </c>
       <c r="C634" t="n">
-        <v>3.33</v>
+        <v>2.45</v>
       </c>
       <c r="D634" t="n">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="E634" t="n">
-        <v>1.48</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="F634" t="n">
-        <v>2.102222222222222</v>
+        <v>2.53</v>
       </c>
       <c r="G634" t="n">
-        <v>1.888888888888889</v>
+        <v>1.045</v>
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t xml:space="preserve">Perth Redstar FC </t>
+          <t xml:space="preserve">SK Sparta Kolin </t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Western Knights SC</t>
+          <t xml:space="preserve"> FK Chlumec Nad Cidlinou</t>
         </is>
       </c>
       <c r="C635" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="D635" t="n">
         <v>3.4</v>
       </c>
       <c r="E635" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="F635" t="n">
-        <v>2.4</v>
+        <v>2.06</v>
       </c>
       <c r="G635" t="n">
-        <v>1.675555555555555</v>
+        <v>1.945</v>
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daegu FC II </t>
+          <t xml:space="preserve">Dandenong Thunder </t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pocheon Citizen FC</t>
+          <t xml:space="preserve"> Manningham United Blues</t>
         </is>
       </c>
       <c r="C636" t="n">
-        <v>3.33</v>
+        <v>1.86</v>
       </c>
       <c r="D636" t="n">
-        <v>1.99</v>
+        <v>3.3</v>
       </c>
       <c r="E636" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="F636" t="n">
-        <v>2.1175</v>
+        <v>1.676666666666667</v>
       </c>
       <c r="G636" t="n">
-        <v>1.995</v>
+        <v>2.783333333333333</v>
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liaoning Shenyang Urban </t>
+          <t xml:space="preserve">St George Saints FC </t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wuxi Wugou</t>
+          <t xml:space="preserve"> Manly United FC</t>
         </is>
       </c>
       <c r="C637" t="n">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="D637" t="n">
-        <v>4.6</v>
+        <v>2.55</v>
       </c>
       <c r="E637" t="n">
-        <v>2.87</v>
+        <v>0.25</v>
       </c>
       <c r="F637" t="n">
-        <v>0.79</v>
+        <v>1.352857142857143</v>
       </c>
       <c r="G637" t="n">
-        <v>0.6925</v>
+        <v>2.128571428571429</v>
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yanbian Longding </t>
+          <t xml:space="preserve">Eastern Suburbs FC </t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jiangxi Beidamen</t>
+          <t xml:space="preserve"> Capalaba Bulldogs</t>
         </is>
       </c>
       <c r="C638" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="D638" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="E638" t="n">
-        <v>3.84</v>
+        <v>3.32</v>
       </c>
       <c r="F638" t="n">
-        <v>2.1375</v>
+        <v>1.315</v>
       </c>
       <c r="G638" t="n">
-        <v>0.775</v>
+        <v>1.2475</v>
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taian Tiankuang </t>
+          <t xml:space="preserve">Jagiellonia II Bialystok </t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xi An Ronghai</t>
+          <t xml:space="preserve"> Olimpia Zambrow</t>
         </is>
       </c>
       <c r="C639" t="n">
-        <v>1.44</v>
+        <v>2.25</v>
       </c>
       <c r="D639" t="n">
-        <v>7.4</v>
+        <v>2.6</v>
       </c>
       <c r="E639" t="n">
-        <v>5.960000000000001</v>
+        <v>0.3500000000000001</v>
       </c>
       <c r="F639" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="G639" t="n">
-        <v>0.31</v>
+        <v>1.02</v>
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meralco Manila </t>
+          <t xml:space="preserve">DH Cebu FC </t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Philippine Air Force FC</t>
+          <t xml:space="preserve"> United City FC</t>
         </is>
       </c>
       <c r="C640" t="n">
-        <v>1.25</v>
+        <v>1.82</v>
       </c>
       <c r="D640" t="n">
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
       <c r="E640" t="n">
-        <v>5.35</v>
+        <v>1.48</v>
       </c>
       <c r="F640" t="n">
-        <v>3.7925</v>
+        <v>2.192</v>
       </c>
       <c r="G640" t="n">
-        <v>0.8275</v>
+        <v>2.331</v>
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boroondara Eagles </t>
+          <t xml:space="preserve">Lions FC </t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brunswick Juventus FC</t>
+          <t xml:space="preserve"> Souths United</t>
         </is>
       </c>
       <c r="C641" t="n">
-        <v>1.59</v>
+        <v>1.24</v>
       </c>
       <c r="D641" t="n">
-        <v>4.1</v>
+        <v>8</v>
       </c>
       <c r="E641" t="n">
-        <v>2.51</v>
+        <v>6.76</v>
       </c>
       <c r="F641" t="n">
-        <v>1.404</v>
+        <v>2.352941176470588</v>
       </c>
       <c r="G641" t="n">
-        <v>0.79</v>
+        <v>2.005294117647059</v>
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ulsan Hyundai FC </t>
+          <t xml:space="preserve">Broadbeach United </t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Daejeon Citizen FC</t>
+          <t xml:space="preserve"> Mitchelton FC</t>
         </is>
       </c>
       <c r="C642" t="n">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="D642" t="n">
-        <v>5.3</v>
+        <v>11.5</v>
       </c>
       <c r="E642" t="n">
-        <v>3.7</v>
+        <v>10.39</v>
       </c>
       <c r="F642" t="n">
-        <v>2.113333333333333</v>
+        <v>2.202</v>
       </c>
       <c r="G642" t="n">
-        <v>1.173333333333333</v>
+        <v>1.962</v>
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t xml:space="preserve">APIA Leichhardt </t>
+          <t xml:space="preserve">Boca Juniors </t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Blacktown City FC</t>
+          <t xml:space="preserve"> CA Talleres de Cordoba</t>
         </is>
       </c>
       <c r="C643" t="n">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="D643" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="E643" t="n">
-        <v>0.5500000000000003</v>
+        <v>2.36</v>
       </c>
       <c r="F643" t="n">
-        <v>1.235</v>
+        <v>1.245</v>
       </c>
       <c r="G643" t="n">
-        <v>3</v>
+        <v>1.035</v>
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t xml:space="preserve">North Eastern Metrostars SC </t>
+          <t xml:space="preserve">Miami FC </t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t xml:space="preserve"> White City FK Beograd</t>
+          <t xml:space="preserve"> North Carolina FC</t>
         </is>
       </c>
       <c r="C644" t="n">
-        <v>1.27</v>
+        <v>3.9</v>
       </c>
       <c r="D644" t="n">
-        <v>7.2</v>
+        <v>1.76</v>
       </c>
       <c r="E644" t="n">
-        <v>5.93</v>
+        <v>2.14</v>
       </c>
       <c r="F644" t="n">
-        <v>1.938</v>
+        <v>1.895</v>
       </c>
       <c r="G644" t="n">
-        <v>1.43</v>
+        <v>1.85</v>
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chuncheon FC </t>
+          <t xml:space="preserve">Chattanooga FC </t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Changwon City FC</t>
+          <t xml:space="preserve"> Atlanta United 2</t>
         </is>
       </c>
       <c r="C645" t="n">
-        <v>2.35</v>
+        <v>1.53</v>
       </c>
       <c r="D645" t="n">
-        <v>2.85</v>
+        <v>5.2</v>
       </c>
       <c r="E645" t="n">
-        <v>0.5</v>
+        <v>3.67</v>
       </c>
       <c r="F645" t="n">
-        <v>1.25375</v>
+        <v>1.503333333333333</v>
       </c>
       <c r="G645" t="n">
-        <v>1.835</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caboolture FC </t>
+          <t xml:space="preserve">Charlotte Eagles </t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Moreton City Excelsior FC 2</t>
+          <t xml:space="preserve"> North Carolina Fusion U23</t>
         </is>
       </c>
       <c r="C646" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="D646" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="E646" t="n">
-        <v>2.08</v>
+        <v>0.25</v>
       </c>
       <c r="F646" t="n">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="G646" t="n">
-        <v>2.237142857142857</v>
+        <v>2.0125</v>
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t xml:space="preserve">Southside Eagles </t>
+          <t xml:space="preserve">Fort Wayne FC </t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Logan Lightning</t>
+          <t xml:space="preserve"> Toledo Villa FC</t>
         </is>
       </c>
       <c r="C647" t="n">
-        <v>4</v>
+        <v>1.21</v>
       </c>
       <c r="D647" t="n">
-        <v>1.6</v>
+        <v>9.25</v>
       </c>
       <c r="E647" t="n">
-        <v>2.4</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F647" t="n">
-        <v>2.0125</v>
+        <v>2.703333333333333</v>
       </c>
       <c r="G647" t="n">
-        <v>2.6325</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taichung Blue Whale </t>
+          <t xml:space="preserve">Miami AC </t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hualian</t>
+          <t xml:space="preserve"> Tampa Bay United</t>
         </is>
       </c>
       <c r="C648" t="n">
-        <v>1.55</v>
+        <v>1.86</v>
       </c>
       <c r="D648" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="E648" t="n">
-        <v>3.350000000000001</v>
+        <v>1.64</v>
       </c>
       <c r="F648" t="n">
-        <v>0.54</v>
+        <v>2.103333333333333</v>
       </c>
       <c r="G648" t="n">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t xml:space="preserve">Altona Magic SC </t>
+          <t xml:space="preserve">RKC Soccer Club </t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dandenong City SC</t>
+          <t xml:space="preserve"> Rochester FC</t>
         </is>
       </c>
       <c r="C649" t="n">
-        <v>2.65</v>
+        <v>1.26</v>
       </c>
       <c r="D649" t="n">
-        <v>2.25</v>
+        <v>7.75</v>
       </c>
       <c r="E649" t="n">
-        <v>0.3999999999999999</v>
+        <v>6.49</v>
       </c>
       <c r="F649" t="n">
-        <v>1.221111111111111</v>
+        <v>3.073333333333333</v>
       </c>
       <c r="G649" t="n">
-        <v>1.883333333333333</v>
+        <v>0.79</v>
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wolves FC </t>
+          <t xml:space="preserve">South Carolina United FC </t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gold Coast Knights</t>
+          <t xml:space="preserve"> Charlotte Independence 2</t>
         </is>
       </c>
       <c r="C650" t="n">
-        <v>11</v>
+        <v>1.21</v>
       </c>
       <c r="D650" t="n">
-        <v>1.16</v>
+        <v>9.25</v>
       </c>
       <c r="E650" t="n">
-        <v>9.84</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F650" t="n">
-        <v>1.098</v>
+        <v>2.458333333333333</v>
       </c>
       <c r="G650" t="n">
-        <v>2.26</v>
+        <v>1.956666666666667</v>
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Jablonec B </t>
+          <t xml:space="preserve">1 FC Kaiserslautern </t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tj Slovan Velvary</t>
+          <t xml:space="preserve"> Leverkusen</t>
         </is>
       </c>
       <c r="C651" t="n">
-        <v>3.33</v>
+        <v>16.7</v>
       </c>
       <c r="D651" t="n">
-        <v>1.99</v>
+        <v>1.18</v>
       </c>
       <c r="E651" t="n">
-        <v>1.34</v>
+        <v>15.52</v>
       </c>
       <c r="F651" t="n">
-        <v>1.05</v>
+        <v>1.3925</v>
       </c>
       <c r="G651" t="n">
-        <v>0.955</v>
+        <v>1.585</v>
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adelaide Olympic FC </t>
+          <t xml:space="preserve">Excelsior Rotterdam </t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adelaide Comets FC</t>
+          <t xml:space="preserve"> ADO Den Haag</t>
         </is>
       </c>
       <c r="C652" t="n">
-        <v>5</v>
+        <v>1.92</v>
       </c>
       <c r="D652" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="E652" t="n">
-        <v>3.5</v>
+        <v>1.78</v>
       </c>
       <c r="F652" t="n">
-        <v>1.378</v>
+        <v>2.0325</v>
       </c>
       <c r="G652" t="n">
-        <v>2.194</v>
+        <v>1.28</v>
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Crotone </t>
+          <t xml:space="preserve">Argentinos Juniors </t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t xml:space="preserve"> US Alessandria Calcio 1912</t>
+          <t xml:space="preserve"> CA River Plate (ARG)</t>
         </is>
       </c>
       <c r="C653" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="D653" t="n">
-        <v>2.95</v>
+        <v>1.86</v>
       </c>
       <c r="E653" t="n">
-        <v>0.9500000000000002</v>
+        <v>2.44</v>
       </c>
       <c r="F653" t="n">
-        <v>0.52</v>
+        <v>2.18</v>
       </c>
       <c r="G653" t="n">
-        <v>1.465</v>
+        <v>1.71</v>
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t xml:space="preserve">SK Dynamo Ceske Budejovice B </t>
+          <t xml:space="preserve">Liverpool Montevideo </t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FC Viktoria Plzen B</t>
+          <t xml:space="preserve"> Rampla Juniors</t>
         </is>
       </c>
       <c r="C654" t="n">
-        <v>2.45</v>
+        <v>1.66</v>
       </c>
       <c r="D654" t="n">
-        <v>2.55</v>
+        <v>4.9</v>
       </c>
       <c r="E654" t="n">
-        <v>0.09999999999999964</v>
+        <v>3.24</v>
       </c>
       <c r="F654" t="n">
-        <v>2.53</v>
+        <v>1.15</v>
       </c>
       <c r="G654" t="n">
-        <v>1.045</v>
+        <v>0.88</v>
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t xml:space="preserve">SK Sparta Kolin </t>
+          <t xml:space="preserve">Agropecuario Argentino </t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FK Chlumec Nad Cidlinou</t>
+          <t xml:space="preserve"> CA Defensores Unidos</t>
         </is>
       </c>
       <c r="C655" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="D655" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="E655" t="n">
-        <v>1.5</v>
+        <v>3.37</v>
       </c>
       <c r="F655" t="n">
-        <v>2.06</v>
+        <v>1.6975</v>
       </c>
       <c r="G655" t="n">
-        <v>1.945</v>
+        <v>1.455</v>
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dandenong Thunder </t>
+          <t xml:space="preserve">Americano FC RJ </t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Manningham United Blues</t>
+          <t xml:space="preserve"> Marica FC RJ</t>
         </is>
       </c>
       <c r="C656" t="n">
-        <v>1.86</v>
+        <v>5.1</v>
       </c>
       <c r="D656" t="n">
-        <v>3.3</v>
+        <v>1.71</v>
       </c>
       <c r="E656" t="n">
-        <v>1.44</v>
+        <v>3.39</v>
       </c>
       <c r="F656" t="n">
-        <v>1.676666666666667</v>
+        <v>1.155</v>
       </c>
       <c r="G656" t="n">
-        <v>2.783333333333333</v>
+        <v>0.73</v>
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t xml:space="preserve">St George Saints FC </t>
+          <t xml:space="preserve">Goncalense FC RJ </t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Manly United FC</t>
+          <t xml:space="preserve"> Resende FC RJ</t>
         </is>
       </c>
       <c r="C657" t="n">
-        <v>2.3</v>
+        <v>1.82</v>
       </c>
       <c r="D657" t="n">
-        <v>2.55</v>
+        <v>4.1</v>
       </c>
       <c r="E657" t="n">
-        <v>0.25</v>
+        <v>2.279999999999999</v>
       </c>
       <c r="F657" t="n">
-        <v>1.352857142857143</v>
+        <v>1.335</v>
       </c>
       <c r="G657" t="n">
-        <v>2.128571428571429</v>
+        <v>0.47</v>
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eastern Suburbs FC </t>
+          <t xml:space="preserve">US Cremonese </t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Capalaba Bulldogs</t>
+          <t xml:space="preserve"> US Catanzaro</t>
         </is>
       </c>
       <c r="C658" t="n">
-        <v>1.48</v>
+        <v>1.72</v>
       </c>
       <c r="D658" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="E658" t="n">
-        <v>3.32</v>
+        <v>2.88</v>
       </c>
       <c r="F658" t="n">
-        <v>1.315</v>
+        <v>1.2825</v>
       </c>
       <c r="G658" t="n">
-        <v>1.2475</v>
+        <v>1.46</v>
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jagiellonia II Bialystok </t>
+          <t xml:space="preserve">Oud-Heverlee Leuven </t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Olimpia Zambrow</t>
+          <t xml:space="preserve"> KVC Westerlo</t>
         </is>
       </c>
       <c r="C659" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="D659" t="n">
-        <v>2.6</v>
+        <v>3.33</v>
       </c>
       <c r="E659" t="n">
-        <v>0.3500000000000001</v>
+        <v>1.28</v>
       </c>
       <c r="F659" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="G659" t="n">
-        <v>1.02</v>
+        <v>1.74</v>
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t xml:space="preserve">DH Cebu FC </t>
+          <t xml:space="preserve">Yellow-Red KV Mechelen </t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t xml:space="preserve"> United City FC</t>
+          <t xml:space="preserve"> Standard Liege</t>
         </is>
       </c>
       <c r="C660" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="D660" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="E660" t="n">
-        <v>1.48</v>
+        <v>1.71</v>
       </c>
       <c r="F660" t="n">
-        <v>2.192</v>
+        <v>0.7066666666666666</v>
       </c>
       <c r="G660" t="n">
-        <v>2.331</v>
+        <v>1.506666666666667</v>
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lions FC </t>
+          <t xml:space="preserve">ASD Torres Sassari </t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Souths United</t>
+          <t xml:space="preserve"> Benevento</t>
         </is>
       </c>
       <c r="C661" t="n">
-        <v>1.24</v>
+        <v>2.4</v>
       </c>
       <c r="D661" t="n">
-        <v>8</v>
+        <v>2.95</v>
       </c>
       <c r="E661" t="n">
-        <v>6.76</v>
+        <v>0.5500000000000003</v>
       </c>
       <c r="F661" t="n">
-        <v>2.352941176470588</v>
+        <v>1.225</v>
       </c>
       <c r="G661" t="n">
-        <v>2.005294117647059</v>
+        <v>0.765</v>
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t xml:space="preserve">Broadbeach United </t>
+          <t xml:space="preserve">Calcio Padova </t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mitchelton FC</t>
+          <t xml:space="preserve"> LR Vicenza</t>
         </is>
       </c>
       <c r="C662" t="n">
-        <v>1.11</v>
+        <v>2.2</v>
       </c>
       <c r="D662" t="n">
-        <v>11.5</v>
+        <v>3.25</v>
       </c>
       <c r="E662" t="n">
-        <v>10.39</v>
+        <v>1.05</v>
       </c>
       <c r="F662" t="n">
-        <v>2.202</v>
+        <v>2.0475</v>
       </c>
       <c r="G662" t="n">
-        <v>1.962</v>
+        <v>0.5099999999999999</v>
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t xml:space="preserve">Moreton City Excelsior FC </t>
+          <t xml:space="preserve">Carrarese Calcio </t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Olympic FC Brisbane</t>
+          <t xml:space="preserve"> Juventus FC</t>
         </is>
       </c>
       <c r="C663" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="D663" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="E663" t="n">
-        <v>0.8999999999999999</v>
+        <v>2.48</v>
       </c>
       <c r="F663" t="n">
-        <v>1.72</v>
+        <v>1.2175</v>
       </c>
       <c r="G663" t="n">
-        <v>1.700909090909091</v>
+        <v>0.7474999999999999</v>
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kuala Lumpur City FC </t>
+          <t xml:space="preserve">US Avellino </t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Johor Darul Tazim FC</t>
+          <t xml:space="preserve"> Calcio Catania</t>
         </is>
       </c>
       <c r="C664" t="n">
-        <v>9.800000000000001</v>
+        <v>1.66</v>
       </c>
       <c r="D664" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E664" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="F664" t="n">
+        <v>1.2375</v>
+      </c>
+      <c r="G664" t="n">
+        <v>0.7325</v>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Lugano </t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Servette Geneva</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D665" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E665" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="F665" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G665" t="n">
+        <v>1.195</v>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC St. Gallen 1879 </t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Zurich</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D666" t="n">
+        <v>3</v>
+      </c>
+      <c r="E666" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F666" t="n">
+        <v>1.266666666666667</v>
+      </c>
+      <c r="G666" t="n">
+        <v>1.456666666666667</v>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Young Boys Bern </t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Winterthur</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D667" t="n">
+        <v>6</v>
+      </c>
+      <c r="E667" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F667" t="n">
+        <v>0.4766666666666667</v>
+      </c>
+      <c r="G667" t="n">
+        <v>1.848333333333333</v>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ciudad de Bolivar </t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Argentino Monte Maiz</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D668" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E668" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F668" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="G668" t="n">
+        <v>0.8640000000000001</v>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Independiente de Chivilcoy </t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Linqueno</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D669" t="n">
+        <v>4</v>
+      </c>
+      <c r="E669" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F669" t="n">
+        <v>0.6566666666666666</v>
+      </c>
+      <c r="G669" t="n">
+        <v>0.8066666666666666</v>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Villa San Carlos </t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CS Italiano</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D670" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E670" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F670" t="n">
+        <v>1.0925</v>
+      </c>
+      <c r="G670" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD UAI Urquiza </t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deportivo Armenio</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>4</v>
+      </c>
+      <c r="D671" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E671" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F671" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G671" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Atletico Acassuso </t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Atletico Fenix</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D672" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E672" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F672" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G672" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSD Flandria </t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Argentino de Merlo</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D673" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E673" t="n">
+        <v>0.9300000000000002</v>
+      </c>
+      <c r="F673" t="n">
+        <v>1.37125</v>
+      </c>
+      <c r="G673" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deportivo Merlo </t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canuelas FC</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>2</v>
+      </c>
+      <c r="D674" t="n">
+        <v>4</v>
+      </c>
+      <c r="E674" t="n">
+        <v>2</v>
+      </c>
+      <c r="F674" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G674" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Longford Town FC </t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cobh Ramblers</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D675" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E675" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F675" t="n">
+        <v>1.246666666666667</v>
+      </c>
+      <c r="G675" t="n">
+        <v>1.986666666666667</v>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Claypole </t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> General Lamadrid</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D676" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E676" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F676" t="n">
+        <v>1.566666666666666</v>
+      </c>
+      <c r="G676" t="n">
+        <v>1.003333333333333</v>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Audax Rio EC RJ </t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AA Portuguesa RJ</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D677" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E677" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F677" t="n">
+        <v>0.5475000000000001</v>
+      </c>
+      <c r="G677" t="n">
+        <v>0.3825</v>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Milan </t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> US Salernitana</t>
+        </is>
+      </c>
+      <c r="C678" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D678" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="E678" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="F678" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="G678" t="n">
+        <v>0.5525</v>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Portimonense SC </t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Avs Futebol Sad</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D679" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E679" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F679" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="G679" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Real Madrid </t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Betis</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D680" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="E680" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="F680" t="n">
+        <v>1.355</v>
+      </c>
+      <c r="G680" t="n">
+        <v>1.9125</v>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lyon </t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PSG</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D681" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E681" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F681" t="n">
+        <v>1.9275</v>
+      </c>
+      <c r="G681" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deportes Iquique </t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Colo-Colo</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D682" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E682" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F682" t="n">
+        <v>2</v>
+      </c>
+      <c r="G682" t="n">
+        <v>1.365</v>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Sarmiento de Resistencia </t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Crucero del Norte</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D683" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E683" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F683" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="G683" t="n">
+        <v>0.2475</v>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Def. de Belgrano de Villa Ramallo </t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sportivo Las Parejas</t>
+        </is>
+      </c>
+      <c r="C684" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D684" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E684" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F684" t="n">
+        <v>1.216</v>
+      </c>
+      <c r="G684" t="n">
+        <v>0.5279999999999999</v>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deportes Magallanes </t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Union San Felipe</t>
+        </is>
+      </c>
+      <c r="C685" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D685" t="n">
+        <v>5</v>
+      </c>
+      <c r="E685" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F685" t="n">
+        <v>2.123333333333334</v>
+      </c>
+      <c r="G685" t="n">
+        <v>1.856666666666667</v>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Universitario de Vinto </t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Aurora</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D686" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E686" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F686" t="n">
+        <v>1.6925</v>
+      </c>
+      <c r="G686" t="n">
         <v>1.17</v>
       </c>
-      <c r="E664" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="F664" t="n">
-        <v>1.838333333333333</v>
-      </c>
-      <c r="G664" t="n">
-        <v>1.665</v>
-      </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>pending</t>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AA Altos PI </t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fluminense EC PI</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D687" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E687" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F687" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G687" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Patrocinense MG </t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Costa Rica EC MS</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D688" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E688" t="n">
+        <v>0.8499999999999996</v>
+      </c>
+      <c r="F688" t="n">
+        <v>0.6525</v>
+      </c>
+      <c r="G688" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Atletico Cearense CE </t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Treze FC PB</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="D689" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E689" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F689" t="n">
+        <v>2.515</v>
+      </c>
+      <c r="G689" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petrolina PE </t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retro FC PE</t>
+        </is>
+      </c>
+      <c r="C690" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D690" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E690" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F690" t="n">
+        <v>0.5750000000000001</v>
+      </c>
+      <c r="G690" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SD Juazeirense BA </t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AS Arapiraquense AL</t>
+        </is>
+      </c>
+      <c r="C691" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D691" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E691" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F691" t="n">
+        <v>1.423333333333334</v>
+      </c>
+      <c r="G691" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valur Reykjavik </t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FH Hafnarfjordur</t>
+        </is>
+      </c>
+      <c r="C692" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D692" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E692" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F692" t="n">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="G692" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhode Island FC </t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Louisville City FC</t>
+        </is>
+      </c>
+      <c r="C693" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D693" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E693" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F693" t="n">
+        <v>1.536</v>
+      </c>
+      <c r="G693" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comerciantes Unidos </t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="C694" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D694" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E694" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="F694" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G694" t="n">
+        <v>0.7225</v>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deportivo Garcilaso </t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FBC Melgar</t>
+        </is>
+      </c>
+      <c r="C695" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D695" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E695" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F695" t="n">
+        <v>1.183333333333333</v>
+      </c>
+      <c r="G695" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Universitario de Deportes </t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Los Chankas CYC</t>
+        </is>
+      </c>
+      <c r="C696" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D696" t="n">
+        <v>23</v>
+      </c>
+      <c r="E696" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="F696" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="G696" t="n">
+        <v>0.2675</v>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AD Confianca SE </t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABC FC RN</t>
+        </is>
+      </c>
+      <c r="C697" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D697" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E697" t="n">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="F697" t="n">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="G697" t="n">
+        <v>1.2175</v>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nautico PE </t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clube do Remo PA</t>
+        </is>
+      </c>
+      <c r="C698" t="n">
+        <v>2</v>
+      </c>
+      <c r="D698" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E698" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F698" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="G698" t="n">
+        <v>1.1775</v>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deportes Valdivia </t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deportes Colina</t>
+        </is>
+      </c>
+      <c r="C699" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D699" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E699" t="n">
+        <v>0.4500000000000002</v>
+      </c>
+      <c r="F699" t="n">
+        <v>1.3825</v>
+      </c>
+      <c r="G699" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS Esportiva AL </t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EC Jacuipense BA</t>
+        </is>
+      </c>
+      <c r="C700" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D700" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E700" t="n">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="F700" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="G700" t="n">
+        <v>0.3366666666666667</v>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comerciantes FC </t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ayacucho FC</t>
+        </is>
+      </c>
+      <c r="C701" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D701" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E701" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F701" t="n">
+        <v>1.742</v>
+      </c>
+      <c r="G701" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Newell's Old Boys </t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="C702" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D702" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E702" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="F702" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G702" t="n">
+        <v>1</v>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pirata FC </t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Juan Pablo II</t>
+        </is>
+      </c>
+      <c r="C703" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D703" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E703" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F703" t="n">
+        <v>0.6999999999999998</v>
+      </c>
+      <c r="G703" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AFC Ann Arbor </t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Oakland County FC</t>
+        </is>
+      </c>
+      <c r="C704" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D704" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E704" t="n">
+        <v>2.359999999999999</v>
+      </c>
+      <c r="F704" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G704" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atletico de Rafaela </t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almirante Brown</t>
+        </is>
+      </c>
+      <c r="C705" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D705" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E705" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F705" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G705" t="n">
+        <v>2.465</v>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Marathon San Pedro Sula </t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Olimpia Tegucigalpa</t>
+        </is>
+      </c>
+      <c r="C706" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D706" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E706" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F706" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G706" t="n">
+        <v>0.6966666666666667</v>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tacuary Asuncion </t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="C707" t="n">
+        <v>8</v>
+      </c>
+      <c r="D707" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E707" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F707" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G707" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Bolivar </t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Real Santa Cruz</t>
+        </is>
+      </c>
+      <c r="C708" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D708" t="n">
+        <v>24</v>
+      </c>
+      <c r="E708" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="F708" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G708" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vancouver Langley FC </t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pacific FC</t>
+        </is>
+      </c>
+      <c r="C709" t="n">
+        <v>3</v>
+      </c>
+      <c r="D709" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E709" t="n">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="F709" t="n">
+        <v>0.9724999999999999</v>
+      </c>
+      <c r="G709" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vissel Kobe </t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tokyo Verdy</t>
+        </is>
+      </c>
+      <c r="C710" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D710" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="E710" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="F710" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="G710" t="n">
+        <v>0.3475</v>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blaublitz Akita </t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thespakusatsu</t>
+        </is>
+      </c>
+      <c r="C711" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D711" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E711" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="F711" t="n">
+        <v>1.205</v>
+      </c>
+      <c r="G711" t="n">
+        <v>2.055</v>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iwaki FC </t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tokushima Vortis</t>
+        </is>
+      </c>
+      <c r="C712" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D712" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E712" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F712" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="G712" t="n">
+        <v>0.7974999999999999</v>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oita Trinita </t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Renofa Yamaguchi</t>
+        </is>
+      </c>
+      <c r="C713" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D713" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E713" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F713" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G713" t="n">
+        <v>1.0525</v>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roasso Kumamoto </t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Montedio Yamagata</t>
+        </is>
+      </c>
+      <c r="C714" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D714" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E714" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F714" t="n">
+        <v>1.422</v>
+      </c>
+      <c r="G714" t="n">
+        <v>1.568</v>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shimizu S-Pulse </t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mito Hollyhock</t>
+        </is>
+      </c>
+      <c r="C715" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D715" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E715" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="F715" t="n">
+        <v>1.214</v>
+      </c>
+      <c r="G715" t="n">
+        <v>1.588</v>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vegalta Sendai </t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fagiano Okayama</t>
+        </is>
+      </c>
+      <c r="C716" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D716" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E716" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F716" t="n">
+        <v>1.172</v>
+      </c>
+      <c r="G716" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oakleigh Cannons </t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Heidelberg United FC</t>
+        </is>
+      </c>
+      <c r="C717" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D717" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E717" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F717" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G717" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canberra Croatia FC </t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yoogali SC</t>
+        </is>
+      </c>
+      <c r="C718" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D718" t="n">
+        <v>16</v>
+      </c>
+      <c r="E718" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="F718" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G718" t="n">
+        <v>2.023333333333333</v>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tuggeranong Utd </t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gungahlin United FC</t>
+        </is>
+      </c>
+      <c r="C719" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D719" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E719" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="F719" t="n">
+        <v>1.5675</v>
+      </c>
+      <c r="G719" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rockdale Ilinden FC </t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> St George City FA</t>
+        </is>
+      </c>
+      <c r="C720" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D720" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E720" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F720" t="n">
+        <v>1.843333333333333</v>
+      </c>
+      <c r="G720" t="n">
+        <v>1.556666666666667</v>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sydney United </t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Central Coast Mariners Academy</t>
+        </is>
+      </c>
+      <c r="C721" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D721" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E721" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F721" t="n">
+        <v>2.5675</v>
+      </c>
+      <c r="G721" t="n">
+        <v>1.465</v>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wollongong Wolves FC </t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Marconi Stallions</t>
+        </is>
+      </c>
+      <c r="C722" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D722" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E722" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F722" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G722" t="n">
+        <v>1.2525</v>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brisbane Roar FC </t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brisbane City FC</t>
+        </is>
+      </c>
+      <c r="C723" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D723" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E723" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F723" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="G723" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Busan Transportation Corporation FC </t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yangpyeong FC</t>
+        </is>
+      </c>
+      <c r="C724" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D724" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E724" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F724" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G724" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Siheung Citizen FC </t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hwaseong FC</t>
+        </is>
+      </c>
+      <c r="C725" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D725" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E725" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F725" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G725" t="n">
+        <v>2.4075</v>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sunshine Coast Wanderers FC </t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Olympic FC Brisbane</t>
+        </is>
+      </c>
+      <c r="C726" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D726" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E726" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F726" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G726" t="n">
+        <v>1.4975</v>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cerezo Osaka </t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="C727" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D727" t="n">
+        <v>2</v>
+      </c>
+      <c r="E727" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F727" t="n">
+        <v>1.0025</v>
+      </c>
+      <c r="G727" t="n">
+        <v>3.025</v>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Tokyo </t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="C728" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D728" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E728" t="n">
+        <v>0.5099999999999998</v>
+      </c>
+      <c r="F728" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G728" t="n">
+        <v>1.126666666666667</v>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nagoya Grampus </t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kyoto Sanga FC</t>
+        </is>
+      </c>
+      <c r="C729" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="D729" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E729" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F729" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G729" t="n">
+        <v>1.398</v>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Melbourne FC </t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Moreland City FC</t>
+        </is>
+      </c>
+      <c r="C730" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D730" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E730" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F730" t="n">
+        <v>2.036</v>
+      </c>
+      <c r="G730" t="n">
+        <v>2.328</v>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Mokpo </t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Daejeon Korail FC</t>
+        </is>
+      </c>
+      <c r="C731" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D731" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E731" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F731" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G731" t="n">
+        <v>0</v>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t xml:space="preserve">St George Willawong FC </t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ipswich FC</t>
+        </is>
+      </c>
+      <c r="C732" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="D732" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E732" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="F732" t="n">
+        <v>2.133333333333333</v>
+      </c>
+      <c r="G732" t="n">
+        <v>1.511666666666667</v>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Urawa Red Diamonds </t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Machida Zelvia</t>
+        </is>
+      </c>
+      <c r="C733" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D733" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E733" t="n">
+        <v>0.3399999999999999</v>
+      </c>
+      <c r="F733" t="n">
+        <v>2.394</v>
+      </c>
+      <c r="G733" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gold Coast United FC </t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sunshine Coast Wanderers</t>
+        </is>
+      </c>
+      <c r="C734" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D734" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E734" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F734" t="n">
+        <v>1.191666666666667</v>
+      </c>
+      <c r="G734" t="n">
+        <v>1.206666666666667</v>
+      </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Langfang Glory City FC </t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rizhao Yuqi</t>
+        </is>
+      </c>
+      <c r="C735" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D735" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E735" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F735" t="n">
+        <v>0.9349999999999999</v>
+      </c>
+      <c r="G735" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Golik North District </t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eastern SC</t>
+        </is>
+      </c>
+      <c r="C736" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D736" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E736" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="F736" t="n">
+        <v>2.145</v>
+      </c>
+      <c r="G736" t="n">
+        <v>1.9575</v>
+      </c>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hong Kong FC </t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sham Shui Po SA</t>
+        </is>
+      </c>
+      <c r="C737" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D737" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E737" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F737" t="n">
+        <v>1.464285714285714</v>
+      </c>
+      <c r="G737" t="n">
+        <v>0.9814285714285714</v>
+      </c>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kitchee SC </t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lee Man FC</t>
+        </is>
+      </c>
+      <c r="C738" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D738" t="n">
+        <v>3</v>
+      </c>
+      <c r="E738" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F738" t="n">
+        <v>0.6233333333333334</v>
+      </c>
+      <c r="G738" t="n">
+        <v>2.023333333333333</v>
+      </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Resources Capital FC </t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Southern District Football Club</t>
+        </is>
+      </c>
+      <c r="C739" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D739" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E739" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="F739" t="n">
+        <v>1.423333333333333</v>
+      </c>
+      <c r="G739" t="n">
+        <v>1.443333333333333</v>
+      </c>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daegu FC </t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gangwon FC</t>
+        </is>
+      </c>
+      <c r="C740" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D740" t="n">
+        <v>3</v>
+      </c>
+      <c r="E740" t="n">
+        <v>0.4500000000000002</v>
+      </c>
+      <c r="F740" t="n">
+        <v>1.685</v>
+      </c>
+      <c r="G740" t="n">
+        <v>1.9275</v>
+      </c>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cheongju FC </t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gyeongnam FC</t>
+        </is>
+      </c>
+      <c r="C741" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D741" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E741" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F741" t="n">
+        <v>1</v>
+      </c>
+      <c r="G741" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dalian Zhixing FC </t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chongqing Tonglianglong FC</t>
+        </is>
+      </c>
+      <c r="C742" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="D742" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E742" t="n">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="F742" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="G742" t="n">
+        <v>0.9349999999999999</v>
+      </c>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Volos NPS </t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OFI</t>
+        </is>
+      </c>
+      <c r="C743" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D743" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E743" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F743" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="G743" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eastern Suburbs FC </t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gold Coast United FC</t>
+        </is>
+      </c>
+      <c r="C744" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D744" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="E744" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="F744" t="n">
+        <v>1.977777777777778</v>
+      </c>
+      <c r="G744" t="n">
+        <v>1.424444444444444</v>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Hradec Kralove B </t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Arsenal Ceska Lipa</t>
+        </is>
+      </c>
+      <c r="C745" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D745" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E745" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F745" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G745" t="n">
+        <v>1.245</v>
+      </c>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Mlada Boleslav B </t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Teplice B</t>
+        </is>
+      </c>
+      <c r="C746" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D746" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E746" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F746" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G746" t="n">
+        <v>1.246666666666667</v>
+      </c>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Pardubice B </t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Usti nad Labem</t>
+        </is>
+      </c>
+      <c r="C747" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="D747" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E747" t="n">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="F747" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G747" t="n">
+        <v>1.818333333333333</v>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Velke Mezirici </t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Pelhimov</t>
+        </is>
+      </c>
+      <c r="C748" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D748" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E748" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F748" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G748" t="n">
+        <v>0.9450000000000001</v>
+      </c>
+      <c r="H748" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jiangxi Dark Horse Junior </t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Guangxi Hengchen FC</t>
+        </is>
+      </c>
+      <c r="C749" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D749" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E749" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F749" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="G749" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H749" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Real Murcia B </t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CF Lorca Deportiva</t>
+        </is>
+      </c>
+      <c r="C750" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D750" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E750" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F750" t="n">
+        <v>0.7475000000000001</v>
+      </c>
+      <c r="G750" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H750" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Elva </t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Viimsi JK</t>
+        </is>
+      </c>
+      <c r="C751" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D751" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E751" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="F751" t="n">
+        <v>2.865</v>
+      </c>
+      <c r="G751" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Tallinn </t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paide Linnameeskond U21</t>
+        </is>
+      </c>
+      <c r="C752" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D752" t="n">
+        <v>13</v>
+      </c>
+      <c r="E752" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F752" t="n">
+        <v>2.303333333333333</v>
+      </c>
+      <c r="G752" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Basconia </t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Portugalete</t>
+        </is>
+      </c>
+      <c r="C753" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="D753" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E753" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F753" t="n">
+        <v>1.7025</v>
+      </c>
+      <c r="G753" t="n">
+        <v>0.7524999999999999</v>
+      </c>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Kuressaare U21 </t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Laanemaa JK Haapsalu</t>
+        </is>
+      </c>
+      <c r="C754" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="D754" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E754" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="F754" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G754" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H754" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Phoenix Johvi </t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tartu JK Tammeka U21</t>
+        </is>
+      </c>
+      <c r="C755" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D755" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E755" t="n">
+        <v>3</v>
+      </c>
+      <c r="F755" t="n">
+        <v>2.1825</v>
+      </c>
+      <c r="G755" t="n">
+        <v>3.475</v>
+      </c>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JK Narva Trans </t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FA Tartu Kalev</t>
+        </is>
+      </c>
+      <c r="C756" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D756" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E756" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F756" t="n">
+        <v>1.516</v>
+      </c>
+      <c r="G756" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sichuan Jiuniu </t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="C757" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="D757" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E757" t="n">
+        <v>7.050000000000001</v>
+      </c>
+      <c r="F757" t="n">
+        <v>1.435</v>
+      </c>
+      <c r="G757" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeju United FC </t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Suwon FC</t>
+        </is>
+      </c>
+      <c r="C758" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D758" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E758" t="n">
+        <v>0</v>
+      </c>
+      <c r="F758" t="n">
+        <v>0.9475000000000001</v>
+      </c>
+      <c r="G758" t="n">
+        <v>1.5825</v>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seongnam Ilhwa </t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cheonan City FC</t>
+        </is>
+      </c>
+      <c r="C759" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D759" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E759" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F759" t="n">
+        <v>1.007142857142857</v>
+      </c>
+      <c r="G759" t="n">
+        <v>0.7785714285714286</v>
+      </c>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lusitania FC Lourosa </t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Feirense</t>
+        </is>
+      </c>
+      <c r="C760" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D760" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E760" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F760" t="n">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G760" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tanjong Pagar United FC </t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hougang United FC</t>
+        </is>
+      </c>
+      <c r="C761" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D761" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E761" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F761" t="n">
+        <v>3.165</v>
+      </c>
+      <c r="G761" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RC Celta de Vigo C </t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SD Sarriana</t>
+        </is>
+      </c>
+      <c r="C762" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D762" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E762" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F762" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G762" t="n">
+        <v>1.4925</v>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RCD Mallorca B </t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Manacor</t>
+        </is>
+      </c>
+      <c r="C763" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D763" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E763" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F763" t="n">
+        <v>0.4275</v>
+      </c>
+      <c r="G763" t="n">
+        <v>1.7225</v>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuarte CD </t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Caspe</t>
+        </is>
+      </c>
+      <c r="C764" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D764" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E764" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F764" t="n">
+        <v>1.385</v>
+      </c>
+      <c r="G764" t="n">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sporting Gijon B </t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L Entregu CF</t>
+        </is>
+      </c>
+      <c r="C765" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D765" t="n">
+        <v>5</v>
+      </c>
+      <c r="E765" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F765" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G765" t="n">
+        <v>0.05000000000000001</v>
+      </c>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangor GG FC </t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kilbarrack United</t>
+        </is>
+      </c>
+      <c r="C766" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D766" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E766" t="n">
+        <v>0.05000000000000027</v>
+      </c>
+      <c r="F766" t="n">
+        <v>1.425</v>
+      </c>
+      <c r="G766" t="n">
+        <v>1.365</v>
+      </c>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>

--- a/bak/ml_fb.xlsx
+++ b/bak/ml_fb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H884"/>
+  <dimension ref="A1:H910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25310,92 +25310,92 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Portuguesa FC</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nicaragua</t>
+          <t xml:space="preserve"> Carabobo FC</t>
         </is>
       </c>
       <c r="C778" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="D778" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="E778" t="n">
-        <v>2.45</v>
+        <v>2.39</v>
       </c>
       <c r="F778" t="n">
-        <v>1.14</v>
+        <v>0.675</v>
       </c>
       <c r="G778" t="n">
-        <v>0.385</v>
+        <v>0.9674999999999999</v>
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Portuguesa FC</t>
+          <t>Colorado Rapids 2</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Carabobo FC</t>
+          <t xml:space="preserve"> Minnesota United FC 2</t>
         </is>
       </c>
       <c r="C779" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="D779" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="E779" t="n">
-        <v>2.39</v>
+        <v>1.54</v>
       </c>
       <c r="F779" t="n">
-        <v>0.675</v>
+        <v>2.438</v>
       </c>
       <c r="G779" t="n">
-        <v>0.9674999999999999</v>
+        <v>1.912</v>
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>Colorado Rapids 2</t>
+          <t>AC Houston Sur</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Minnesota United FC 2</t>
+          <t xml:space="preserve"> Brazos Valley Cavalry FC</t>
         </is>
       </c>
       <c r="C780" t="n">
-        <v>1.86</v>
+        <v>4.9</v>
       </c>
       <c r="D780" t="n">
-        <v>3.4</v>
+        <v>1.49</v>
       </c>
       <c r="E780" t="n">
-        <v>1.54</v>
+        <v>3.41</v>
       </c>
       <c r="F780" t="n">
-        <v>2.438</v>
+        <v>0.325</v>
       </c>
       <c r="G780" t="n">
-        <v>1.912</v>
+        <v>1.015</v>
       </c>
       <c r="H780" t="inlineStr">
         <is>
@@ -25406,252 +25406,252 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>AC Houston Sur</t>
+          <t>CD Santa Cruz</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brazos Valley Cavalry FC</t>
+          <t xml:space="preserve"> Deportes Limache</t>
         </is>
       </c>
       <c r="C781" t="n">
-        <v>4.9</v>
+        <v>2.45</v>
       </c>
       <c r="D781" t="n">
-        <v>1.49</v>
+        <v>2.65</v>
       </c>
       <c r="E781" t="n">
-        <v>3.41</v>
+        <v>0.1999999999999997</v>
       </c>
       <c r="F781" t="n">
-        <v>0.325</v>
+        <v>1.17</v>
       </c>
       <c r="G781" t="n">
-        <v>1.015</v>
+        <v>1.085</v>
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>CD Santa Cruz</t>
+          <t>CF America</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Deportes Limache</t>
+          <t xml:space="preserve"> Cruz Azul</t>
         </is>
       </c>
       <c r="C782" t="n">
-        <v>2.45</v>
+        <v>1.91</v>
       </c>
       <c r="D782" t="n">
-        <v>2.65</v>
+        <v>4.2</v>
       </c>
       <c r="E782" t="n">
-        <v>0.1999999999999997</v>
+        <v>2.29</v>
       </c>
       <c r="F782" t="n">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="G782" t="n">
-        <v>1.085</v>
+        <v>1.48</v>
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>CF America</t>
+          <t>Irvine Zeta FC</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cruz Azul</t>
+          <t xml:space="preserve"> Capo FC</t>
         </is>
       </c>
       <c r="C783" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="D783" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="E783" t="n">
-        <v>2.29</v>
+        <v>3.9</v>
       </c>
       <c r="F783" t="n">
-        <v>1.38</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="G783" t="n">
-        <v>1.48</v>
+        <v>1.82</v>
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Irvine Zeta FC</t>
+          <t>Kuching City U23</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Capo FC</t>
+          <t xml:space="preserve"> Negeri Sembilan U23</t>
         </is>
       </c>
       <c r="C784" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="D784" t="n">
-        <v>5.4</v>
+        <v>1.63</v>
       </c>
       <c r="E784" t="n">
-        <v>3.9</v>
+        <v>2.87</v>
       </c>
       <c r="F784" t="n">
-        <v>0.5866666666666667</v>
+        <v>1.5825</v>
       </c>
       <c r="G784" t="n">
-        <v>1.82</v>
+        <v>1.5975</v>
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>Kuching City U23</t>
+          <t>Bucheon FC</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Negeri Sembilan U23</t>
+          <t xml:space="preserve"> Chungnam Asan FC</t>
         </is>
       </c>
       <c r="C785" t="n">
-        <v>4.5</v>
+        <v>2.35</v>
       </c>
       <c r="D785" t="n">
-        <v>1.63</v>
+        <v>3</v>
       </c>
       <c r="E785" t="n">
-        <v>2.87</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="F785" t="n">
-        <v>1.5825</v>
+        <v>1</v>
       </c>
       <c r="G785" t="n">
-        <v>1.5975</v>
+        <v>1.29</v>
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>Bucheon FC</t>
+          <t>FC Lahti</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chungnam Asan FC</t>
+          <t xml:space="preserve"> Seinajoen JK</t>
         </is>
       </c>
       <c r="C786" t="n">
-        <v>2.35</v>
+        <v>3.5</v>
       </c>
       <c r="D786" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E786" t="n">
-        <v>0.6499999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="F786" t="n">
-        <v>1</v>
+        <v>1.52</v>
       </c>
       <c r="G786" t="n">
-        <v>1.29</v>
+        <v>0.5</v>
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>FC Lahti</t>
+          <t>Vaasan Palloseura</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Seinajoen JK</t>
+          <t xml:space="preserve"> FC Inter Turku</t>
         </is>
       </c>
       <c r="C787" t="n">
-        <v>3.5</v>
+        <v>1.91</v>
       </c>
       <c r="D787" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="E787" t="n">
-        <v>1.5</v>
+        <v>1.79</v>
       </c>
       <c r="F787" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G787" t="n">
         <v>1.52</v>
       </c>
-      <c r="G787" t="n">
-        <v>0.5</v>
-      </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>Vaasan Palloseura</t>
+          <t>FC KTP Kotka</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FC Inter Turku</t>
+          <t xml:space="preserve"> KaPa Kapylan Pallo</t>
         </is>
       </c>
       <c r="C788" t="n">
-        <v>1.91</v>
+        <v>1.27</v>
       </c>
       <c r="D788" t="n">
-        <v>3.7</v>
+        <v>8.1</v>
       </c>
       <c r="E788" t="n">
-        <v>1.79</v>
+        <v>6.83</v>
       </c>
       <c r="F788" t="n">
-        <v>1.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G788" t="n">
-        <v>1.52</v>
+        <v>4.815</v>
       </c>
       <c r="H788" t="inlineStr">
         <is>
@@ -25662,124 +25662,124 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>FC KTP Kotka</t>
+          <t>PK-35 Helsinki</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KaPa Kapylan Pallo</t>
+          <t xml:space="preserve"> SalPa</t>
         </is>
       </c>
       <c r="C789" t="n">
-        <v>1.27</v>
+        <v>2.15</v>
       </c>
       <c r="D789" t="n">
-        <v>8.1</v>
+        <v>3.1</v>
       </c>
       <c r="E789" t="n">
-        <v>6.83</v>
+        <v>0.9500000000000002</v>
       </c>
       <c r="F789" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.045</v>
       </c>
       <c r="G789" t="n">
-        <v>4.815</v>
+        <v>1.5675</v>
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>PK-35 Helsinki</t>
+          <t>Al Ittihad Al Sakandary</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SalPa</t>
+          <t xml:space="preserve"> Zamalek SC</t>
         </is>
       </c>
       <c r="C790" t="n">
-        <v>2.15</v>
+        <v>3.7</v>
       </c>
       <c r="D790" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="E790" t="n">
-        <v>0.9500000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="F790" t="n">
-        <v>1.045</v>
+        <v>1.29</v>
       </c>
       <c r="G790" t="n">
-        <v>1.5675</v>
+        <v>0.6833333333333332</v>
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>Al Ittihad Al Sakandary</t>
+          <t>Kría</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Zamalek SC</t>
+          <t xml:space="preserve"> Árborg</t>
         </is>
       </c>
       <c r="C791" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D791" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="E791" t="n">
-        <v>1.7</v>
+        <v>1.33</v>
       </c>
       <c r="F791" t="n">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="G791" t="n">
-        <v>0.6833333333333332</v>
+        <v>1.19</v>
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>Kría</t>
+          <t>Union Comercio</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Árborg</t>
+          <t xml:space="preserve"> CS Cienciano</t>
         </is>
       </c>
       <c r="C792" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="D792" t="n">
-        <v>1.87</v>
+        <v>3.1</v>
       </c>
       <c r="E792" t="n">
-        <v>1.33</v>
+        <v>0.8000000000000003</v>
       </c>
       <c r="F792" t="n">
-        <v>1.08</v>
+        <v>1.32</v>
       </c>
       <c r="G792" t="n">
-        <v>1.19</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="H792" t="inlineStr">
         <is>
@@ -25790,28 +25790,28 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>Union Comercio</t>
+          <t>Santos FC Nasca</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CS Cienciano</t>
+          <t xml:space="preserve"> CDU San Martin</t>
         </is>
       </c>
       <c r="C793" t="n">
-        <v>2.3</v>
+        <v>1.98</v>
       </c>
       <c r="D793" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="E793" t="n">
-        <v>0.8000000000000003</v>
+        <v>1.92</v>
       </c>
       <c r="F793" t="n">
-        <v>1.32</v>
+        <v>0.35</v>
       </c>
       <c r="G793" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.87</v>
       </c>
       <c r="H793" t="inlineStr">
         <is>
@@ -25822,92 +25822,92 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Santos FC Nasca</t>
+          <t>Defensores de Belgrano</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CDU San Martin</t>
+          <t xml:space="preserve"> CA Aldosivi</t>
         </is>
       </c>
       <c r="C794" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="D794" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="E794" t="n">
-        <v>1.92</v>
+        <v>1.5</v>
       </c>
       <c r="F794" t="n">
-        <v>0.35</v>
+        <v>1.396666666666667</v>
       </c>
       <c r="G794" t="n">
-        <v>0.87</v>
+        <v>1.493333333333333</v>
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>Defensores de Belgrano</t>
+          <t>Union de Santa Fe</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA Aldosivi</t>
+          <t xml:space="preserve"> Barracas Central</t>
         </is>
       </c>
       <c r="C795" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="D795" t="n">
-        <v>3.6</v>
+        <v>4.09</v>
       </c>
       <c r="E795" t="n">
-        <v>1.5</v>
+        <v>1.98</v>
       </c>
       <c r="F795" t="n">
-        <v>1.396666666666667</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="G795" t="n">
-        <v>1.493333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>Union de Santa Fe</t>
+          <t>Coritiba FC PR</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Barracas Central</t>
+          <t xml:space="preserve"> Operario Ferroviario EC PR</t>
         </is>
       </c>
       <c r="C796" t="n">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
       <c r="D796" t="n">
-        <v>4.09</v>
+        <v>4.6</v>
       </c>
       <c r="E796" t="n">
-        <v>1.98</v>
+        <v>2.75</v>
       </c>
       <c r="F796" t="n">
-        <v>0.5049999999999999</v>
+        <v>0.585</v>
       </c>
       <c r="G796" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H796" t="inlineStr">
         <is>
@@ -25918,124 +25918,124 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>Coritiba FC PR</t>
+          <t>AC Barnechea</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Operario Ferroviario EC PR</t>
+          <t xml:space="preserve"> Universidad de Concepcion</t>
         </is>
       </c>
       <c r="C797" t="n">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="D797" t="n">
-        <v>4.6</v>
+        <v>3.33</v>
       </c>
       <c r="E797" t="n">
-        <v>2.75</v>
+        <v>1.37</v>
       </c>
       <c r="F797" t="n">
-        <v>0.585</v>
+        <v>0.925</v>
       </c>
       <c r="G797" t="n">
-        <v>0</v>
+        <v>1.685</v>
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>AC Barnechea</t>
+          <t>Trem AP</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Universidad de Concepcion</t>
+          <t xml:space="preserve"> Rio Branco FC AC</t>
         </is>
       </c>
       <c r="C798" t="n">
-        <v>1.96</v>
+        <v>1.58</v>
       </c>
       <c r="D798" t="n">
-        <v>3.33</v>
+        <v>5.6</v>
       </c>
       <c r="E798" t="n">
-        <v>1.37</v>
+        <v>4.02</v>
       </c>
       <c r="F798" t="n">
-        <v>0.925</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="G798" t="n">
-        <v>1.685</v>
+        <v>1.09</v>
       </c>
       <c r="H798" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>CSD San Martin</t>
+          <t>San Marcos de Arica</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Argentino de Quilmes</t>
+          <t xml:space="preserve"> San Luis de Quillota</t>
         </is>
       </c>
       <c r="C799" t="n">
-        <v>2.95</v>
+        <v>2.1</v>
       </c>
       <c r="D799" t="n">
-        <v>2.65</v>
+        <v>3.1</v>
       </c>
       <c r="E799" t="n">
-        <v>0.3000000000000003</v>
+        <v>1</v>
       </c>
       <c r="F799" t="n">
-        <v>1.53</v>
+        <v>0.9966666666666667</v>
       </c>
       <c r="G799" t="n">
-        <v>0.6766666666666667</v>
+        <v>1.56</v>
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>Trem AP</t>
+          <t>CF Monterrey</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rio Branco FC AC</t>
+          <t xml:space="preserve"> Club America</t>
         </is>
       </c>
       <c r="C800" t="n">
-        <v>1.58</v>
+        <v>2.5</v>
       </c>
       <c r="D800" t="n">
-        <v>5.6</v>
+        <v>2.45</v>
       </c>
       <c r="E800" t="n">
-        <v>4.02</v>
+        <v>0.04999999999999982</v>
       </c>
       <c r="F800" t="n">
-        <v>0.4666666666666666</v>
+        <v>1.815</v>
       </c>
       <c r="G800" t="n">
-        <v>1.09</v>
+        <v>2.02</v>
       </c>
       <c r="H800" t="inlineStr">
         <is>
@@ -26046,252 +26046,252 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>Atletico Tucuman</t>
+          <t>Southside Eagles</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA Platense</t>
+          <t xml:space="preserve"> Capalaba Bulldogs</t>
         </is>
       </c>
       <c r="C801" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="D801" t="n">
-        <v>4.55</v>
+        <v>2.35</v>
       </c>
       <c r="E801" t="n">
-        <v>2.5</v>
+        <v>0.04999999999999982</v>
       </c>
       <c r="F801" t="n">
-        <v>0.045</v>
+        <v>2.676666666666667</v>
       </c>
       <c r="G801" t="n">
-        <v>0.295</v>
+        <v>0.5266666666666667</v>
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>Botafogo FC SP</t>
+          <t>Tsirang FC</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gremio Novorizontino SP</t>
+          <t xml:space="preserve"> Paro FC</t>
         </is>
       </c>
       <c r="C802" t="n">
-        <v>2.85</v>
+        <v>22</v>
       </c>
       <c r="D802" t="n">
-        <v>2.75</v>
+        <v>1.03</v>
       </c>
       <c r="E802" t="n">
-        <v>0.1000000000000001</v>
+        <v>20.97</v>
       </c>
       <c r="F802" t="n">
-        <v>1.046666666666667</v>
+        <v>2.165</v>
       </c>
       <c r="G802" t="n">
-        <v>1</v>
+        <v>1.565</v>
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>CA Temperley</t>
+          <t>Gimcheon Sangmu FC</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gimnasia Y Esgrima Mendoza</t>
+          <t xml:space="preserve"> FC Seoul</t>
         </is>
       </c>
       <c r="C803" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="D803" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="E803" t="n">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="F803" t="n">
-        <v>0.9624999999999999</v>
+        <v>1.3525</v>
       </c>
       <c r="G803" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>San Marcos de Arica</t>
+          <t>Gwangju FC</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> San Luis de Quillota</t>
+          <t xml:space="preserve"> Pohang Steelers FC</t>
         </is>
       </c>
       <c r="C804" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D804" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="E804" t="n">
-        <v>1</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="F804" t="n">
-        <v>0.9966666666666667</v>
+        <v>1.095</v>
       </c>
       <c r="G804" t="n">
-        <v>1.56</v>
+        <v>1.4225</v>
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>CF Monterrey</t>
+          <t>FC Samgurali Tskaltubo</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Club America</t>
+          <t xml:space="preserve"> FC Torpedo Kutaisi</t>
         </is>
       </c>
       <c r="C805" t="n">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="D805" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="E805" t="n">
-        <v>0.04999999999999982</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="F805" t="n">
-        <v>1.815</v>
+        <v>1.33</v>
       </c>
       <c r="G805" t="n">
-        <v>2.02</v>
+        <v>1.16</v>
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>Southside Eagles</t>
+          <t>Ohud Medina</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Capalaba Bulldogs</t>
+          <t xml:space="preserve"> Al-Taraji Club</t>
         </is>
       </c>
       <c r="C806" t="n">
-        <v>2.4</v>
+        <v>1.28</v>
       </c>
       <c r="D806" t="n">
-        <v>2.35</v>
+        <v>8.5</v>
       </c>
       <c r="E806" t="n">
-        <v>0.04999999999999982</v>
+        <v>7.22</v>
       </c>
       <c r="F806" t="n">
-        <v>2.676666666666667</v>
+        <v>2.39</v>
       </c>
       <c r="G806" t="n">
-        <v>0.5266666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>Tsirang FC</t>
+          <t>SJK Akatemia</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Paro FC</t>
+          <t xml:space="preserve"> Mikkelin Palloilijat</t>
         </is>
       </c>
       <c r="C807" t="n">
-        <v>22</v>
+        <v>1.45</v>
       </c>
       <c r="D807" t="n">
-        <v>1.03</v>
+        <v>5.8</v>
       </c>
       <c r="E807" t="n">
-        <v>20.97</v>
+        <v>4.35</v>
       </c>
       <c r="F807" t="n">
-        <v>2.165</v>
+        <v>1.15</v>
       </c>
       <c r="G807" t="n">
-        <v>1.565</v>
+        <v>0.885</v>
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>Gimcheon Sangmu FC</t>
+          <t>FC Telavi</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FC Seoul</t>
+          <t xml:space="preserve"> FC Samtredia</t>
         </is>
       </c>
       <c r="C808" t="n">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="D808" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="E808" t="n">
-        <v>1.2</v>
+        <v>3.95</v>
       </c>
       <c r="F808" t="n">
-        <v>1.3525</v>
+        <v>1.45</v>
       </c>
       <c r="G808" t="n">
-        <v>1.52</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="H808" t="inlineStr">
         <is>
@@ -26302,604 +26302,604 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Gwangju FC</t>
+          <t>AL Jabalain FC</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pohang Steelers FC</t>
+          <t xml:space="preserve"> AL Batin</t>
         </is>
       </c>
       <c r="C809" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D809" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="E809" t="n">
-        <v>0.9000000000000004</v>
+        <v>0.3500000000000001</v>
       </c>
       <c r="F809" t="n">
-        <v>1.095</v>
+        <v>1.19</v>
       </c>
       <c r="G809" t="n">
-        <v>1.4225</v>
+        <v>1.44</v>
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>FC Samgurali Tskaltubo</t>
+          <t>Malmo</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FC Torpedo Kutaisi</t>
+          <t xml:space="preserve"> IF Elfsborg</t>
         </is>
       </c>
       <c r="C810" t="n">
-        <v>2.95</v>
+        <v>1.45</v>
       </c>
       <c r="D810" t="n">
-        <v>2.25</v>
+        <v>7.23</v>
       </c>
       <c r="E810" t="n">
-        <v>0.7000000000000002</v>
+        <v>5.78</v>
       </c>
       <c r="F810" t="n">
-        <v>1.33</v>
+        <v>2.56</v>
       </c>
       <c r="G810" t="n">
-        <v>1.16</v>
+        <v>0.665</v>
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>FC Kuressaare</t>
+          <t>IK Start</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Parnu JK Vaprus</t>
+          <t xml:space="preserve"> Sogndal IL</t>
         </is>
       </c>
       <c r="C811" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="D811" t="n">
-        <v>2.95</v>
+        <v>2.4</v>
       </c>
       <c r="E811" t="n">
-        <v>0.75</v>
+        <v>0.3500000000000001</v>
       </c>
       <c r="F811" t="n">
-        <v>1.18</v>
+        <v>0.7775</v>
       </c>
       <c r="G811" t="n">
-        <v>0.725</v>
+        <v>0.7449999999999999</v>
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>Valmiera FC</t>
+          <t>Degerfors IF</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FS Jelgava</t>
+          <t xml:space="preserve"> Varbergs BoIS</t>
         </is>
       </c>
       <c r="C812" t="n">
-        <v>1.22</v>
+        <v>1.66</v>
       </c>
       <c r="D812" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E812" t="n">
-        <v>9.779999999999999</v>
+        <v>3.34</v>
       </c>
       <c r="F812" t="n">
-        <v>0.9775</v>
+        <v>2.1325</v>
       </c>
       <c r="G812" t="n">
-        <v>1.62</v>
+        <v>1.0275</v>
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>Ohud Medina</t>
+          <t>TSV Hartberg</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Al-Taraji Club</t>
+          <t xml:space="preserve"> FK Austria Wien</t>
         </is>
       </c>
       <c r="C813" t="n">
-        <v>1.28</v>
+        <v>2.9</v>
       </c>
       <c r="D813" t="n">
-        <v>8.5</v>
+        <v>2.25</v>
       </c>
       <c r="E813" t="n">
-        <v>7.22</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="F813" t="n">
-        <v>2.39</v>
+        <v>1.4875</v>
       </c>
       <c r="G813" t="n">
-        <v>0.675</v>
+        <v>1.6575</v>
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>AL Jandal</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jeddah Club</t>
+          <t xml:space="preserve"> Excelsior Rotterdam</t>
         </is>
       </c>
       <c r="C814" t="n">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="D814" t="n">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="E814" t="n">
-        <v>1</v>
+        <v>0.1999999999999997</v>
       </c>
       <c r="F814" t="n">
-        <v>1.46</v>
+        <v>2.466666666666666</v>
       </c>
       <c r="G814" t="n">
-        <v>1.2825</v>
+        <v>1.223333333333333</v>
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>SJK Akatemia</t>
+          <t>AL Arabi (SA)</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mikkelin Palloilijat</t>
+          <t xml:space="preserve"> Al Bukiryah</t>
         </is>
       </c>
       <c r="C815" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="D815" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="E815" t="n">
-        <v>4.35</v>
+        <v>3.96</v>
       </c>
       <c r="F815" t="n">
-        <v>1.15</v>
+        <v>2.828333333333334</v>
       </c>
       <c r="G815" t="n">
-        <v>0.885</v>
+        <v>0.9983333333333334</v>
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>BFC Daugavpils</t>
+          <t>AL Faisaly FC</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FK Auda</t>
+          <t xml:space="preserve"> Al-Orobah FC</t>
         </is>
       </c>
       <c r="C816" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="D816" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="E816" t="n">
-        <v>1.1</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="F816" t="n">
-        <v>1.24</v>
+        <v>1.231428571428571</v>
       </c>
       <c r="G816" t="n">
-        <v>1.295</v>
+        <v>1.447142857142857</v>
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>FC Gagra</t>
+          <t>CA Youssoufia Berrechid</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FC Saburtalo Tbilisi</t>
+          <t xml:space="preserve"> Fus Fath Union Sportive Rabat</t>
         </is>
       </c>
       <c r="C817" t="n">
-        <v>5.2</v>
+        <v>2.45</v>
       </c>
       <c r="D817" t="n">
-        <v>1.56</v>
+        <v>2.65</v>
       </c>
       <c r="E817" t="n">
-        <v>3.64</v>
+        <v>0.1999999999999997</v>
       </c>
       <c r="F817" t="n">
-        <v>2</v>
+        <v>0.78</v>
       </c>
       <c r="G817" t="n">
-        <v>0.495</v>
+        <v>1.12</v>
       </c>
       <c r="H817" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>FC Telavi</t>
+          <t>Ittihad Tanger</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FC Samtredia</t>
+          <t xml:space="preserve"> Raja Casablanca Athletic</t>
         </is>
       </c>
       <c r="C818" t="n">
-        <v>1.55</v>
+        <v>5.7</v>
       </c>
       <c r="D818" t="n">
-        <v>5.5</v>
+        <v>1.63</v>
       </c>
       <c r="E818" t="n">
-        <v>3.95</v>
+        <v>4.07</v>
       </c>
       <c r="F818" t="n">
-        <v>1.45</v>
+        <v>0.7225</v>
       </c>
       <c r="G818" t="n">
-        <v>0.04666666666666667</v>
+        <v>1.2425</v>
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>AL Qaisoma FC</t>
+          <t>Mouloudia Club of Oujda</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hajer FC Al-Hasa</t>
+          <t xml:space="preserve"> Renaissance Zemamra</t>
         </is>
       </c>
       <c r="C819" t="n">
-        <v>1.94</v>
+        <v>1.66</v>
       </c>
       <c r="D819" t="n">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="E819" t="n">
-        <v>1.56</v>
+        <v>3.94</v>
       </c>
       <c r="F819" t="n">
-        <v>0.77</v>
+        <v>1.158</v>
       </c>
       <c r="G819" t="n">
-        <v>1.23</v>
+        <v>1.398</v>
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>AL Jabalain FC</t>
+          <t>Rsb Berkane</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AL Batin</t>
+          <t xml:space="preserve"> Chabab Mohammedia</t>
         </is>
       </c>
       <c r="C820" t="n">
-        <v>2.4</v>
+        <v>1.36</v>
       </c>
       <c r="D820" t="n">
-        <v>2.75</v>
+        <v>10.5</v>
       </c>
       <c r="E820" t="n">
-        <v>0.3500000000000001</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="F820" t="n">
-        <v>1.19</v>
+        <v>1.37</v>
       </c>
       <c r="G820" t="n">
-        <v>1.44</v>
+        <v>0.15</v>
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>Malmo</t>
+          <t>SV Wehen Wiesbaden</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IF Elfsborg</t>
+          <t xml:space="preserve"> Jahn Regensburg</t>
         </is>
       </c>
       <c r="C821" t="n">
-        <v>1.45</v>
+        <v>1.89</v>
       </c>
       <c r="D821" t="n">
-        <v>7.23</v>
+        <v>4</v>
       </c>
       <c r="E821" t="n">
-        <v>5.78</v>
+        <v>2.11</v>
       </c>
       <c r="F821" t="n">
-        <v>2.56</v>
+        <v>1.25</v>
       </c>
       <c r="G821" t="n">
-        <v>0.665</v>
+        <v>1.2925</v>
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>IK Start</t>
+          <t>US Avellino</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sogndal IL</t>
+          <t xml:space="preserve"> LR Vicenza</t>
         </is>
       </c>
       <c r="C822" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="D822" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="E822" t="n">
-        <v>0.3500000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="F822" t="n">
-        <v>0.7775</v>
+        <v>1.16</v>
       </c>
       <c r="G822" t="n">
-        <v>0.7449999999999999</v>
+        <v>0.735</v>
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>Degerfors IF</t>
+          <t>Atletico Mineiro MG</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Varbergs BoIS</t>
+          <t xml:space="preserve"> Caracas FC</t>
         </is>
       </c>
       <c r="C823" t="n">
-        <v>1.66</v>
+        <v>1.08</v>
       </c>
       <c r="D823" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E823" t="n">
-        <v>3.34</v>
+        <v>22.92</v>
       </c>
       <c r="F823" t="n">
-        <v>2.1325</v>
+        <v>0.77</v>
       </c>
       <c r="G823" t="n">
-        <v>1.0275</v>
+        <v>1.435</v>
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>TSV Hartberg</t>
+          <t>CD Junior FC</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FK Austria Wien</t>
+          <t xml:space="preserve"> Botafogo FR RJ</t>
         </is>
       </c>
       <c r="C824" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="D824" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="E824" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.1499999999999999</v>
       </c>
       <c r="F824" t="n">
-        <v>1.4875</v>
+        <v>0.588</v>
       </c>
       <c r="G824" t="n">
-        <v>1.6575</v>
+        <v>0.406</v>
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>AL Qadisiyah</t>
+          <t>LDU Quito</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AL Safa (Sa</t>
+          <t xml:space="preserve"> Universitario de Deportes</t>
         </is>
       </c>
       <c r="C825" t="n">
-        <v>1.66</v>
+        <v>1.46</v>
       </c>
       <c r="D825" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="E825" t="n">
-        <v>2.84</v>
+        <v>5.54</v>
       </c>
       <c r="F825" t="n">
-        <v>2.12</v>
+        <v>1.868</v>
       </c>
       <c r="G825" t="n">
-        <v>1.616</v>
+        <v>0.8019999999999999</v>
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>FV Diefflen</t>
+          <t>Amazonas FC AM</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VfR Wormatia 08 Worms</t>
+          <t xml:space="preserve"> Mirassol FC SP</t>
         </is>
       </c>
       <c r="C826" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="D826" t="n">
-        <v>1.52</v>
+        <v>2.4</v>
       </c>
       <c r="E826" t="n">
-        <v>2.98</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="F826" t="n">
-        <v>1.653333333333333</v>
+        <v>1.626666666666667</v>
       </c>
       <c r="G826" t="n">
-        <v>1.366666666666666</v>
+        <v>1</v>
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>SPVGG Quierschied</t>
+          <t xml:space="preserve">Monterey Bay FC </t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TSG Pfeddersheim</t>
+          <t xml:space="preserve"> New Mexico United</t>
         </is>
       </c>
       <c r="C827" t="n">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="D827" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="E827" t="n">
-        <v>1.05</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="F827" t="n">
-        <v>1.845</v>
+        <v>1.45</v>
       </c>
       <c r="G827" t="n">
-        <v>1.415</v>
+        <v>1.1725</v>
       </c>
       <c r="H827" t="inlineStr">
         <is>
@@ -26910,28 +26910,28 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t xml:space="preserve">Minnesota United FC 2 </t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Excelsior Rotterdam</t>
+          <t xml:space="preserve"> Sporting Kansas City II</t>
         </is>
       </c>
       <c r="C828" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D828" t="n">
         <v>2.45</v>
       </c>
-      <c r="D828" t="n">
-        <v>2.65</v>
-      </c>
       <c r="E828" t="n">
-        <v>0.1999999999999997</v>
+        <v>0.04999999999999982</v>
       </c>
       <c r="F828" t="n">
-        <v>2.466666666666666</v>
+        <v>1.496666666666667</v>
       </c>
       <c r="G828" t="n">
-        <v>1.223333333333333</v>
+        <v>1.566666666666666</v>
       </c>
       <c r="H828" t="inlineStr">
         <is>
@@ -26942,28 +26942,28 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>AL Arabi (SA)</t>
+          <t xml:space="preserve">Kings Hammer </t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Al Bukiryah</t>
+          <t xml:space="preserve"> Fort Wayne FC</t>
         </is>
       </c>
       <c r="C829" t="n">
-        <v>1.54</v>
+        <v>4.4</v>
       </c>
       <c r="D829" t="n">
-        <v>5.5</v>
+        <v>1.59</v>
       </c>
       <c r="E829" t="n">
-        <v>3.96</v>
+        <v>2.81</v>
       </c>
       <c r="F829" t="n">
-        <v>2.828333333333334</v>
+        <v>1.33</v>
       </c>
       <c r="G829" t="n">
-        <v>0.9983333333333334</v>
+        <v>1.076666666666667</v>
       </c>
       <c r="H829" t="inlineStr">
         <is>
@@ -26974,60 +26974,60 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>AL Faisaly FC</t>
+          <t xml:space="preserve">Club de Lyon FC </t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Al-Orobah FC</t>
+          <t xml:space="preserve"> Michigan Stars FC</t>
         </is>
       </c>
       <c r="C830" t="n">
-        <v>2.25</v>
+        <v>5.4</v>
       </c>
       <c r="D830" t="n">
-        <v>2.95</v>
+        <v>1.39</v>
       </c>
       <c r="E830" t="n">
-        <v>0.7000000000000002</v>
+        <v>4.010000000000001</v>
       </c>
       <c r="F830" t="n">
-        <v>1.231428571428571</v>
+        <v>1.303333333333333</v>
       </c>
       <c r="G830" t="n">
-        <v>1.447142857142857</v>
+        <v>1.443333333333333</v>
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>AS Far Rabat</t>
+          <t xml:space="preserve">CD Cuenca </t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jeunesse Sportive Soualem</t>
+          <t xml:space="preserve"> LDU Quito</t>
         </is>
       </c>
       <c r="C831" t="n">
-        <v>1.17</v>
+        <v>3.2</v>
       </c>
       <c r="D831" t="n">
-        <v>15.5</v>
+        <v>2.1</v>
       </c>
       <c r="E831" t="n">
-        <v>14.33</v>
+        <v>1.1</v>
       </c>
       <c r="F831" t="n">
-        <v>0.28</v>
+        <v>2.685</v>
       </c>
       <c r="G831" t="n">
-        <v>1.045</v>
+        <v>0.9675</v>
       </c>
       <c r="H831" t="inlineStr">
         <is>
@@ -27038,60 +27038,60 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>CA Youssoufia Berrechid</t>
+          <t xml:space="preserve">CSD Independiente del Valle </t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fus Fath Union Sportive Rabat</t>
+          <t xml:space="preserve"> Orense SC</t>
         </is>
       </c>
       <c r="C832" t="n">
-        <v>2.45</v>
+        <v>1.23</v>
       </c>
       <c r="D832" t="n">
-        <v>2.65</v>
+        <v>11.5</v>
       </c>
       <c r="E832" t="n">
-        <v>0.1999999999999997</v>
+        <v>10.27</v>
       </c>
       <c r="F832" t="n">
-        <v>0.78</v>
+        <v>0.435</v>
       </c>
       <c r="G832" t="n">
-        <v>1.12</v>
+        <v>0.47</v>
       </c>
       <c r="H832" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>Ittihad Tanger</t>
+          <t xml:space="preserve">Mushuc Runa SC </t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Raja Casablanca Athletic</t>
+          <t xml:space="preserve"> Barcelona SC</t>
         </is>
       </c>
       <c r="C833" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="D833" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="E833" t="n">
-        <v>4.07</v>
+        <v>3.04</v>
       </c>
       <c r="F833" t="n">
-        <v>0.7225</v>
+        <v>2.4025</v>
       </c>
       <c r="G833" t="n">
-        <v>1.2425</v>
+        <v>0.0125</v>
       </c>
       <c r="H833" t="inlineStr">
         <is>
@@ -27102,28 +27102,28 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Mouloudia Club of Oujda</t>
+          <t xml:space="preserve">CA River Plate (ARG) </t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Renaissance Zemamra</t>
+          <t xml:space="preserve"> CA Tigre</t>
         </is>
       </c>
       <c r="C834" t="n">
-        <v>1.66</v>
+        <v>1.24</v>
       </c>
       <c r="D834" t="n">
-        <v>5.6</v>
+        <v>12.9</v>
       </c>
       <c r="E834" t="n">
-        <v>3.94</v>
+        <v>11.66</v>
       </c>
       <c r="F834" t="n">
-        <v>1.158</v>
+        <v>0.9933333333333333</v>
       </c>
       <c r="G834" t="n">
-        <v>1.398</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="H834" t="inlineStr">
         <is>
@@ -27134,28 +27134,28 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>Rsb Berkane</t>
+          <t xml:space="preserve">Instituto AC Cordoba </t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chabab Mohammedia</t>
+          <t xml:space="preserve"> Gimnasia Y Esgrima La Plata</t>
         </is>
       </c>
       <c r="C835" t="n">
-        <v>1.36</v>
+        <v>2.34</v>
       </c>
       <c r="D835" t="n">
-        <v>10.5</v>
+        <v>3.34</v>
       </c>
       <c r="E835" t="n">
-        <v>9.140000000000001</v>
+        <v>1</v>
       </c>
       <c r="F835" t="n">
-        <v>1.37</v>
+        <v>1</v>
       </c>
       <c r="G835" t="n">
-        <v>0.15</v>
+        <v>1.5175</v>
       </c>
       <c r="H835" t="inlineStr">
         <is>
@@ -27166,28 +27166,28 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>Wydad AC</t>
+          <t xml:space="preserve">Venezuela </t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Olympique Club de Safi</t>
+          <t xml:space="preserve"> Colombia</t>
         </is>
       </c>
       <c r="C836" t="n">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="D836" t="n">
-        <v>4.7</v>
+        <v>1.63</v>
       </c>
       <c r="E836" t="n">
-        <v>2.95</v>
+        <v>3.37</v>
       </c>
       <c r="F836" t="n">
-        <v>0.7933333333333333</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="G836" t="n">
-        <v>0.6566666666666666</v>
+        <v>0.515</v>
       </c>
       <c r="H836" t="inlineStr">
         <is>
@@ -27198,28 +27198,28 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>Defensa Y Justicia Reserve</t>
+          <t xml:space="preserve">Manhattan SC </t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA Platense</t>
+          <t xml:space="preserve"> Staten Island Asc</t>
         </is>
       </c>
       <c r="C837" t="n">
-        <v>1.84</v>
+        <v>2.3</v>
       </c>
       <c r="D837" t="n">
-        <v>4.1</v>
+        <v>2.65</v>
       </c>
       <c r="E837" t="n">
-        <v>2.26</v>
+        <v>0.3500000000000001</v>
       </c>
       <c r="F837" t="n">
-        <v>0.4975</v>
+        <v>0.64</v>
       </c>
       <c r="G837" t="n">
-        <v>0.505</v>
+        <v>2.19</v>
       </c>
       <c r="H837" t="inlineStr">
         <is>
@@ -27230,60 +27230,60 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>SV Wehen Wiesbaden</t>
+          <t xml:space="preserve">Sud America </t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jahn Regensburg</t>
+          <t xml:space="preserve"> CA Juventud de Las Piedras</t>
         </is>
       </c>
       <c r="C838" t="n">
-        <v>1.89</v>
+        <v>3.33</v>
       </c>
       <c r="D838" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="E838" t="n">
-        <v>2.11</v>
+        <v>1.23</v>
       </c>
       <c r="F838" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="G838" t="n">
-        <v>1.2925</v>
+        <v>1.545</v>
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>AS Roma</t>
+          <t xml:space="preserve">Coquimbo Unido </t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SS Lazio</t>
+          <t xml:space="preserve"> CD Universidad Catolica</t>
         </is>
       </c>
       <c r="C839" t="n">
-        <v>1.35</v>
+        <v>1.9</v>
       </c>
       <c r="D839" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="E839" t="n">
-        <v>4.949999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="F839" t="n">
-        <v>1.425</v>
+        <v>1.015</v>
       </c>
       <c r="G839" t="n">
-        <v>1.705</v>
+        <v>1.92</v>
       </c>
       <c r="H839" t="inlineStr">
         <is>
@@ -27294,28 +27294,28 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>Tolka Rovers AFC</t>
+          <t xml:space="preserve">San Luis de Quillota </t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Liffeys Pearse FC</t>
+          <t xml:space="preserve"> Deportes Magallanes</t>
         </is>
       </c>
       <c r="C840" t="n">
-        <v>1.46</v>
+        <v>2.65</v>
       </c>
       <c r="D840" t="n">
-        <v>5.3</v>
+        <v>2.45</v>
       </c>
       <c r="E840" t="n">
-        <v>3.84</v>
+        <v>0.1999999999999997</v>
       </c>
       <c r="F840" t="n">
-        <v>1.065</v>
+        <v>0.75</v>
       </c>
       <c r="G840" t="n">
-        <v>1.63</v>
+        <v>1.24</v>
       </c>
       <c r="H840" t="inlineStr">
         <is>
@@ -27326,28 +27326,28 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>Carrarese Calcio</t>
+          <t xml:space="preserve">CD Tolima </t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Benevento</t>
+          <t xml:space="preserve"> Independiente Santa Fe</t>
         </is>
       </c>
       <c r="C841" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="D841" t="n">
         <v>3.8</v>
       </c>
       <c r="E841" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="F841" t="n">
-        <v>1.8825</v>
+        <v>1.263333333333333</v>
       </c>
       <c r="G841" t="n">
-        <v>0.7275</v>
+        <v>0.6566666666666666</v>
       </c>
       <c r="H841" t="inlineStr">
         <is>
@@ -27358,60 +27358,60 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>US Avellino</t>
+          <t xml:space="preserve">Arizona Monsoon FC </t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LR Vicenza</t>
+          <t xml:space="preserve"> Irvine Zeta FC</t>
         </is>
       </c>
       <c r="C842" t="n">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="D842" t="n">
-        <v>3.7</v>
+        <v>1.41</v>
       </c>
       <c r="E842" t="n">
-        <v>1.6</v>
+        <v>3.79</v>
       </c>
       <c r="F842" t="n">
-        <v>1.16</v>
+        <v>2.12</v>
       </c>
       <c r="G842" t="n">
-        <v>0.735</v>
+        <v>1.14</v>
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>Orsomarso SC</t>
+          <t xml:space="preserve">Colorado Rapids 2 </t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tigres FC</t>
+          <t xml:space="preserve"> Saint Louis City SC 2</t>
         </is>
       </c>
       <c r="C843" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="D843" t="n">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="E843" t="n">
-        <v>0.6000000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="F843" t="n">
-        <v>1.712</v>
+        <v>1.5125</v>
       </c>
       <c r="G843" t="n">
-        <v>1.664</v>
+        <v>2.125</v>
       </c>
       <c r="H843" t="inlineStr">
         <is>
@@ -27422,28 +27422,28 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Atletico Mineiro MG</t>
+          <t xml:space="preserve">Los Angeles FC 2 </t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Caracas FC</t>
+          <t xml:space="preserve"> North Texas SC</t>
         </is>
       </c>
       <c r="C844" t="n">
-        <v>1.08</v>
+        <v>2.2</v>
       </c>
       <c r="D844" t="n">
-        <v>24</v>
+        <v>2.85</v>
       </c>
       <c r="E844" t="n">
-        <v>22.92</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="F844" t="n">
-        <v>0.77</v>
+        <v>1.55</v>
       </c>
       <c r="G844" t="n">
-        <v>1.435</v>
+        <v>1.25</v>
       </c>
       <c r="H844" t="inlineStr">
         <is>
@@ -27454,28 +27454,28 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>CA Penarol Montevideo</t>
+          <t xml:space="preserve">Australia </t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Club Atletico Rosario Central</t>
+          <t xml:space="preserve"> China</t>
         </is>
       </c>
       <c r="C845" t="n">
-        <v>2.05</v>
+        <v>1.37</v>
       </c>
       <c r="D845" t="n">
-        <v>3.9</v>
+        <v>7.2</v>
       </c>
       <c r="E845" t="n">
-        <v>1.85</v>
+        <v>5.83</v>
       </c>
       <c r="F845" t="n">
-        <v>0.6733333333333333</v>
+        <v>1.12</v>
       </c>
       <c r="G845" t="n">
-        <v>1.016666666666667</v>
+        <v>1.4225</v>
       </c>
       <c r="H845" t="inlineStr">
         <is>
@@ -27486,28 +27486,28 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>CD Junior FC</t>
+          <t xml:space="preserve">Japan </t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Botafogo FR RJ</t>
+          <t xml:space="preserve"> New Zealand</t>
         </is>
       </c>
       <c r="C846" t="n">
-        <v>2.75</v>
+        <v>1.13</v>
       </c>
       <c r="D846" t="n">
-        <v>2.6</v>
+        <v>17</v>
       </c>
       <c r="E846" t="n">
-        <v>0.1499999999999999</v>
+        <v>15.87</v>
       </c>
       <c r="F846" t="n">
-        <v>0.588</v>
+        <v>1.89</v>
       </c>
       <c r="G846" t="n">
-        <v>0.406</v>
+        <v>0.535</v>
       </c>
       <c r="H846" t="inlineStr">
         <is>
@@ -27518,28 +27518,28 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>LDU Quito</t>
+          <t xml:space="preserve">Al-Ain U21 </t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Universitario de Deportes</t>
+          <t xml:space="preserve"> Al-Jazira Club U21</t>
         </is>
       </c>
       <c r="C847" t="n">
-        <v>1.46</v>
+        <v>1.91</v>
       </c>
       <c r="D847" t="n">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="E847" t="n">
-        <v>5.54</v>
+        <v>1.19</v>
       </c>
       <c r="F847" t="n">
-        <v>1.868</v>
+        <v>1.8525</v>
       </c>
       <c r="G847" t="n">
-        <v>0.8019999999999999</v>
+        <v>1.2125</v>
       </c>
       <c r="H847" t="inlineStr">
         <is>
@@ -27550,28 +27550,28 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>Amazonas FC AM</t>
+          <t xml:space="preserve">Akwa United FC </t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mirassol FC SP</t>
+          <t xml:space="preserve"> Heartland FC Owerri</t>
         </is>
       </c>
       <c r="C848" t="n">
-        <v>3.1</v>
+        <v>1.36</v>
       </c>
       <c r="D848" t="n">
-        <v>2.4</v>
+        <v>7.6</v>
       </c>
       <c r="E848" t="n">
-        <v>0.7000000000000002</v>
+        <v>6.239999999999999</v>
       </c>
       <c r="F848" t="n">
-        <v>1.626666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="G848" t="n">
-        <v>1</v>
+        <v>1.313333333333333</v>
       </c>
       <c r="H848" t="inlineStr">
         <is>
@@ -27582,28 +27582,28 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t xml:space="preserve">JK Narva Trans </t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nacional Asuncion</t>
+          <t xml:space="preserve"> Tallinna JK Legion</t>
         </is>
       </c>
       <c r="C849" t="n">
-        <v>1.35</v>
+        <v>1.86</v>
       </c>
       <c r="D849" t="n">
-        <v>8.9</v>
+        <v>3</v>
       </c>
       <c r="E849" t="n">
-        <v>7.550000000000001</v>
+        <v>1.14</v>
       </c>
       <c r="F849" t="n">
-        <v>1.37</v>
+        <v>1.526666666666667</v>
       </c>
       <c r="G849" t="n">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="H849" t="inlineStr">
         <is>
@@ -27614,28 +27614,28 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>SC Corinthians SP</t>
+          <t xml:space="preserve">FA Siauliai B </t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Racing Club Montevideo</t>
+          <t xml:space="preserve"> FK Kauno Zalgiris B</t>
         </is>
       </c>
       <c r="C850" t="n">
-        <v>1.35</v>
+        <v>2.85</v>
       </c>
       <c r="D850" t="n">
-        <v>8.6</v>
+        <v>1.94</v>
       </c>
       <c r="E850" t="n">
-        <v>7.25</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="F850" t="n">
-        <v>1.766</v>
+        <v>1.2575</v>
       </c>
       <c r="G850" t="n">
-        <v>1.4</v>
+        <v>1.3225</v>
       </c>
       <c r="H850" t="inlineStr">
         <is>
@@ -27646,28 +27646,28 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sao Raimundo EC RR </t>
+          <t xml:space="preserve">Liverpool Montevideo </t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nautico RR</t>
+          <t xml:space="preserve"> CA Cerro</t>
         </is>
       </c>
       <c r="C851" t="n">
-        <v>1.27</v>
+        <v>1.8</v>
       </c>
       <c r="D851" t="n">
-        <v>7.7</v>
+        <v>4.25</v>
       </c>
       <c r="E851" t="n">
-        <v>6.43</v>
+        <v>2.45</v>
       </c>
       <c r="F851" t="n">
-        <v>0.715</v>
+        <v>1.7375</v>
       </c>
       <c r="G851" t="n">
-        <v>2.14</v>
+        <v>1.265</v>
       </c>
       <c r="H851" t="inlineStr">
         <is>
@@ -27678,28 +27678,28 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t xml:space="preserve">Club Bolivar </t>
+          <t xml:space="preserve">Croatia </t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CD Palestino</t>
+          <t xml:space="preserve"> North Macedonia</t>
         </is>
       </c>
       <c r="C852" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="D852" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E852" t="n">
-        <v>10.24</v>
+        <v>8.49</v>
       </c>
       <c r="F852" t="n">
-        <v>1.685</v>
+        <v>2.456666666666667</v>
       </c>
       <c r="G852" t="n">
-        <v>1</v>
+        <v>0.8699999999999998</v>
       </c>
       <c r="H852" t="inlineStr">
         <is>
@@ -27710,28 +27710,28 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t xml:space="preserve">CR Flamengo RJ </t>
+          <t xml:space="preserve">Finn Harps FC </t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Millonarios FC</t>
+          <t xml:space="preserve"> Athlone Town AFC</t>
         </is>
       </c>
       <c r="C853" t="n">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="D853" t="n">
-        <v>19.5</v>
+        <v>3.1</v>
       </c>
       <c r="E853" t="n">
-        <v>18.35</v>
+        <v>1</v>
       </c>
       <c r="F853" t="n">
-        <v>1.025</v>
+        <v>1.456666666666667</v>
       </c>
       <c r="G853" t="n">
-        <v>0.755</v>
+        <v>1.576666666666667</v>
       </c>
       <c r="H853" t="inlineStr">
         <is>
@@ -27742,28 +27742,28 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t xml:space="preserve">CD Independiente Juniors </t>
+          <t xml:space="preserve">Derry City FC </t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> San Antonio FC</t>
+          <t xml:space="preserve"> Waterford FC</t>
         </is>
       </c>
       <c r="C854" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="D854" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="E854" t="n">
-        <v>5.71</v>
+        <v>4.83</v>
       </c>
       <c r="F854" t="n">
-        <v>0.9275</v>
+        <v>1.0625</v>
       </c>
       <c r="G854" t="n">
-        <v>0.8875</v>
+        <v>1.2</v>
       </c>
       <c r="H854" t="inlineStr">
         <is>
@@ -27774,28 +27774,28 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t xml:space="preserve">Westchester Flames </t>
+          <t xml:space="preserve">Turkey </t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Paisley Athletic FC</t>
+          <t xml:space="preserve"> Scotland</t>
         </is>
       </c>
       <c r="C855" t="n">
-        <v>9.800000000000001</v>
+        <v>1.84</v>
       </c>
       <c r="D855" t="n">
-        <v>1.16</v>
+        <v>3.75</v>
       </c>
       <c r="E855" t="n">
-        <v>8.640000000000001</v>
+        <v>1.91</v>
       </c>
       <c r="F855" t="n">
-        <v>2.216666666666666</v>
+        <v>1.338</v>
       </c>
       <c r="G855" t="n">
-        <v>0.4433333333333334</v>
+        <v>1.978</v>
       </c>
       <c r="H855" t="inlineStr">
         <is>
@@ -27806,28 +27806,28 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t xml:space="preserve">Coquimbo Unido </t>
+          <t xml:space="preserve">Albania </t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Red Bull Bragantino SP</t>
+          <t xml:space="preserve"> Liechtenstein</t>
         </is>
       </c>
       <c r="C856" t="n">
-        <v>3.2</v>
+        <v>1.07</v>
       </c>
       <c r="D856" t="n">
-        <v>2.2</v>
+        <v>32</v>
       </c>
       <c r="E856" t="n">
-        <v>1</v>
+        <v>30.93</v>
       </c>
       <c r="F856" t="n">
-        <v>1.343333333333333</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="G856" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.0475</v>
       </c>
       <c r="H856" t="inlineStr">
         <is>
@@ -27838,28 +27838,28 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delfin SC </t>
+          <t xml:space="preserve">Danubio FC </t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CD Real Tomayapo</t>
+          <t xml:space="preserve"> Deportivo Maldonado</t>
         </is>
       </c>
       <c r="C857" t="n">
-        <v>1.28</v>
+        <v>2.35</v>
       </c>
       <c r="D857" t="n">
-        <v>10.5</v>
+        <v>2.95</v>
       </c>
       <c r="E857" t="n">
-        <v>9.220000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F857" t="n">
-        <v>1.91</v>
+        <v>0.475</v>
       </c>
       <c r="G857" t="n">
-        <v>0.7050000000000001</v>
+        <v>0.555</v>
       </c>
       <c r="H857" t="inlineStr">
         <is>
@@ -27870,28 +27870,28 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t xml:space="preserve">SC Internacional RS </t>
+          <t xml:space="preserve">CSD Liniers </t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA Belgrano</t>
+          <t xml:space="preserve"> CA Colegiales</t>
         </is>
       </c>
       <c r="C858" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="D858" t="n">
-        <v>6.9</v>
+        <v>2</v>
       </c>
       <c r="E858" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="F858" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.6</v>
       </c>
       <c r="G858" t="n">
-        <v>0.86</v>
+        <v>0.63</v>
       </c>
       <c r="H858" t="inlineStr">
         <is>
@@ -27902,28 +27902,28 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t xml:space="preserve">Real Cartagena FC </t>
+          <t xml:space="preserve">Santos FC SP </t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CD Atletico Huila</t>
+          <t xml:space="preserve"> Botafogo FC SP</t>
         </is>
       </c>
       <c r="C859" t="n">
-        <v>2</v>
+        <v>1.49</v>
       </c>
       <c r="D859" t="n">
-        <v>3.7</v>
+        <v>9</v>
       </c>
       <c r="E859" t="n">
-        <v>1.7</v>
+        <v>7.51</v>
       </c>
       <c r="F859" t="n">
-        <v>1.22</v>
+        <v>1.353333333333333</v>
       </c>
       <c r="G859" t="n">
-        <v>0.3566666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H859" t="inlineStr">
         <is>
@@ -27934,28 +27934,28 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yokohama Marinos </t>
+          <t xml:space="preserve">Botafogo FC PB </t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kashiwa Reysol</t>
+          <t xml:space="preserve"> Athletic Club Sjdr MG</t>
         </is>
       </c>
       <c r="C860" t="n">
-        <v>2.33</v>
+        <v>2.55</v>
       </c>
       <c r="D860" t="n">
-        <v>2.99</v>
+        <v>2.9</v>
       </c>
       <c r="E860" t="n">
-        <v>0.6600000000000001</v>
+        <v>0.3500000000000001</v>
       </c>
       <c r="F860" t="n">
-        <v>1.87</v>
+        <v>0.71</v>
       </c>
       <c r="G860" t="n">
-        <v>1.236666666666667</v>
+        <v>0.705</v>
       </c>
       <c r="H860" t="inlineStr">
         <is>
@@ -27966,28 +27966,28 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tokyo Verdy </t>
+          <t xml:space="preserve">Carlos Renaux SC </t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real Sociedad</t>
+          <t xml:space="preserve"> Camboriu FC SC</t>
         </is>
       </c>
       <c r="C861" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="D861" t="n">
-        <v>1.53</v>
+        <v>2.3</v>
       </c>
       <c r="E861" t="n">
-        <v>3.17</v>
+        <v>0.5</v>
       </c>
       <c r="F861" t="n">
-        <v>1.0625</v>
+        <v>0.8</v>
       </c>
       <c r="G861" t="n">
-        <v>0.275</v>
+        <v>0.95</v>
       </c>
       <c r="H861" t="inlineStr">
         <is>
@@ -27998,28 +27998,28 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t xml:space="preserve">Edgeworth FC </t>
+          <t xml:space="preserve">Argentina </t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adamstown Rosebud FC</t>
+          <t xml:space="preserve"> Costa Rica</t>
         </is>
       </c>
       <c r="C862" t="n">
-        <v>1.07</v>
+        <v>1.61</v>
       </c>
       <c r="D862" t="n">
-        <v>16.5</v>
+        <v>5</v>
       </c>
       <c r="E862" t="n">
-        <v>15.43</v>
+        <v>3.39</v>
       </c>
       <c r="F862" t="n">
-        <v>0.41</v>
+        <v>1.06</v>
       </c>
       <c r="G862" t="n">
-        <v>2.133333333333333</v>
+        <v>1.2125</v>
       </c>
       <c r="H862" t="inlineStr">
         <is>
@@ -28030,28 +28030,28 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maitland FC </t>
+          <t xml:space="preserve">Philadelphia Union Ds </t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Charlestown Azzurri FC</t>
+          <t xml:space="preserve"> Atlantic City FC</t>
         </is>
       </c>
       <c r="C863" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D863" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="E863" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="F863" t="n">
-        <v>1.256666666666667</v>
+        <v>0.8066666666666666</v>
       </c>
       <c r="G863" t="n">
-        <v>0.9933333333333333</v>
+        <v>1.196666666666667</v>
       </c>
       <c r="H863" t="inlineStr">
         <is>
@@ -28062,28 +28062,28 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daejeon Citizen FC </t>
+          <t xml:space="preserve">CSD Rangers </t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jeju United FC</t>
+          <t xml:space="preserve"> Deportes Recoleta</t>
         </is>
       </c>
       <c r="C864" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="D864" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="E864" t="n">
-        <v>0.9500000000000002</v>
+        <v>1.35</v>
       </c>
       <c r="F864" t="n">
-        <v>1.5</v>
+        <v>0.445</v>
       </c>
       <c r="G864" t="n">
-        <v>0.37</v>
+        <v>0.87</v>
       </c>
       <c r="H864" t="inlineStr">
         <is>
@@ -28094,28 +28094,28 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gangwon FC </t>
+          <t xml:space="preserve">Operario Ferroviario EC PR </t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jeonbuk Hyundai Motors</t>
+          <t xml:space="preserve"> Amazonas FC AM</t>
         </is>
       </c>
       <c r="C865" t="n">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="D865" t="n">
-        <v>2.95</v>
+        <v>5.2</v>
       </c>
       <c r="E865" t="n">
-        <v>0.5500000000000003</v>
+        <v>3.47</v>
       </c>
       <c r="F865" t="n">
-        <v>1.8625</v>
+        <v>1.015</v>
       </c>
       <c r="G865" t="n">
-        <v>2.0975</v>
+        <v>0.43</v>
       </c>
       <c r="H865" t="inlineStr">
         <is>
@@ -28126,28 +28126,28 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t xml:space="preserve">Incheon United FC </t>
+          <t xml:space="preserve">Agropecuario Argentino </t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ulsan Hyundai FC</t>
+          <t xml:space="preserve"> CA All Boys</t>
         </is>
       </c>
       <c r="C866" t="n">
-        <v>3.1</v>
+        <v>1.82</v>
       </c>
       <c r="D866" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="E866" t="n">
-        <v>0.7000000000000002</v>
+        <v>2.68</v>
       </c>
       <c r="F866" t="n">
-        <v>1.77</v>
+        <v>0.6866666666666666</v>
       </c>
       <c r="G866" t="n">
-        <v>1.05</v>
+        <v>0.9066666666666666</v>
       </c>
       <c r="H866" t="inlineStr">
         <is>
@@ -28158,28 +28158,28 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suwon FC </t>
+          <t xml:space="preserve">Defensa y Justicia </t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Daegu FC</t>
+          <t xml:space="preserve"> CA Independiente Avellaneda</t>
         </is>
       </c>
       <c r="C867" t="n">
-        <v>2.35</v>
+        <v>2.85</v>
       </c>
       <c r="D867" t="n">
-        <v>3.1</v>
+        <v>2.79</v>
       </c>
       <c r="E867" t="n">
-        <v>0.75</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="F867" t="n">
-        <v>0.8320000000000001</v>
+        <v>0.7699999999999999</v>
       </c>
       <c r="G867" t="n">
-        <v>1.2</v>
+        <v>1.346666666666667</v>
       </c>
       <c r="H867" t="inlineStr">
         <is>
@@ -28190,28 +28190,28 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Epitsentr Dunaivtsi </t>
+          <t xml:space="preserve">Estudiantes de La Plata </t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Veres Rivne</t>
+          <t xml:space="preserve"> CD Godoy Cruz</t>
         </is>
       </c>
       <c r="C868" t="n">
-        <v>5.1</v>
+        <v>1.92</v>
       </c>
       <c r="D868" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="E868" t="n">
-        <v>3.5</v>
+        <v>2.78</v>
       </c>
       <c r="F868" t="n">
-        <v>1.32</v>
+        <v>0.5366666666666666</v>
       </c>
       <c r="G868" t="n">
-        <v>1.25</v>
+        <v>0.3533333333333333</v>
       </c>
       <c r="H868" t="inlineStr">
         <is>
@@ -28222,28 +28222,28 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t xml:space="preserve">Philippine Army </t>
+          <t xml:space="preserve">Union San Felipe </t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Manila Montet FC</t>
+          <t xml:space="preserve"> San Marcos de Arica</t>
         </is>
       </c>
       <c r="C869" t="n">
-        <v>1.02</v>
+        <v>2.45</v>
       </c>
       <c r="D869" t="n">
-        <v>21</v>
+        <v>2.65</v>
       </c>
       <c r="E869" t="n">
-        <v>19.98</v>
+        <v>0.1999999999999997</v>
       </c>
       <c r="F869" t="n">
-        <v>3.8175</v>
+        <v>0.745</v>
       </c>
       <c r="G869" t="n">
-        <v>0.7375</v>
+        <v>1.2475</v>
       </c>
       <c r="H869" t="inlineStr">
         <is>
@@ -28254,28 +28254,28 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tobol Kostanay </t>
+          <t xml:space="preserve">Gold Coast United FC </t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FK Atyrau</t>
+          <t xml:space="preserve"> Souths United</t>
         </is>
       </c>
       <c r="C870" t="n">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="D870" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="E870" t="n">
-        <v>2.33</v>
+        <v>2.09</v>
       </c>
       <c r="F870" t="n">
-        <v>0.8166666666666665</v>
+        <v>1.736666666666667</v>
       </c>
       <c r="G870" t="n">
-        <v>0.8066666666666666</v>
+        <v>2.006666666666666</v>
       </c>
       <c r="H870" t="inlineStr">
         <is>
@@ -28286,28 +28286,28 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Ural Yekaterinburg </t>
+          <t xml:space="preserve">Tensung FC </t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FK Akron Tolyatti</t>
+          <t xml:space="preserve"> Paro FC</t>
         </is>
       </c>
       <c r="C871" t="n">
-        <v>1.7</v>
+        <v>18</v>
       </c>
       <c r="D871" t="n">
-        <v>4.75</v>
+        <v>1.05</v>
       </c>
       <c r="E871" t="n">
-        <v>3.05</v>
+        <v>16.95</v>
       </c>
       <c r="F871" t="n">
-        <v>1.175</v>
+        <v>1.445</v>
       </c>
       <c r="G871" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.23</v>
       </c>
       <c r="H871" t="inlineStr">
         <is>
@@ -28318,28 +28318,28 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t xml:space="preserve">KKS 1925 Kalisz </t>
+          <t xml:space="preserve">Sunshine Coast Wanderers </t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KS Polonia Bytom SA</t>
+          <t xml:space="preserve"> Brisbane City FC</t>
         </is>
       </c>
       <c r="C872" t="n">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="D872" t="n">
-        <v>2.75</v>
+        <v>1.93</v>
       </c>
       <c r="E872" t="n">
-        <v>0.3500000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="F872" t="n">
-        <v>1.465</v>
+        <v>0.64</v>
       </c>
       <c r="G872" t="n">
-        <v>0.955</v>
+        <v>0.6124999999999999</v>
       </c>
       <c r="H872" t="inlineStr">
         <is>
@@ -28350,28 +28350,28 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Follonica Gavorrano </t>
+          <t xml:space="preserve">Bosnia &amp; Herzegovina </t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trapani Calcio</t>
+          <t xml:space="preserve"> Malta</t>
         </is>
       </c>
       <c r="C873" t="n">
-        <v>5.1</v>
+        <v>1.33</v>
       </c>
       <c r="D873" t="n">
-        <v>1.51</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E873" t="n">
-        <v>3.59</v>
+        <v>7.369999999999999</v>
       </c>
       <c r="F873" t="n">
-        <v>0.6525000000000001</v>
+        <v>1.505</v>
       </c>
       <c r="G873" t="n">
-        <v>1.495</v>
+        <v>1.0275</v>
       </c>
       <c r="H873" t="inlineStr">
         <is>
@@ -28382,28 +28382,28 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ajman Club </t>
+          <t xml:space="preserve">Israel </t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FC Baniyas</t>
+          <t xml:space="preserve"> Scotland</t>
         </is>
       </c>
       <c r="C874" t="n">
-        <v>2.1</v>
+        <v>24</v>
       </c>
       <c r="D874" t="n">
-        <v>2.8</v>
+        <v>1.02</v>
       </c>
       <c r="E874" t="n">
-        <v>0.6999999999999997</v>
+        <v>22.98</v>
       </c>
       <c r="F874" t="n">
-        <v>1.875</v>
+        <v>2.04</v>
       </c>
       <c r="G874" t="n">
-        <v>0.7050000000000001</v>
+        <v>1.243333333333333</v>
       </c>
       <c r="H874" t="inlineStr">
         <is>
@@ -28414,28 +28414,28 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Metta / Lu </t>
+          <t xml:space="preserve">Kazakhstan </t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FK Rigas Futbola Skola</t>
+          <t xml:space="preserve"> Armenia</t>
         </is>
       </c>
       <c r="C875" t="n">
-        <v>12</v>
+        <v>1.43</v>
       </c>
       <c r="D875" t="n">
-        <v>1.13</v>
+        <v>7.1</v>
       </c>
       <c r="E875" t="n">
-        <v>10.87</v>
+        <v>5.67</v>
       </c>
       <c r="F875" t="n">
-        <v>1</v>
+        <v>1.595</v>
       </c>
       <c r="G875" t="n">
-        <v>1.33</v>
+        <v>0.5475000000000001</v>
       </c>
       <c r="H875" t="inlineStr">
         <is>
@@ -28446,28 +28446,28 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Aktobe </t>
+          <t xml:space="preserve">Azerbaijan </t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Elimai FC</t>
+          <t xml:space="preserve"> Turkey</t>
         </is>
       </c>
       <c r="C876" t="n">
-        <v>1.71</v>
+        <v>6.3</v>
       </c>
       <c r="D876" t="n">
-        <v>4.7</v>
+        <v>1.38</v>
       </c>
       <c r="E876" t="n">
-        <v>2.99</v>
+        <v>4.92</v>
       </c>
       <c r="F876" t="n">
-        <v>0.9166666666666666</v>
+        <v>1.53</v>
       </c>
       <c r="G876" t="n">
-        <v>0.3966666666666667</v>
+        <v>0.485</v>
       </c>
       <c r="H876" t="inlineStr">
         <is>
@@ -28478,28 +28478,28 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Inter 2 </t>
+          <t xml:space="preserve">Latvia </t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tampereen-Viipurin Ilves-Kissat</t>
+          <t xml:space="preserve"> Slovenia</t>
         </is>
       </c>
       <c r="C877" t="n">
-        <v>1.04</v>
+        <v>41</v>
       </c>
       <c r="D877" t="n">
-        <v>24</v>
+        <v>1.01</v>
       </c>
       <c r="E877" t="n">
-        <v>22.96</v>
+        <v>39.99</v>
       </c>
       <c r="F877" t="n">
-        <v>1.22</v>
+        <v>1.485</v>
       </c>
       <c r="G877" t="n">
-        <v>2.335</v>
+        <v>1.14</v>
       </c>
       <c r="H877" t="inlineStr">
         <is>
@@ -28510,28 +28510,28 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Kirkkonummi </t>
+          <t xml:space="preserve">KuPS U20 </t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VJS II</t>
+          <t xml:space="preserve"> Atlantis FC U20</t>
         </is>
       </c>
       <c r="C878" t="n">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="D878" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="E878" t="n">
-        <v>1.62</v>
+        <v>1.07</v>
       </c>
       <c r="F878" t="n">
-        <v>0.9933333333333333</v>
+        <v>2.465</v>
       </c>
       <c r="G878" t="n">
-        <v>2.446666666666667</v>
+        <v>1.4825</v>
       </c>
       <c r="H878" t="inlineStr">
         <is>
@@ -28542,28 +28542,28 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t xml:space="preserve">HaPK </t>
+          <t xml:space="preserve">Tallinna FC Flora </t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kultsu FC</t>
+          <t xml:space="preserve"> Saku Sporting</t>
         </is>
       </c>
       <c r="C879" t="n">
-        <v>1.63</v>
+        <v>1.24</v>
       </c>
       <c r="D879" t="n">
-        <v>4</v>
+        <v>7.3</v>
       </c>
       <c r="E879" t="n">
-        <v>2.37</v>
+        <v>6.06</v>
       </c>
       <c r="F879" t="n">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="G879" t="n">
-        <v>2.26</v>
+        <v>1.496666666666667</v>
       </c>
       <c r="H879" t="inlineStr">
         <is>
@@ -28574,28 +28574,28 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t xml:space="preserve">PIF </t>
+          <t xml:space="preserve">Hungary </t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MaPS</t>
+          <t xml:space="preserve"> Switzerland</t>
         </is>
       </c>
       <c r="C880" t="n">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="D880" t="n">
-        <v>5.8</v>
+        <v>1.35</v>
       </c>
       <c r="E880" t="n">
-        <v>4.4</v>
+        <v>5.15</v>
       </c>
       <c r="F880" t="n">
-        <v>2.535</v>
+        <v>1.065</v>
       </c>
       <c r="G880" t="n">
-        <v>1.9675</v>
+        <v>0.7325</v>
       </c>
       <c r="H880" t="inlineStr">
         <is>
@@ -28606,28 +28606,28 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t xml:space="preserve">JK Tallinna Kalev </t>
+          <t xml:space="preserve">Faroe Islands </t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Flora Tallinn</t>
+          <t xml:space="preserve"> Greece</t>
         </is>
       </c>
       <c r="C881" t="n">
-        <v>5.4</v>
+        <v>35</v>
       </c>
       <c r="D881" t="n">
-        <v>1.51</v>
+        <v>1.04</v>
       </c>
       <c r="E881" t="n">
-        <v>3.890000000000001</v>
+        <v>33.96</v>
       </c>
       <c r="F881" t="n">
-        <v>0.9633333333333334</v>
+        <v>2.61</v>
       </c>
       <c r="G881" t="n">
-        <v>2.32</v>
+        <v>0.45</v>
       </c>
       <c r="H881" t="inlineStr">
         <is>
@@ -28638,28 +28638,28 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paide Linnameeskond </t>
+          <t xml:space="preserve">Slovenia </t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FCI Levadia Tallinn</t>
+          <t xml:space="preserve"> Armenia</t>
         </is>
       </c>
       <c r="C882" t="n">
-        <v>4.6</v>
+        <v>1.38</v>
       </c>
       <c r="D882" t="n">
-        <v>1.63</v>
+        <v>8</v>
       </c>
       <c r="E882" t="n">
-        <v>2.97</v>
+        <v>6.62</v>
       </c>
       <c r="F882" t="n">
-        <v>1.476</v>
+        <v>1.156666666666667</v>
       </c>
       <c r="G882" t="n">
-        <v>1.392</v>
+        <v>1.343333333333333</v>
       </c>
       <c r="H882" t="inlineStr">
         <is>
@@ -28670,28 +28670,28 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Honka </t>
+          <t xml:space="preserve">Albania </t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HJS</t>
+          <t xml:space="preserve"> Luxembourg</t>
         </is>
       </c>
       <c r="C883" t="n">
-        <v>3.25</v>
+        <v>1.74</v>
       </c>
       <c r="D883" t="n">
-        <v>1.86</v>
+        <v>4.1</v>
       </c>
       <c r="E883" t="n">
-        <v>1.39</v>
+        <v>2.359999999999999</v>
       </c>
       <c r="F883" t="n">
-        <v>2.765</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="G883" t="n">
-        <v>1.83</v>
+        <v>1.315</v>
       </c>
       <c r="H883" t="inlineStr">
         <is>
@@ -28702,30 +28702,862 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tampereen Ilves 2 </t>
+          <t xml:space="preserve">Bulgaria </t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> P-Iirot</t>
+          <t xml:space="preserve"> Romania</t>
         </is>
       </c>
       <c r="C884" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="D884" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E884" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F884" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="G884" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Finland </t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Netherlands</t>
+        </is>
+      </c>
+      <c r="C885" t="n">
+        <v>6</v>
+      </c>
+      <c r="D885" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E885" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F885" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="G885" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PeKa </t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Union Plaani</t>
+        </is>
+      </c>
+      <c r="C886" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D886" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E886" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="F886" t="n">
+        <v>3.2475</v>
+      </c>
+      <c r="G886" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Senegal </t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> South Africa</t>
+        </is>
+      </c>
+      <c r="C887" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D887" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E887" t="n">
+        <v>0</v>
+      </c>
+      <c r="F887" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G887" t="n">
+        <v>1.345</v>
+      </c>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hammarby Talang FF </t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sollentuna FK</t>
+        </is>
+      </c>
+      <c r="C888" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D888" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E888" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F888" t="n">
+        <v>1.406666666666667</v>
+      </c>
+      <c r="G888" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NoPS </t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TP 49</t>
+        </is>
+      </c>
+      <c r="C889" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D889" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="E889" t="n">
+        <v>7.899999999999999</v>
+      </c>
+      <c r="F889" t="n">
+        <v>2.105</v>
+      </c>
+      <c r="G889" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LPS </t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIFK</t>
+        </is>
+      </c>
+      <c r="C890" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D890" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E890" t="n">
+        <v>4</v>
+      </c>
+      <c r="F890" t="n">
+        <v>1.275</v>
+      </c>
+      <c r="G890" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barracas Central </t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Huracan</t>
+        </is>
+      </c>
+      <c r="C891" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="D891" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E891" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F891" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="G891" t="n">
+        <v>0.8049999999999999</v>
+      </c>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Progreso </t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cerro Largo FC</t>
+        </is>
+      </c>
+      <c r="C892" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D892" t="n">
         <v>3.1</v>
       </c>
-      <c r="D884" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E884" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F884" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="G884" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="H884" t="inlineStr">
+      <c r="E892" t="n">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="F892" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G892" t="n">
+        <v>0.6633333333333333</v>
+      </c>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selfoss/Arborg U19 </t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fylkir/Ellidi U19</t>
+        </is>
+      </c>
+      <c r="C893" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D893" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E893" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="F893" t="n">
+        <v>3.3975</v>
+      </c>
+      <c r="G893" t="n">
+        <v>1</v>
+      </c>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switzerland </t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Estonia</t>
+        </is>
+      </c>
+      <c r="C894" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D894" t="n">
+        <v>15</v>
+      </c>
+      <c r="E894" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="F894" t="n">
+        <v>1.533333333333333</v>
+      </c>
+      <c r="G894" t="n">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Romania </t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bulgaria</t>
+        </is>
+      </c>
+      <c r="C895" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D895" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E895" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F895" t="n">
+        <v>1.2625</v>
+      </c>
+      <c r="G895" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H895" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austria </t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Serbia</t>
+        </is>
+      </c>
+      <c r="C896" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D896" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E896" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F896" t="n">
+        <v>1.204</v>
+      </c>
+      <c r="G896" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="H896" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ireland </t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hungary</t>
+        </is>
+      </c>
+      <c r="C897" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D897" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E897" t="n">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="F897" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="G897" t="n">
+        <v>0.8177777777777777</v>
+      </c>
+      <c r="H897" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tolka Rovers </t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lucan United FC</t>
+        </is>
+      </c>
+      <c r="C898" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D898" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E898" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F898" t="n">
+        <v>0.8880000000000001</v>
+      </c>
+      <c r="G898" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iceland </t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Austria</t>
+        </is>
+      </c>
+      <c r="C899" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D899" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E899" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F899" t="n">
+        <v>1.284285714285714</v>
+      </c>
+      <c r="G899" t="n">
+        <v>2.027142857142857</v>
+      </c>
+      <c r="H899" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spain </t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Denmark</t>
+        </is>
+      </c>
+      <c r="C900" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D900" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E900" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F900" t="n">
+        <v>1.756</v>
+      </c>
+      <c r="G900" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valur/KH U19 </t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Leiknir/KB U19</t>
+        </is>
+      </c>
+      <c r="C901" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D901" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E901" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F901" t="n">
+        <v>1.6925</v>
+      </c>
+      <c r="G901" t="n">
+        <v>2.705</v>
+      </c>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mirassol FC SP </t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Guarani FC SP</t>
+        </is>
+      </c>
+      <c r="C902" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D902" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E902" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="F902" t="n">
+        <v>2.3775</v>
+      </c>
+      <c r="G902" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Boston River </t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Nacional de Football</t>
+        </is>
+      </c>
+      <c r="C903" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D903" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E903" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F903" t="n">
+        <v>1.384</v>
+      </c>
+      <c r="G903" t="n">
+        <v>1.382</v>
+      </c>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Guarani Asuncion </t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CS 2 de Mayo</t>
+        </is>
+      </c>
+      <c r="C904" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D904" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E904" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F904" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="G904" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H904" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Banfield </t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Newell's Old Boys</t>
+        </is>
+      </c>
+      <c r="C905" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="D905" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E905" t="n">
+        <v>0.1600000000000001</v>
+      </c>
+      <c r="F905" t="n">
+        <v>0.7949999999999999</v>
+      </c>
+      <c r="G905" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brazil </t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jamaica</t>
+        </is>
+      </c>
+      <c r="C906" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D906" t="n">
+        <v>35</v>
+      </c>
+      <c r="E906" t="n">
+        <v>33.97</v>
+      </c>
+      <c r="F906" t="n">
+        <v>1.305</v>
+      </c>
+      <c r="G906" t="n">
+        <v>0.9649999999999999</v>
+      </c>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Frederick </t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grove Soccer United</t>
+        </is>
+      </c>
+      <c r="C907" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D907" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E907" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F907" t="n">
+        <v>1.526666666666667</v>
+      </c>
+      <c r="G907" t="n">
+        <v>2.263333333333333</v>
+      </c>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Carolina United FC </t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> North Carolina Fusion U23</t>
+        </is>
+      </c>
+      <c r="C908" t="n">
+        <v>2</v>
+      </c>
+      <c r="D908" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E908" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F908" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G908" t="n">
+        <v>0.9933333333333333</v>
+      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Greenville Liberty </t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Southern Soccer Academy</t>
+        </is>
+      </c>
+      <c r="C909" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D909" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E909" t="n">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="F909" t="n">
+        <v>1.3275</v>
+      </c>
+      <c r="G909" t="n">
+        <v>1.6825</v>
+      </c>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canada </t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mexico</t>
+        </is>
+      </c>
+      <c r="C910" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D910" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E910" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="F910" t="n">
+        <v>2.085</v>
+      </c>
+      <c r="G910" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H910" t="inlineStr">
         <is>
           <t>pending</t>
         </is>

--- a/bak/ml_fb.xlsx
+++ b/bak/ml_fb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2111"/>
+  <dimension ref="A1:H2335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49815,7 +49815,7 @@
       </c>
       <c r="H1543" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -67063,7 +67063,7 @@
       </c>
       <c r="H2082" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -67990,6 +67990,7174 @@
         <v>0.92</v>
       </c>
       <c r="H2111" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="inlineStr">
+        <is>
+          <t>AA Aparecidense GO</t>
+        </is>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>Nautico PE</t>
+        </is>
+      </c>
+      <c r="C2112" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D2112" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E2112" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F2112" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="G2112" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H2112" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="inlineStr">
+        <is>
+          <t>ABC FC RN</t>
+        </is>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>Clube do Remo PA</t>
+        </is>
+      </c>
+      <c r="C2113" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D2113" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E2113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F2113" t="n">
+        <v>1.1175</v>
+      </c>
+      <c r="G2113" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="H2113" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="inlineStr">
+        <is>
+          <t>Universidad de Chile</t>
+        </is>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>Audax Italiano</t>
+        </is>
+      </c>
+      <c r="C2114" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D2114" t="n">
+        <v>29</v>
+      </c>
+      <c r="E2114" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="F2114" t="n">
+        <v>0.4966666666666666</v>
+      </c>
+      <c r="G2114" t="n">
+        <v>2.146666666666667</v>
+      </c>
+      <c r="H2114" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C2115" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D2115" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="E2115" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="F2115" t="n">
+        <v>2.1275</v>
+      </c>
+      <c r="G2115" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="H2115" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="inlineStr">
+        <is>
+          <t>Utah United</t>
+        </is>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>Albion SC Colorado</t>
+        </is>
+      </c>
+      <c r="C2116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D2116" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E2116" t="n">
+        <v>0.5499999999999998</v>
+      </c>
+      <c r="F2116" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2116" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H2116" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="inlineStr">
+        <is>
+          <t>Mas Taborsko</t>
+        </is>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>MFK Chrudim</t>
+        </is>
+      </c>
+      <c r="C2117" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D2117" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2117" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F2117" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G2117" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="H2117" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="inlineStr">
+        <is>
+          <t>Selangor II</t>
+        </is>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>Penang U23</t>
+        </is>
+      </c>
+      <c r="C2118" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D2118" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E2118" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="F2118" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G2118" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H2118" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur FA U23</t>
+        </is>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>Kuching City U23</t>
+        </is>
+      </c>
+      <c r="C2119" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D2119" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E2119" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="F2119" t="n">
+        <v>2.5625</v>
+      </c>
+      <c r="G2119" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H2119" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="inlineStr">
+        <is>
+          <t>NWS Spirit</t>
+        </is>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>Sutherland Sharks</t>
+        </is>
+      </c>
+      <c r="C2120" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="D2120" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E2120" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F2120" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G2120" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2120" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="inlineStr">
+        <is>
+          <t>Cong An Nhan Dan</t>
+        </is>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>Hoang Anh Gia Lai</t>
+        </is>
+      </c>
+      <c r="C2121" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D2121" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E2121" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F2121" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2121" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="inlineStr">
+        <is>
+          <t>Dong A Thanh Hoa</t>
+        </is>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>Viettel FC</t>
+        </is>
+      </c>
+      <c r="C2122" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D2122" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E2122" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F2122" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G2122" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H2122" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="inlineStr">
+        <is>
+          <t>Tsirang FC</t>
+        </is>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>Tensung FC</t>
+        </is>
+      </c>
+      <c r="C2123" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D2123" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E2123" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F2123" t="n">
+        <v>1.0975</v>
+      </c>
+      <c r="G2123" t="n">
+        <v>1.5575</v>
+      </c>
+      <c r="H2123" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="inlineStr">
+        <is>
+          <t>Gimcheon Sangmu FC</t>
+        </is>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>Daejeon Citizen FC</t>
+        </is>
+      </c>
+      <c r="C2124" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="D2124" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E2124" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F2124" t="n">
+        <v>1.195</v>
+      </c>
+      <c r="G2124" t="n">
+        <v>0.5650000000000001</v>
+      </c>
+      <c r="H2124" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="inlineStr">
+        <is>
+          <t>Suwon FC</t>
+        </is>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>Gwangju FC</t>
+        </is>
+      </c>
+      <c r="C2125" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D2125" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E2125" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F2125" t="n">
+        <v>1.9575</v>
+      </c>
+      <c r="G2125" t="n">
+        <v>0.4975</v>
+      </c>
+      <c r="H2125" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="inlineStr">
+        <is>
+          <t>Gyeongnam FC</t>
+        </is>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>FC Anyang</t>
+        </is>
+      </c>
+      <c r="C2126" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D2126" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E2126" t="n">
+        <v>0.4500000000000002</v>
+      </c>
+      <c r="F2126" t="n">
+        <v>1.263333333333333</v>
+      </c>
+      <c r="G2126" t="n">
+        <v>0.7533333333333333</v>
+      </c>
+      <c r="H2126" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="inlineStr">
+        <is>
+          <t>Henan Songshan Longmen</t>
+        </is>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>Qingdao Zhongchuang Hengtai</t>
+        </is>
+      </c>
+      <c r="C2127" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="D2127" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="E2127" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="F2127" t="n">
+        <v>2.213333333333333</v>
+      </c>
+      <c r="G2127" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2127" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="inlineStr">
+        <is>
+          <t>Nantong Haimen Codion</t>
+        </is>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>Shaanxi Union FC</t>
+        </is>
+      </c>
+      <c r="C2128" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D2128" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E2128" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F2128" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G2128" t="n">
+        <v>0.6733333333333333</v>
+      </c>
+      <c r="H2128" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="inlineStr">
+        <is>
+          <t>Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>Tianjin Jinmen Tiger</t>
+        </is>
+      </c>
+      <c r="C2129" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D2129" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E2129" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F2129" t="n">
+        <v>1.4025</v>
+      </c>
+      <c r="G2129" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H2129" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="inlineStr">
+        <is>
+          <t>Sichuan Jiuniu</t>
+        </is>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>Zhejiang Professional</t>
+        </is>
+      </c>
+      <c r="C2130" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="D2130" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="E2130" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F2130" t="n">
+        <v>3.905</v>
+      </c>
+      <c r="G2130" t="n">
+        <v>1.335</v>
+      </c>
+      <c r="H2130" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>Shanghai Port FC</t>
+        </is>
+      </c>
+      <c r="C2131" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="D2131" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E2131" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="F2131" t="n">
+        <v>2.602</v>
+      </c>
+      <c r="G2131" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="H2131" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="inlineStr">
+        <is>
+          <t>FC Gute</t>
+        </is>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>Vasalunds IF</t>
+        </is>
+      </c>
+      <c r="C2132" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D2132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E2132" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2132" t="n">
+        <v>1.2225</v>
+      </c>
+      <c r="G2132" t="n">
+        <v>1.6975</v>
+      </c>
+      <c r="H2132" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="inlineStr">
+        <is>
+          <t>FK Jablonec</t>
+        </is>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>FK Viktoria Zizkov</t>
+        </is>
+      </c>
+      <c r="C2133" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D2133" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E2133" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="F2133" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="G2133" t="n">
+        <v>1.215</v>
+      </c>
+      <c r="H2133" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="inlineStr">
+        <is>
+          <t>FC Haka Valkeakoski</t>
+        </is>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>PK-35 Helsinki</t>
+        </is>
+      </c>
+      <c r="C2134" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="D2134" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E2134" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F2134" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="G2134" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2134" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="inlineStr">
+        <is>
+          <t>FC Olimpik</t>
+        </is>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>Surkhon-2011</t>
+        </is>
+      </c>
+      <c r="C2135" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2135" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F2135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2135" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H2135" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="inlineStr">
+        <is>
+          <t>FC Thun</t>
+        </is>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>FC Stade Nyonnais</t>
+        </is>
+      </c>
+      <c r="C2136" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D2136" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E2136" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="F2136" t="n">
+        <v>1.1975</v>
+      </c>
+      <c r="G2136" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H2136" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="inlineStr">
+        <is>
+          <t>FC Inter Turku</t>
+        </is>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>Grankulla IFK</t>
+        </is>
+      </c>
+      <c r="C2137" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D2137" t="n">
+        <v>54</v>
+      </c>
+      <c r="E2137" t="n">
+        <v>52.97</v>
+      </c>
+      <c r="F2137" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2137" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H2137" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="inlineStr">
+        <is>
+          <t>KPV Kokkola</t>
+        </is>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>FC Lahti</t>
+        </is>
+      </c>
+      <c r="C2138" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D2138" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E2138" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="F2138" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="G2138" t="n">
+        <v>1.056666666666667</v>
+      </c>
+      <c r="H2138" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="inlineStr">
+        <is>
+          <t>PEPO Lappeenranta</t>
+        </is>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>Kuopion Palloseura</t>
+        </is>
+      </c>
+      <c r="C2139" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2139" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E2139" t="n">
+        <v>33.97</v>
+      </c>
+      <c r="F2139" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G2139" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="H2139" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="C2140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D2140" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="E2140" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="F2140" t="n">
+        <v>3.083333333333333</v>
+      </c>
+      <c r="G2140" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2140" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="C2141" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="D2141" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E2141" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2141" t="n">
+        <v>1.2775</v>
+      </c>
+      <c r="G2141" t="n">
+        <v>0.7825</v>
+      </c>
+      <c r="H2141" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="inlineStr">
+        <is>
+          <t>FV Illertissen</t>
+        </is>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>SGV Freiberg</t>
+        </is>
+      </c>
+      <c r="C2142" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D2142" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E2142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2142" t="n">
+        <v>0.8174999999999999</v>
+      </c>
+      <c r="G2142" t="n">
+        <v>1.2625</v>
+      </c>
+      <c r="H2142" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="inlineStr">
+        <is>
+          <t>AL Ahly SC (Egy)</t>
+        </is>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>Zamalek SC</t>
+        </is>
+      </c>
+      <c r="C2143" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D2143" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E2143" t="n">
+        <v>2.899999999999999</v>
+      </c>
+      <c r="F2143" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G2143" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2143" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="inlineStr">
+        <is>
+          <t>VJS</t>
+        </is>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>AC Oulu</t>
+        </is>
+      </c>
+      <c r="C2144" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>1.9525</v>
+      </c>
+      <c r="G2144" t="n">
+        <v>1.6025</v>
+      </c>
+      <c r="H2144" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="inlineStr">
+        <is>
+          <t>Myllykosken Pallo -47</t>
+        </is>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>PPJ</t>
+        </is>
+      </c>
+      <c r="C2145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="G2145" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H2145" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="inlineStr">
+        <is>
+          <t>Herrestads AIF</t>
+        </is>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>Vanersborgs IF</t>
+        </is>
+      </c>
+      <c r="C2146" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G2146" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H2146" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="inlineStr">
+        <is>
+          <t>Lunds BK</t>
+        </is>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>Torns IF</t>
+        </is>
+      </c>
+      <c r="C2147" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>0.9650000000000001</v>
+      </c>
+      <c r="G2147" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="H2147" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="inlineStr">
+        <is>
+          <t>CA Paranaense PR</t>
+        </is>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>Botafogo FR RJ</t>
+        </is>
+      </c>
+      <c r="C2148" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G2148" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H2148" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="inlineStr">
+        <is>
+          <t>Santos FC SP</t>
+        </is>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>EC Bahia BA</t>
+        </is>
+      </c>
+      <c r="C2149" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>1.323333333333333</v>
+      </c>
+      <c r="G2149" t="n">
+        <v>1.013333333333333</v>
+      </c>
+      <c r="H2149" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="inlineStr">
+        <is>
+          <t>Leiknir/KB U19</t>
+        </is>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>Fjölnir/ Vængir U19</t>
+        </is>
+      </c>
+      <c r="C2150" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>3.565</v>
+      </c>
+      <c r="G2150" t="n">
+        <v>3.405</v>
+      </c>
+      <c r="H2150" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="inlineStr">
+        <is>
+          <t>Vikingur Reykjavik U19</t>
+        </is>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>Afturelding/Hviti/Alaf U19</t>
+        </is>
+      </c>
+      <c r="C2151" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>2.096666666666667</v>
+      </c>
+      <c r="G2151" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H2151" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="inlineStr">
+        <is>
+          <t>Throttur Reykjavik</t>
+        </is>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>Fylkir Reykjavik</t>
+        </is>
+      </c>
+      <c r="C2152" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>2.355</v>
+      </c>
+      <c r="G2152" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="H2152" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="inlineStr">
+        <is>
+          <t>Enkopings SK</t>
+        </is>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>FOC Farsta</t>
+        </is>
+      </c>
+      <c r="C2153" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="G2153" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H2153" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="inlineStr">
+        <is>
+          <t>Thor/KA</t>
+        </is>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>Valur Reykjavik</t>
+        </is>
+      </c>
+      <c r="C2154" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G2154" t="n">
+        <v>3.485</v>
+      </c>
+      <c r="H2154" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="inlineStr">
+        <is>
+          <t>Club Fernando de La Mora</t>
+        </is>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>CA Tembetary</t>
+        </is>
+      </c>
+      <c r="C2155" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>1.0025</v>
+      </c>
+      <c r="G2155" t="n">
+        <v>0.8074999999999999</v>
+      </c>
+      <c r="H2155" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="inlineStr">
+        <is>
+          <t>Elgin City FC</t>
+        </is>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>Keith FC</t>
+        </is>
+      </c>
+      <c r="C2156" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>33.97</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G2156" t="n">
+        <v>1.505</v>
+      </c>
+      <c r="H2156" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="C2157" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>0.8900000000000001</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>1.5125</v>
+      </c>
+      <c r="G2157" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H2157" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="C2158" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>8.739999999999998</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="G2158" t="n">
+        <v>1.004</v>
+      </c>
+      <c r="H2158" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="inlineStr">
+        <is>
+          <t>Raja Casablanca Athletic</t>
+        </is>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>Mouloudia Club of Oujda</t>
+        </is>
+      </c>
+      <c r="C2159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2159" t="n">
+        <v>0.8320000000000001</v>
+      </c>
+      <c r="H2159" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="inlineStr">
+        <is>
+          <t>Atletico Mineiro MG</t>
+        </is>
+      </c>
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>Cruzeiro EC MG</t>
+        </is>
+      </c>
+      <c r="C2160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G2160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2160" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="inlineStr">
+        <is>
+          <t>San Antonio FC</t>
+        </is>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t>Manta FC</t>
+        </is>
+      </c>
+      <c r="C2161" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G2161" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2161" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="inlineStr">
+        <is>
+          <t>Fylkir/Ellidi U19</t>
+        </is>
+      </c>
+      <c r="B2162" t="inlineStr">
+        <is>
+          <t>Fram Ulfarnir U19</t>
+        </is>
+      </c>
+      <c r="C2162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>3.2225</v>
+      </c>
+      <c r="G2162" t="n">
+        <v>1.7575</v>
+      </c>
+      <c r="H2162" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="inlineStr">
+        <is>
+          <t>Selfoss/Arborg U19</t>
+        </is>
+      </c>
+      <c r="B2163" t="inlineStr">
+        <is>
+          <t>Haukar/KA U19</t>
+        </is>
+      </c>
+      <c r="C2163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>6.999999999999999</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>2.198</v>
+      </c>
+      <c r="G2163" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H2163" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="B2164" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C2164" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>0.8199999999999998</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G2164" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="H2164" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="inlineStr">
+        <is>
+          <t>Mirassol FC SP</t>
+        </is>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>Santos FC SP</t>
+        </is>
+      </c>
+      <c r="C2165" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G2165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2165" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="inlineStr">
+        <is>
+          <t>Nona FC</t>
+        </is>
+      </c>
+      <c r="B2166" t="inlineStr">
+        <is>
+          <t>Inter Gainesville KF</t>
+        </is>
+      </c>
+      <c r="C2166" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>17.42</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>1.303333333333333</v>
+      </c>
+      <c r="G2166" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H2166" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="inlineStr">
+        <is>
+          <t>South Carolina United FC</t>
+        </is>
+      </c>
+      <c r="B2167" t="inlineStr">
+        <is>
+          <t>Tobacco Road FC</t>
+        </is>
+      </c>
+      <c r="C2167" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>1.056666666666667</v>
+      </c>
+      <c r="G2167" t="n">
+        <v>1.393333333333333</v>
+      </c>
+      <c r="H2167" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="inlineStr">
+        <is>
+          <t>Chicago City</t>
+        </is>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>River Light FC</t>
+        </is>
+      </c>
+      <c r="C2168" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G2168" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="H2168" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="inlineStr">
+        <is>
+          <t>Nona FC</t>
+        </is>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>Inter Gainesville KF</t>
+        </is>
+      </c>
+      <c r="C2169" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>17.42</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>1.303333333333333</v>
+      </c>
+      <c r="G2169" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H2169" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="inlineStr">
+        <is>
+          <t>South Carolina United FC</t>
+        </is>
+      </c>
+      <c r="B2170" t="inlineStr">
+        <is>
+          <t>Tobacco Road FC</t>
+        </is>
+      </c>
+      <c r="C2170" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>1.056666666666667</v>
+      </c>
+      <c r="G2170" t="n">
+        <v>1.393333333333333</v>
+      </c>
+      <c r="H2170" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="inlineStr">
+        <is>
+          <t>Chicago City</t>
+        </is>
+      </c>
+      <c r="B2171" t="inlineStr">
+        <is>
+          <t>River Light FC</t>
+        </is>
+      </c>
+      <c r="C2171" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G2171" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="H2171" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="inlineStr">
+        <is>
+          <t>AA Ponte Preta SP</t>
+        </is>
+      </c>
+      <c r="B2172" t="inlineStr">
+        <is>
+          <t>Ceara SC CE</t>
+        </is>
+      </c>
+      <c r="C2172" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="G2172" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H2172" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="inlineStr">
+        <is>
+          <t>Amazonas FC AM</t>
+        </is>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>Coritiba FC PR</t>
+        </is>
+      </c>
+      <c r="C2173" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>0.05000000000000027</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="G2173" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2173" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C2174" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G2174" t="n">
+        <v>1.1275</v>
+      </c>
+      <c r="H2174" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>Yokohama Marinos</t>
+        </is>
+      </c>
+      <c r="C2175" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>0.2600000000000002</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>1.696666666666667</v>
+      </c>
+      <c r="G2175" t="n">
+        <v>1.316666666666667</v>
+      </c>
+      <c r="H2175" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="C2176" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>1.2475</v>
+      </c>
+      <c r="G2176" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="H2176" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="inlineStr">
+        <is>
+          <t>FC Tokyo</t>
+        </is>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>Hokkaido Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="C2177" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="G2177" t="n">
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="H2177" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="inlineStr">
+        <is>
+          <t>Jubilo Iwata</t>
+        </is>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t>Tokyo Verdy</t>
+        </is>
+      </c>
+      <c r="C2178" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="D2178" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>1.811666666666667</v>
+      </c>
+      <c r="G2178" t="n">
+        <v>1.306666666666667</v>
+      </c>
+      <c r="H2178" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="C2179" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G2179" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="H2179" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="C2180" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>2.149999999999999</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>1.638</v>
+      </c>
+      <c r="G2180" t="n">
+        <v>1.392</v>
+      </c>
+      <c r="H2180" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="inlineStr">
+        <is>
+          <t>Kyoto Sanga FC</t>
+        </is>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="C2181" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G2181" t="n">
+        <v>1.044</v>
+      </c>
+      <c r="H2181" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>Urawa Red Diamonds</t>
+        </is>
+      </c>
+      <c r="C2182" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>0.3600000000000003</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>1.498333333333333</v>
+      </c>
+      <c r="G2182" t="n">
+        <v>0.8366666666666666</v>
+      </c>
+      <c r="H2182" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>Niigata Albirex</t>
+        </is>
+      </c>
+      <c r="C2183" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>4.609999999999999</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>1.937142857142857</v>
+      </c>
+      <c r="G2183" t="n">
+        <v>1.404285714285714</v>
+      </c>
+      <c r="H2183" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>Machida Zelvia</t>
+        </is>
+      </c>
+      <c r="C2184" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>1.606666666666667</v>
+      </c>
+      <c r="G2184" t="n">
+        <v>0.8033333333333333</v>
+      </c>
+      <c r="H2184" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="inlineStr">
+        <is>
+          <t>V-Varen Nagasaki</t>
+        </is>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>Iwaki FC</t>
+        </is>
+      </c>
+      <c r="C2185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D2185" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G2185" t="n">
+        <v>1.046666666666667</v>
+      </c>
+      <c r="H2185" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>Gangwon FC</t>
+        </is>
+      </c>
+      <c r="C2186" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G2186" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2186" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="inlineStr">
+        <is>
+          <t>Jeju United FC</t>
+        </is>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>Incheon United FC</t>
+        </is>
+      </c>
+      <c r="C2187" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G2187" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H2187" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="inlineStr">
+        <is>
+          <t>Cheonan City FC</t>
+        </is>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>Bucheon FC</t>
+        </is>
+      </c>
+      <c r="C2188" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D2188" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>1.0175</v>
+      </c>
+      <c r="G2188" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H2188" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="inlineStr">
+        <is>
+          <t>Gimpo FC</t>
+        </is>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>Cheongju FC</t>
+        </is>
+      </c>
+      <c r="C2189" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D2189" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E2189" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2189" t="n">
+        <v>0.8074999999999999</v>
+      </c>
+      <c r="H2189" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="inlineStr">
+        <is>
+          <t>Seoul E-Land FC</t>
+        </is>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>Ansan Greeners</t>
+        </is>
+      </c>
+      <c r="C2190" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D2190" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E2190" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G2190" t="n">
+        <v>1.948333333333333</v>
+      </c>
+      <c r="H2190" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>Shandong Taishan</t>
+        </is>
+      </c>
+      <c r="C2191" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="D2191" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E2191" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>0.3533333333333333</v>
+      </c>
+      <c r="G2191" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H2191" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="inlineStr">
+        <is>
+          <t>Qingdao Hainiu FC</t>
+        </is>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>Chengdu Rongcheng</t>
+        </is>
+      </c>
+      <c r="C2192" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="D2192" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E2192" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G2192" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H2192" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>Cangzhou Mighty Lions</t>
+        </is>
+      </c>
+      <c r="C2193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D2193" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="E2193" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="G2193" t="n">
+        <v>1.238</v>
+      </c>
+      <c r="H2193" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="inlineStr">
+        <is>
+          <t>Eswatini</t>
+        </is>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="C2194" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D2194" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2194" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>1.2225</v>
+      </c>
+      <c r="G2194" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="H2194" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="inlineStr">
+        <is>
+          <t>VPV</t>
+        </is>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>SIF</t>
+        </is>
+      </c>
+      <c r="C2195" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D2195" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E2195" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G2195" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H2195" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="inlineStr">
+        <is>
+          <t>Sporting Alexandria</t>
+        </is>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="C2196" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D2196" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E2196" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2196" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H2196" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="inlineStr">
+        <is>
+          <t>Kyparamaki Rangers</t>
+        </is>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>HoDy</t>
+        </is>
+      </c>
+      <c r="C2197" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D2197" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2197" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2197" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="inlineStr">
+        <is>
+          <t>FS Jelgava</t>
+        </is>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>FK Tukums 2000/TSS</t>
+        </is>
+      </c>
+      <c r="C2198" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D2198" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E2198" t="n">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G2198" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="H2198" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="inlineStr">
+        <is>
+          <t>Riga FC</t>
+        </is>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>FK Auda</t>
+        </is>
+      </c>
+      <c r="C2199" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D2199" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E2199" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G2199" t="n">
+        <v>2.7775</v>
+      </c>
+      <c r="H2199" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="inlineStr">
+        <is>
+          <t>FC Hegelmann Kaunas</t>
+        </is>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>FA Siauliai</t>
+        </is>
+      </c>
+      <c r="C2200" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D2200" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E2200" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>0.7949999999999999</v>
+      </c>
+      <c r="G2200" t="n">
+        <v>1.645</v>
+      </c>
+      <c r="H2200" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="inlineStr">
+        <is>
+          <t>PKKU/2</t>
+        </is>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>TiPS</t>
+        </is>
+      </c>
+      <c r="C2201" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D2201" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E2201" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>1.385</v>
+      </c>
+      <c r="G2201" t="n">
+        <v>1.5575</v>
+      </c>
+      <c r="H2201" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="inlineStr">
+        <is>
+          <t>PFK Metallurg Bekabad</t>
+        </is>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>FC Nasaf</t>
+        </is>
+      </c>
+      <c r="C2202" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D2202" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E2202" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>1.435</v>
+      </c>
+      <c r="G2202" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H2202" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="inlineStr">
+        <is>
+          <t>Ekenas Idrottsforening</t>
+        </is>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>HJK Helsinki</t>
+        </is>
+      </c>
+      <c r="C2203" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D2203" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E2203" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G2203" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H2203" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="inlineStr">
+        <is>
+          <t>FC Kirkkonummi</t>
+        </is>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>HooGee</t>
+        </is>
+      </c>
+      <c r="C2204" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D2204" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E2204" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>0.7549999999999999</v>
+      </c>
+      <c r="G2204" t="n">
+        <v>2.1475</v>
+      </c>
+      <c r="H2204" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C2205" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D2205" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E2205" t="n">
+        <v>0.5500000000000003</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>2.5075</v>
+      </c>
+      <c r="G2205" t="n">
+        <v>1.0675</v>
+      </c>
+      <c r="H2205" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="C2206" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="D2206" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E2206" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="G2206" t="n">
+        <v>1.195</v>
+      </c>
+      <c r="H2206" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>Mozambique</t>
+        </is>
+      </c>
+      <c r="C2207" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D2207" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E2207" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>1.7325</v>
+      </c>
+      <c r="G2207" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="H2207" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="inlineStr">
+        <is>
+          <t>Dfk Dainava Alytus</t>
+        </is>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>Dziugas</t>
+        </is>
+      </c>
+      <c r="C2208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D2208" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2208" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>0.6333333333333334</v>
+      </c>
+      <c r="G2208" t="n">
+        <v>1.393333333333333</v>
+      </c>
+      <c r="H2208" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="inlineStr">
+        <is>
+          <t>FK Banga Gargzdai</t>
+        </is>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>Vilnius FK Zalgiris</t>
+        </is>
+      </c>
+      <c r="C2209" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2209" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E2209" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="F2209" t="n">
+        <v>1.106666666666667</v>
+      </c>
+      <c r="G2209" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="H2209" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="inlineStr">
+        <is>
+          <t>FA Tartu Kalev</t>
+        </is>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>Viljandi JK Tulevik</t>
+        </is>
+      </c>
+      <c r="C2210" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D2210" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E2210" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>2.276666666666667</v>
+      </c>
+      <c r="G2210" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H2210" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="inlineStr">
+        <is>
+          <t>Aasane</t>
+        </is>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>SK Brann</t>
+        </is>
+      </c>
+      <c r="C2211" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D2211" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E2211" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G2211" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H2211" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" t="inlineStr">
+        <is>
+          <t>Arna-Bjornar</t>
+        </is>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>Viking FK</t>
+        </is>
+      </c>
+      <c r="C2212" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D2212" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E2212" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F2212" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="G2212" t="n">
+        <v>1.555</v>
+      </c>
+      <c r="H2212" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="inlineStr">
+        <is>
+          <t>FK Kauno Zalgiris</t>
+        </is>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>FK Transinvest</t>
+        </is>
+      </c>
+      <c r="C2213" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="D2213" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2213" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G2213" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H2213" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="inlineStr">
+        <is>
+          <t>FK Rigas Futbola Skola</t>
+        </is>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>Valmiera FC</t>
+        </is>
+      </c>
+      <c r="C2214" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D2214" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E2214" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="F2214" t="n">
+        <v>2.278</v>
+      </c>
+      <c r="G2214" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H2214" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="inlineStr">
+        <is>
+          <t>IFK Luleaa</t>
+        </is>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>Bodens BK</t>
+        </is>
+      </c>
+      <c r="C2215" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="D2215" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E2215" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="F2215" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="G2215" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="H2215" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="inlineStr">
+        <is>
+          <t>IFK Karlshamn</t>
+        </is>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>IFK Trelleborg</t>
+        </is>
+      </c>
+      <c r="C2216" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D2216" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E2216" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>1.7675</v>
+      </c>
+      <c r="G2216" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H2216" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="inlineStr">
+        <is>
+          <t>IFK Ostersund</t>
+        </is>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>Hudiksvalls FF</t>
+        </is>
+      </c>
+      <c r="C2217" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D2217" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E2217" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F2217" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G2217" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H2217" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="inlineStr">
+        <is>
+          <t>BK Forward</t>
+        </is>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>IFK Skovde FK</t>
+        </is>
+      </c>
+      <c r="C2218" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D2218" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E2218" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="F2218" t="n">
+        <v>2.3275</v>
+      </c>
+      <c r="G2218" t="n">
+        <v>2.0025</v>
+      </c>
+      <c r="H2218" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="inlineStr">
+        <is>
+          <t>Lyn</t>
+        </is>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>Bodoe/Glimt</t>
+        </is>
+      </c>
+      <c r="C2219" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D2219" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2219" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="F2219" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G2219" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2219" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="inlineStr">
+        <is>
+          <t>Minnesota United FC 2</t>
+        </is>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>Portland Timbers II</t>
+        </is>
+      </c>
+      <c r="C2220" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D2220" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E2220" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="G2220" t="n">
+        <v>0.7533333333333333</v>
+      </c>
+      <c r="H2220" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="inlineStr">
+        <is>
+          <t>UMF Grindavik</t>
+        </is>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>IBV Vestmannaeyjar</t>
+        </is>
+      </c>
+      <c r="C2221" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D2221" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E2221" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F2221" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G2221" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2221" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="inlineStr">
+        <is>
+          <t>America FC MG</t>
+        </is>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>Fluminense FC RJ</t>
+        </is>
+      </c>
+      <c r="C2222" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D2222" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E2222" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G2222" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="H2222" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="inlineStr">
+        <is>
+          <t>CR Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>Fortaleza EC CE</t>
+        </is>
+      </c>
+      <c r="C2223" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D2223" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E2223" t="n">
+        <v>3.390000000000001</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G2223" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H2223" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="inlineStr">
+        <is>
+          <t>Leiknir Reykjavik</t>
+        </is>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>Throttur Reykjavik</t>
+        </is>
+      </c>
+      <c r="C2224" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D2224" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E2224" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G2224" t="n">
+        <v>0.9633333333333334</v>
+      </c>
+      <c r="H2224" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="inlineStr">
+        <is>
+          <t>SC Internacional RS</t>
+        </is>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>SE Palmeiras SP</t>
+        </is>
+      </c>
+      <c r="C2225" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D2225" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E2225" t="n">
+        <v>3.649999999999999</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>0.9899999999999999</v>
+      </c>
+      <c r="G2225" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="H2225" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" t="inlineStr">
+        <is>
+          <t>9 de Octubre FC</t>
+        </is>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>Vargas Torres</t>
+        </is>
+      </c>
+      <c r="C2226" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2226" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2226" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>1.303333333333333</v>
+      </c>
+      <c r="G2226" t="n">
+        <v>0.8966666666666668</v>
+      </c>
+      <c r="H2226" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="inlineStr">
+        <is>
+          <t>CD Independiente Juniors</t>
+        </is>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>Club Leones Del Norte</t>
+        </is>
+      </c>
+      <c r="C2227" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D2227" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E2227" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="G2227" t="n">
+        <v>0.4975</v>
+      </c>
+      <c r="H2227" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="inlineStr">
+        <is>
+          <t>Chacaritas FC</t>
+        </is>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>Gualaceo SC</t>
+        </is>
+      </c>
+      <c r="C2228" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D2228" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E2228" t="n">
+        <v>0.5500000000000003</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>1.272</v>
+      </c>
+      <c r="G2228" t="n">
+        <v>1.418</v>
+      </c>
+      <c r="H2228" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="inlineStr">
+        <is>
+          <t>Tombense FC MG</t>
+        </is>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>SER Caxias do Sul</t>
+        </is>
+      </c>
+      <c r="C2229" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D2229" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E2229" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>0.8366666666666668</v>
+      </c>
+      <c r="G2229" t="n">
+        <v>0.7733333333333333</v>
+      </c>
+      <c r="H2229" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="C2230" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D2230" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="E2230" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>1.255</v>
+      </c>
+      <c r="G2230" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H2230" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="inlineStr">
+        <is>
+          <t>Botafogo FR RJ</t>
+        </is>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>Red Bull Bragantino SP</t>
+        </is>
+      </c>
+      <c r="C2231" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="D2231" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E2231" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>1.202</v>
+      </c>
+      <c r="G2231" t="n">
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="H2231" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="inlineStr">
+        <is>
+          <t>Cruzeiro EC MG</t>
+        </is>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>CA Paranaense PR</t>
+        </is>
+      </c>
+      <c r="C2232" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="D2232" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="E2232" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G2232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2232" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="inlineStr">
+        <is>
+          <t>Philadelphia Union II</t>
+        </is>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>New York Red Bulls II</t>
+        </is>
+      </c>
+      <c r="C2233" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D2233" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E2233" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>2.1375</v>
+      </c>
+      <c r="G2233" t="n">
+        <v>0.6925</v>
+      </c>
+      <c r="H2233" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="inlineStr">
+        <is>
+          <t>Sampaio Correa FC MA</t>
+        </is>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>Athletic Club Sjdr MG</t>
+        </is>
+      </c>
+      <c r="C2234" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D2234" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E2234" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>1.9375</v>
+      </c>
+      <c r="G2234" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H2234" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" t="inlineStr">
+        <is>
+          <t>Fluminense EC PI</t>
+        </is>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>AA Altos PI</t>
+        </is>
+      </c>
+      <c r="C2235" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D2235" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E2235" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G2235" t="n">
+        <v>0.6633333333333332</v>
+      </c>
+      <c r="H2235" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" t="inlineStr">
+        <is>
+          <t>Swan City SC</t>
+        </is>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>Tampa Bay United</t>
+        </is>
+      </c>
+      <c r="C2236" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D2236" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E2236" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>2.118</v>
+      </c>
+      <c r="G2236" t="n">
+        <v>0.5439999999999998</v>
+      </c>
+      <c r="H2236" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="inlineStr">
+        <is>
+          <t>EC Juventude RS</t>
+        </is>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>CR Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="C2237" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D2237" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E2237" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>1.876666666666667</v>
+      </c>
+      <c r="G2237" t="n">
+        <v>0.3866666666666667</v>
+      </c>
+      <c r="H2237" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="inlineStr">
+        <is>
+          <t>SC Corinthians SP</t>
+        </is>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>Cuiaba Esporte Clube MT</t>
+        </is>
+      </c>
+      <c r="C2238" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D2238" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E2238" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="G2238" t="n">
+        <v>1.545</v>
+      </c>
+      <c r="H2238" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="inlineStr">
+        <is>
+          <t>Club Celaya FC</t>
+        </is>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>Catedraticos Elite FC</t>
+        </is>
+      </c>
+      <c r="C2239" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D2239" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E2239" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>1.006666666666667</v>
+      </c>
+      <c r="G2239" t="n">
+        <v>0.6766666666666666</v>
+      </c>
+      <c r="H2239" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" t="inlineStr">
+        <is>
+          <t>Dmv Elite FC</t>
+        </is>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>Virginia Dream FC</t>
+        </is>
+      </c>
+      <c r="C2240" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D2240" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E2240" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>2.056666666666667</v>
+      </c>
+      <c r="G2240" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="H2240" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" t="inlineStr">
+        <is>
+          <t>Detroit City FC</t>
+        </is>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>Birmingham Legion FC</t>
+        </is>
+      </c>
+      <c r="C2241" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D2241" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E2241" t="n">
+        <v>0.6500000000000004</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>0.05333333333333334</v>
+      </c>
+      <c r="G2241" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H2241" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" t="inlineStr">
+        <is>
+          <t>Orlando City B</t>
+        </is>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>Atlanta United 2</t>
+        </is>
+      </c>
+      <c r="C2242" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="D2242" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E2242" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="F2242" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="G2242" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H2242" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="inlineStr">
+        <is>
+          <t>Toronto FC II</t>
+        </is>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>Inter Miami CF II</t>
+        </is>
+      </c>
+      <c r="C2243" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D2243" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E2243" t="n">
+        <v>2.399999999999999</v>
+      </c>
+      <c r="F2243" t="n">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="G2243" t="n">
+        <v>1.183333333333333</v>
+      </c>
+      <c r="H2243" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="inlineStr">
+        <is>
+          <t>Brooke House FC</t>
+        </is>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>Brave SC</t>
+        </is>
+      </c>
+      <c r="C2244" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D2244" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E2244" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="F2244" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G2244" t="n">
+        <v>1.0225</v>
+      </c>
+      <c r="H2244" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="inlineStr">
+        <is>
+          <t>Chicago City SC</t>
+        </is>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>Peoria City</t>
+        </is>
+      </c>
+      <c r="C2245" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D2245" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E2245" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="F2245" t="n">
+        <v>2.4575</v>
+      </c>
+      <c r="G2245" t="n">
+        <v>1.2825</v>
+      </c>
+      <c r="H2245" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="inlineStr">
+        <is>
+          <t>FC Lehigh Valley United</t>
+        </is>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>Reading United AC</t>
+        </is>
+      </c>
+      <c r="C2246" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2246" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E2246" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="F2246" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G2246" t="n">
+        <v>1.883333333333334</v>
+      </c>
+      <c r="H2246" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="inlineStr">
+        <is>
+          <t>Cianorte FC PR</t>
+        </is>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>Gremio Esportivo Brasil</t>
+        </is>
+      </c>
+      <c r="C2247" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D2247" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E2247" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="F2247" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G2247" t="n">
+        <v>0.3533333333333333</v>
+      </c>
+      <c r="H2247" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" t="inlineStr">
+        <is>
+          <t>CS Sergipe SE</t>
+        </is>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>AO Itabaiana SE</t>
+        </is>
+      </c>
+      <c r="C2248" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D2248" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E2248" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F2248" t="n">
+        <v>0.6375</v>
+      </c>
+      <c r="G2248" t="n">
+        <v>1.205</v>
+      </c>
+      <c r="H2248" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" t="inlineStr">
+        <is>
+          <t>Retro FC PE</t>
+        </is>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>Petrolina PE</t>
+        </is>
+      </c>
+      <c r="C2249" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D2249" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E2249" t="n">
+        <v>6.920000000000001</v>
+      </c>
+      <c r="F2249" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2249" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H2249" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" t="inlineStr">
+        <is>
+          <t>Sao Raimundo EC RR</t>
+        </is>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>Porto Velho Ec/Ro</t>
+        </is>
+      </c>
+      <c r="C2250" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D2250" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E2250" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F2250" t="n">
+        <v>2.2025</v>
+      </c>
+      <c r="G2250" t="n">
+        <v>0.9200000000000002</v>
+      </c>
+      <c r="H2250" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" t="inlineStr">
+        <is>
+          <t>NSI Runavik II</t>
+        </is>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>HB Torshavn II</t>
+        </is>
+      </c>
+      <c r="C2251" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="D2251" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E2251" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="F2251" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2251" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="H2251" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" t="inlineStr">
+        <is>
+          <t>Rhode Island FC</t>
+        </is>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>El Paso Locomotive FC</t>
+        </is>
+      </c>
+      <c r="C2252" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D2252" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2252" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F2252" t="n">
+        <v>0.7625</v>
+      </c>
+      <c r="G2252" t="n">
+        <v>1.7025</v>
+      </c>
+      <c r="H2252" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" t="inlineStr">
+        <is>
+          <t>Colo-Colo</t>
+        </is>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>Universitario de Deportes</t>
+        </is>
+      </c>
+      <c r="C2253" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D2253" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E2253" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="F2253" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G2253" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2253" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" t="inlineStr">
+        <is>
+          <t>Kansas City Sol</t>
+        </is>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>Des Moines United FC</t>
+        </is>
+      </c>
+      <c r="C2254" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D2254" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E2254" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F2254" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G2254" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="H2254" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" t="inlineStr">
+        <is>
+          <t>Long Island Rough Riders</t>
+        </is>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>Staten Island Asc</t>
+        </is>
+      </c>
+      <c r="C2255" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D2255" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E2255" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F2255" t="n">
+        <v>0.8525</v>
+      </c>
+      <c r="G2255" t="n">
+        <v>1.6575</v>
+      </c>
+      <c r="H2255" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" t="inlineStr">
+        <is>
+          <t>Miami AC</t>
+        </is>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>Weston FC</t>
+        </is>
+      </c>
+      <c r="C2256" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D2256" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E2256" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="F2256" t="n">
+        <v>1.8625</v>
+      </c>
+      <c r="G2256" t="n">
+        <v>1.4475</v>
+      </c>
+      <c r="H2256" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" t="inlineStr">
+        <is>
+          <t>St. Croix SC</t>
+        </is>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>Rochester FC</t>
+        </is>
+      </c>
+      <c r="C2257" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="D2257" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E2257" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="F2257" t="n">
+        <v>1.655</v>
+      </c>
+      <c r="G2257" t="n">
+        <v>0.5449999999999999</v>
+      </c>
+      <c r="H2257" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" t="inlineStr">
+        <is>
+          <t>CDSC Iberia</t>
+        </is>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>Colchagua</t>
+        </is>
+      </c>
+      <c r="C2258" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D2258" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E2258" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F2258" t="n">
+        <v>1.546666666666667</v>
+      </c>
+      <c r="G2258" t="n">
+        <v>1.346666666666667</v>
+      </c>
+      <c r="H2258" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" t="inlineStr">
+        <is>
+          <t>RKC Soccer Club</t>
+        </is>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>Rochester FC</t>
+        </is>
+      </c>
+      <c r="C2259" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D2259" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E2259" t="n">
+        <v>0.1500000000000004</v>
+      </c>
+      <c r="F2259" t="n">
+        <v>2.373333333333334</v>
+      </c>
+      <c r="G2259" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H2259" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" t="inlineStr">
+        <is>
+          <t>EC Bahia BA</t>
+        </is>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>CR Vasco da Gama RJ</t>
+        </is>
+      </c>
+      <c r="C2260" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D2260" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E2260" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F2260" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G2260" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2260" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="inlineStr">
+        <is>
+          <t>Fortaleza EC CE</t>
+        </is>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>SE Palmeiras SP</t>
+        </is>
+      </c>
+      <c r="C2261" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D2261" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="E2261" t="n">
+        <v>0.8700000000000001</v>
+      </c>
+      <c r="F2261" t="n">
+        <v>1.9325</v>
+      </c>
+      <c r="G2261" t="n">
+        <v>0.2725</v>
+      </c>
+      <c r="H2261" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="inlineStr">
+        <is>
+          <t>SC Internacional RS</t>
+        </is>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>Atletico Mineiro MG</t>
+        </is>
+      </c>
+      <c r="C2262" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="D2262" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="E2262" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F2262" t="n">
+        <v>0.3366666666666667</v>
+      </c>
+      <c r="G2262" t="n">
+        <v>0.8366666666666666</v>
+      </c>
+      <c r="H2262" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="inlineStr">
+        <is>
+          <t>CF10 Houston FC</t>
+        </is>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>FC Brownsville</t>
+        </is>
+      </c>
+      <c r="C2263" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D2263" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E2263" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F2263" t="n">
+        <v>2.793333333333333</v>
+      </c>
+      <c r="G2263" t="n">
+        <v>0.7933333333333333</v>
+      </c>
+      <c r="H2263" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" t="inlineStr">
+        <is>
+          <t>Tennessee SC</t>
+        </is>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>Athens United</t>
+        </is>
+      </c>
+      <c r="C2264" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D2264" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E2264" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F2264" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2264" t="n">
+        <v>1.263333333333333</v>
+      </c>
+      <c r="H2264" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" t="inlineStr">
+        <is>
+          <t>Christchurch United FC</t>
+        </is>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>Ferrymead Bays</t>
+        </is>
+      </c>
+      <c r="C2265" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="D2265" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2265" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="F2265" t="n">
+        <v>2.288</v>
+      </c>
+      <c r="G2265" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="H2265" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" t="inlineStr">
+        <is>
+          <t>Army Red</t>
+        </is>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>Aryan FC</t>
+        </is>
+      </c>
+      <c r="C2266" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D2266" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E2266" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F2266" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2266" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H2266" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" t="inlineStr">
+        <is>
+          <t>Southern Samity</t>
+        </is>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>BSS Sporting Club</t>
+        </is>
+      </c>
+      <c r="C2267" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D2267" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E2267" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F2267" t="n">
+        <v>1.0325</v>
+      </c>
+      <c r="G2267" t="n">
+        <v>1.305</v>
+      </c>
+      <c r="H2267" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" t="inlineStr">
+        <is>
+          <t>United Sports Club</t>
+        </is>
+      </c>
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t>Diamond Harbour</t>
+        </is>
+      </c>
+      <c r="C2268" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D2268" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E2268" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F2268" t="n">
+        <v>1.5025</v>
+      </c>
+      <c r="G2268" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2268" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" t="inlineStr">
+        <is>
+          <t>Changnyeong WFC</t>
+        </is>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>Boeun Sangmu Wfc</t>
+        </is>
+      </c>
+      <c r="C2269" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D2269" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E2269" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F2269" t="n">
+        <v>1.465</v>
+      </c>
+      <c r="G2269" t="n">
+        <v>0.7275</v>
+      </c>
+      <c r="H2269" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="inlineStr">
+        <is>
+          <t>Copenhagen</t>
+        </is>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>Silkeborg IF</t>
+        </is>
+      </c>
+      <c r="C2270" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D2270" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E2270" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F2270" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2270" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H2270" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="inlineStr">
+        <is>
+          <t>RTC FC</t>
+        </is>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>Paro FC</t>
+        </is>
+      </c>
+      <c r="C2271" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D2271" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E2271" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="F2271" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G2271" t="n">
+        <v>1.0325</v>
+      </c>
+      <c r="H2271" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="inlineStr">
+        <is>
+          <t>Comoros</t>
+        </is>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>Zimbabwe</t>
+        </is>
+      </c>
+      <c r="C2272" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D2272" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E2272" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2272" t="n">
+        <v>1.306666666666667</v>
+      </c>
+      <c r="G2272" t="n">
+        <v>0.9533333333333335</v>
+      </c>
+      <c r="H2272" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="inlineStr">
+        <is>
+          <t>El Gouna FC</t>
+        </is>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>Future FC</t>
+        </is>
+      </c>
+      <c r="C2273" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D2273" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E2273" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F2273" t="n">
+        <v>0.7325</v>
+      </c>
+      <c r="G2273" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="H2273" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" t="inlineStr">
+        <is>
+          <t>Grobinas SC</t>
+        </is>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>BFC Daugavpils</t>
+        </is>
+      </c>
+      <c r="C2274" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D2274" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E2274" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2274" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G2274" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2274" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" t="inlineStr">
+        <is>
+          <t>FC Pakhtakor Tashkent</t>
+        </is>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>FC Bunyodkor</t>
+        </is>
+      </c>
+      <c r="C2275" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D2275" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E2275" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F2275" t="n">
+        <v>0.7325</v>
+      </c>
+      <c r="G2275" t="n">
+        <v>0.9249999999999999</v>
+      </c>
+      <c r="H2275" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" t="inlineStr">
+        <is>
+          <t>FK Neftchi Fargona</t>
+        </is>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>Lokomotiv Tashkent</t>
+        </is>
+      </c>
+      <c r="C2276" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D2276" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E2276" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F2276" t="n">
+        <v>1.2075</v>
+      </c>
+      <c r="G2276" t="n">
+        <v>1.6925</v>
+      </c>
+      <c r="H2276" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="inlineStr">
+        <is>
+          <t>Lahden Reipas</t>
+        </is>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>Nurmijarven Jalkapalloseura</t>
+        </is>
+      </c>
+      <c r="C2277" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D2277" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E2277" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="F2277" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G2277" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H2277" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="inlineStr">
+        <is>
+          <t>Kultsu FC</t>
+        </is>
+      </c>
+      <c r="B2278" t="inlineStr">
+        <is>
+          <t>PeKa</t>
+        </is>
+      </c>
+      <c r="C2278" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D2278" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E2278" t="n">
+        <v>0.1500000000000004</v>
+      </c>
+      <c r="F2278" t="n">
+        <v>2.1725</v>
+      </c>
+      <c r="G2278" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H2278" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="C2279" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D2279" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E2279" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F2279" t="n">
+        <v>0.7524999999999999</v>
+      </c>
+      <c r="G2279" t="n">
+        <v>1.3925</v>
+      </c>
+      <c r="H2279" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="B2280" t="inlineStr">
+        <is>
+          <t>Al Masry Club</t>
+        </is>
+      </c>
+      <c r="C2280" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D2280" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E2280" t="n">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="F2280" t="n">
+        <v>0.4625</v>
+      </c>
+      <c r="G2280" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H2280" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="inlineStr">
+        <is>
+          <t>Zed FC</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>Talaea El Gaish</t>
+        </is>
+      </c>
+      <c r="C2281" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D2281" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2281" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F2281" t="n">
+        <v>1.233333333333333</v>
+      </c>
+      <c r="G2281" t="n">
+        <v>0.3633333333333333</v>
+      </c>
+      <c r="H2281" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" t="inlineStr">
+        <is>
+          <t>FK Riteriai</t>
+        </is>
+      </c>
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>FC Neptunas Klaipeda</t>
+        </is>
+      </c>
+      <c r="C2282" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D2282" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E2282" t="n">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="F2282" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G2282" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H2282" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" t="inlineStr">
+        <is>
+          <t>FC Kiisto</t>
+        </is>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>Korsnäs FF</t>
+        </is>
+      </c>
+      <c r="C2283" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D2283" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E2283" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F2283" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G2283" t="n">
+        <v>0.7700000000000001</v>
+      </c>
+      <c r="H2283" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" t="inlineStr">
+        <is>
+          <t>Ullensaker/Kisa U19</t>
+        </is>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>Lørenskog U19</t>
+        </is>
+      </c>
+      <c r="C2284" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D2284" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E2284" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F2284" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G2284" t="n">
+        <v>1.555</v>
+      </c>
+      <c r="H2284" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" t="inlineStr">
+        <is>
+          <t>Atlantis FC/PM</t>
+        </is>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>Ponnistajat</t>
+        </is>
+      </c>
+      <c r="C2285" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D2285" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E2285" t="n">
+        <v>7.040000000000001</v>
+      </c>
+      <c r="F2285" t="n">
+        <v>1.693333333333333</v>
+      </c>
+      <c r="G2285" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H2285" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" t="inlineStr">
+        <is>
+          <t>ASC 09 Dortmund</t>
+        </is>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>SC Wiedenbruck</t>
+        </is>
+      </c>
+      <c r="C2286" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D2286" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E2286" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F2286" t="n">
+        <v>1.425</v>
+      </c>
+      <c r="G2286" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H2286" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" t="inlineStr">
+        <is>
+          <t>Sandefjord Fotball</t>
+        </is>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>Hamarkameratene</t>
+        </is>
+      </c>
+      <c r="C2287" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="D2287" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="E2287" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F2287" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="G2287" t="n">
+        <v>1.145</v>
+      </c>
+      <c r="H2287" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" t="inlineStr">
+        <is>
+          <t>Taby FK</t>
+        </is>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>Karlbergs BK</t>
+        </is>
+      </c>
+      <c r="C2288" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D2288" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E2288" t="n">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="F2288" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="G2288" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H2288" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="inlineStr">
+        <is>
+          <t>Norrby IF</t>
+        </is>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>Ljungskile SK</t>
+        </is>
+      </c>
+      <c r="C2289" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D2289" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E2289" t="n">
+        <v>4.220000000000001</v>
+      </c>
+      <c r="F2289" t="n">
+        <v>2.535</v>
+      </c>
+      <c r="G2289" t="n">
+        <v>1.0775</v>
+      </c>
+      <c r="H2289" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" t="inlineStr">
+        <is>
+          <t>EIF Akademi</t>
+        </is>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>FC Espoo</t>
+        </is>
+      </c>
+      <c r="C2290" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D2290" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E2290" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="F2290" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2290" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2290" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" t="inlineStr">
+        <is>
+          <t>PPJ/Lauttasaari</t>
+        </is>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>Loviisa</t>
+        </is>
+      </c>
+      <c r="C2291" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D2291" t="n">
+        <v>14</v>
+      </c>
+      <c r="E2291" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="F2291" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G2291" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H2291" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="inlineStr">
+        <is>
+          <t>Piteaa IF DFF</t>
+        </is>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>AIK DFF</t>
+        </is>
+      </c>
+      <c r="C2292" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D2292" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E2292" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F2292" t="n">
+        <v>1.415</v>
+      </c>
+      <c r="G2292" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H2292" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="inlineStr">
+        <is>
+          <t>Töölön Taisto</t>
+        </is>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>HerTo</t>
+        </is>
+      </c>
+      <c r="C2293" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="D2293" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2293" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="F2293" t="n">
+        <v>1.2025</v>
+      </c>
+      <c r="G2293" t="n">
+        <v>3.4925</v>
+      </c>
+      <c r="H2293" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="inlineStr">
+        <is>
+          <t>FK Karlskrona</t>
+        </is>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>IF Lodde</t>
+        </is>
+      </c>
+      <c r="C2294" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="D2294" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E2294" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F2294" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="G2294" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H2294" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="inlineStr">
+        <is>
+          <t>Qviding FIF</t>
+        </is>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>Lindome GIF</t>
+        </is>
+      </c>
+      <c r="C2295" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2295" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E2295" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F2295" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="G2295" t="n">
+        <v>2.115</v>
+      </c>
+      <c r="H2295" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="inlineStr">
+        <is>
+          <t>VJS II</t>
+        </is>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>EPS/Reservi</t>
+        </is>
+      </c>
+      <c r="C2296" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D2296" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E2296" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2296" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2296" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="H2296" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="inlineStr">
+        <is>
+          <t>Cliftonville FC</t>
+        </is>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>The New Saints FC</t>
+        </is>
+      </c>
+      <c r="C2297" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2297" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E2297" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="F2297" t="n">
+        <v>1.663333333333333</v>
+      </c>
+      <c r="G2297" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H2297" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="inlineStr">
+        <is>
+          <t>CA Juventud de Las Piedras</t>
+        </is>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>Colon FC</t>
+        </is>
+      </c>
+      <c r="C2298" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D2298" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2298" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2298" t="n">
+        <v>1.6625</v>
+      </c>
+      <c r="G2298" t="n">
+        <v>0.5075000000000001</v>
+      </c>
+      <c r="H2298" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="inlineStr">
+        <is>
+          <t>IF Vestri</t>
+        </is>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>Fram Reykjavik</t>
+        </is>
+      </c>
+      <c r="C2299" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D2299" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E2299" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F2299" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G2299" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H2299" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="inlineStr">
+        <is>
+          <t>Drobak/Frogn</t>
+        </is>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>Oppsal IF</t>
+        </is>
+      </c>
+      <c r="C2300" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D2300" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E2300" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>2.1825</v>
+      </c>
+      <c r="G2300" t="n">
+        <v>2.3075</v>
+      </c>
+      <c r="H2300" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="inlineStr">
+        <is>
+          <t>UMF Selfoss</t>
+        </is>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>Grotta</t>
+        </is>
+      </c>
+      <c r="C2301" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D2301" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E2301" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="G2301" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H2301" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="inlineStr">
+        <is>
+          <t>SC Internacional RS</t>
+        </is>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>Ferroviaria SP</t>
+        </is>
+      </c>
+      <c r="C2302" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="D2302" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="E2302" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F2302" t="n">
+        <v>0.3266666666666667</v>
+      </c>
+      <c r="G2302" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2302" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="inlineStr">
+        <is>
+          <t>Asker Fotball</t>
+        </is>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>Moss FK</t>
+        </is>
+      </c>
+      <c r="C2303" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="D2303" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E2303" t="n">
+        <v>4.239999999999999</v>
+      </c>
+      <c r="F2303" t="n">
+        <v>2.212</v>
+      </c>
+      <c r="G2303" t="n">
+        <v>2.756</v>
+      </c>
+      <c r="H2303" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="inlineStr">
+        <is>
+          <t>Bærum SK U19</t>
+        </is>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>Nordstrand U19</t>
+        </is>
+      </c>
+      <c r="C2304" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D2304" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E2304" t="n">
+        <v>0.6999999999999997</v>
+      </c>
+      <c r="F2304" t="n">
+        <v>2.518</v>
+      </c>
+      <c r="G2304" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H2304" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="inlineStr">
+        <is>
+          <t>KFUM U19</t>
+        </is>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>FK Lyn U19</t>
+        </is>
+      </c>
+      <c r="C2305" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D2305" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E2305" t="n">
+        <v>0.4499999999999997</v>
+      </c>
+      <c r="F2305" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="G2305" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H2305" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" t="inlineStr">
+        <is>
+          <t>East Stirlingshire FC</t>
+        </is>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>Ayr United FC</t>
+        </is>
+      </c>
+      <c r="C2306" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2306" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E2306" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="F2306" t="n">
+        <v>2.283</v>
+      </c>
+      <c r="G2306" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2306" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="inlineStr">
+        <is>
+          <t>UMF Vidir</t>
+        </is>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>Sindri</t>
+        </is>
+      </c>
+      <c r="C2307" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D2307" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E2307" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F2307" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G2307" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H2307" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="inlineStr">
+        <is>
+          <t>Resistencia FC</t>
+        </is>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>Martin Ledesma</t>
+        </is>
+      </c>
+      <c r="C2308" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D2308" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E2308" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F2308" t="n">
+        <v>0.9624999999999999</v>
+      </c>
+      <c r="G2308" t="n">
+        <v>0.2575</v>
+      </c>
+      <c r="H2308" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" t="inlineStr">
+        <is>
+          <t>SC Corinthians SP</t>
+        </is>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>Sao Paulo FC SP</t>
+        </is>
+      </c>
+      <c r="C2309" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D2309" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E2309" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F2309" t="n">
+        <v>1.336666666666667</v>
+      </c>
+      <c r="G2309" t="n">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="H2309" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" t="inlineStr">
+        <is>
+          <t>Lillestrom SK</t>
+        </is>
+      </c>
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>KFUM Oslo</t>
+        </is>
+      </c>
+      <c r="C2310" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D2310" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2310" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F2310" t="n">
+        <v>2.556</v>
+      </c>
+      <c r="G2310" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="H2310" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" t="inlineStr">
+        <is>
+          <t>KR Reykjavik</t>
+        </is>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>Fylkir Reykjavik</t>
+        </is>
+      </c>
+      <c r="C2311" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D2311" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E2311" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F2311" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G2311" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2311" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" t="inlineStr">
+        <is>
+          <t>Stjarnan Gardabae</t>
+        </is>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>Vikingur Reykjavik</t>
+        </is>
+      </c>
+      <c r="C2312" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D2312" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E2312" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F2312" t="n">
+        <v>4.445</v>
+      </c>
+      <c r="G2312" t="n">
+        <v>2.405</v>
+      </c>
+      <c r="H2312" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" t="inlineStr">
+        <is>
+          <t>Atletico El Vigia</t>
+        </is>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>Estudiantes de Merida</t>
+        </is>
+      </c>
+      <c r="C2313" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D2313" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E2313" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F2313" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G2313" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H2313" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" t="inlineStr">
+        <is>
+          <t>Fundacion Lara Deportiva</t>
+        </is>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>Zamora FC</t>
+        </is>
+      </c>
+      <c r="C2314" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D2314" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E2314" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F2314" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G2314" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2314" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" t="inlineStr">
+        <is>
+          <t>Yaracuyanos FC</t>
+        </is>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>Carabobo FC</t>
+        </is>
+      </c>
+      <c r="C2315" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D2315" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E2315" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F2315" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G2315" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2315" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" t="inlineStr">
+        <is>
+          <t>Cuniburo FC</t>
+        </is>
+      </c>
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>Guayaquil City FC</t>
+        </is>
+      </c>
+      <c r="C2316" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D2316" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E2316" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F2316" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2316" t="n">
+        <v>0.5980000000000001</v>
+      </c>
+      <c r="H2316" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" t="inlineStr">
+        <is>
+          <t>Aragua FC</t>
+        </is>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>Deportivo La Guaira</t>
+        </is>
+      </c>
+      <c r="C2317" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D2317" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E2317" t="n">
+        <v>3.390000000000001</v>
+      </c>
+      <c r="F2317" t="n">
+        <v>1.306</v>
+      </c>
+      <c r="G2317" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="H2317" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" t="inlineStr">
+        <is>
+          <t>Dynamo Puerto FC</t>
+        </is>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>Atletico La Cruz</t>
+        </is>
+      </c>
+      <c r="C2318" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2318" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E2318" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F2318" t="n">
+        <v>1.465</v>
+      </c>
+      <c r="G2318" t="n">
+        <v>0.2675</v>
+      </c>
+      <c r="H2318" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" t="inlineStr">
+        <is>
+          <t>Fundacion Aifi</t>
+        </is>
+      </c>
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t>Bolivar SC</t>
+        </is>
+      </c>
+      <c r="C2319" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D2319" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E2319" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F2319" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G2319" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="H2319" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C2320" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="D2320" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E2320" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="F2320" t="n">
+        <v>1.6925</v>
+      </c>
+      <c r="G2320" t="n">
+        <v>1.5325</v>
+      </c>
+      <c r="H2320" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" t="inlineStr">
+        <is>
+          <t>Fluminense FC RJ</t>
+        </is>
+      </c>
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>EC Vitoria BA</t>
+        </is>
+      </c>
+      <c r="C2321" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="D2321" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E2321" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F2321" t="n">
+        <v>1.413333333333333</v>
+      </c>
+      <c r="G2321" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H2321" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" t="inlineStr">
+        <is>
+          <t>Caracas FC</t>
+        </is>
+      </c>
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>Deportivo Miranda</t>
+        </is>
+      </c>
+      <c r="C2322" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D2322" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2322" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="F2322" t="n">
+        <v>2.702</v>
+      </c>
+      <c r="G2322" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2322" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" t="inlineStr">
+        <is>
+          <t>Maranhao AC MA</t>
+        </is>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>Cameta PA</t>
+        </is>
+      </c>
+      <c r="C2323" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D2323" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E2323" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F2323" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2323" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2323" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" t="inlineStr">
+        <is>
+          <t>RKC Soccer Club</t>
+        </is>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>Thunder Bay Chill SC</t>
+        </is>
+      </c>
+      <c r="C2324" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D2324" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E2324" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2324" t="n">
+        <v>2.795</v>
+      </c>
+      <c r="G2324" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="H2324" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" t="inlineStr">
+        <is>
+          <t>AD Confianca SE</t>
+        </is>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>CS Alagoano AL</t>
+        </is>
+      </c>
+      <c r="C2325" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D2325" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E2325" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2325" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G2325" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H2325" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" t="inlineStr">
+        <is>
+          <t>America FC RN</t>
+        </is>
+      </c>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>Sousa EC PB</t>
+        </is>
+      </c>
+      <c r="C2326" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D2326" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E2326" t="n">
+        <v>2.819999999999999</v>
+      </c>
+      <c r="F2326" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="G2326" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H2326" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" t="inlineStr">
+        <is>
+          <t>Midwest United FC</t>
+        </is>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>Detroit City FC</t>
+        </is>
+      </c>
+      <c r="C2327" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D2327" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E2327" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2327" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="G2327" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H2327" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" t="inlineStr">
+        <is>
+          <t>Valour FC</t>
+        </is>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>York United FC</t>
+        </is>
+      </c>
+      <c r="C2328" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D2328" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E2328" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F2328" t="n">
+        <v>1.616</v>
+      </c>
+      <c r="G2328" t="n">
+        <v>1.204</v>
+      </c>
+      <c r="H2328" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" t="inlineStr">
+        <is>
+          <t>Deportes Magallanes</t>
+        </is>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>Curico Unido</t>
+        </is>
+      </c>
+      <c r="C2329" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="D2329" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E2329" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F2329" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G2329" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H2329" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" t="inlineStr">
+        <is>
+          <t>AC Houston Sur</t>
+        </is>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>AHFC Royals</t>
+        </is>
+      </c>
+      <c r="C2330" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D2330" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E2330" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="F2330" t="n">
+        <v>1.1575</v>
+      </c>
+      <c r="G2330" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H2330" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" t="inlineStr">
+        <is>
+          <t>Coastal Spirit FC</t>
+        </is>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>Nelson Suburbs FC</t>
+        </is>
+      </c>
+      <c r="C2331" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="D2331" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E2331" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F2331" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G2331" t="n">
+        <v>5.9325</v>
+      </c>
+      <c r="H2331" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="C2332" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D2332" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="E2332" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="F2332" t="n">
+        <v>1.873333333333333</v>
+      </c>
+      <c r="G2332" t="n">
+        <v>0.6066666666666667</v>
+      </c>
+      <c r="H2332" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" t="inlineStr">
+        <is>
+          <t>Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>Atletico Nacional Medellin</t>
+        </is>
+      </c>
+      <c r="C2333" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D2333" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E2333" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="F2333" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G2333" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2333" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" t="inlineStr">
+        <is>
+          <t>Utah United</t>
+        </is>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>New Mexico United</t>
+        </is>
+      </c>
+      <c r="C2334" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2334" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E2334" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2334" t="n">
+        <v>1.025</v>
+      </c>
+      <c r="G2334" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H2334" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" t="inlineStr">
+        <is>
+          <t>Southern California Seahorses</t>
+        </is>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>Arizona Arsenal SC Usl 2</t>
+        </is>
+      </c>
+      <c r="C2335" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D2335" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E2335" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F2335" t="n">
+        <v>3.8175</v>
+      </c>
+      <c r="G2335" t="n">
+        <v>1.5075</v>
+      </c>
+      <c r="H2335" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
